--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1238176244730359</v>
+        <v>0.1240377592703423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06696921040608007</v>
+        <v>0.0688346729883693</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02302886381332302</v>
+        <v>0.02330557601248881</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06226043876851039</v>
+        <v>0.084068378476806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.084721740742547</v>
+        <v>0.008053489024356342</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003420963386249073</v>
+        <v>0.02650218291584588</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05161915745235629</v>
+        <v>0.0176430954343702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008016490267120358</v>
+        <v>0.003376204718150142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03827674312089657</v>
+        <v>0.03224688740941475</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01396679730084393</v>
+        <v>0.0773553230922429</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08165243020270029</v>
+        <v>0.05443578163069103</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0802971130210427</v>
+        <v>0.08327077852136837</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0349266941931579</v>
+        <v>0.00130279815409629</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05094190844487113</v>
+        <v>0.1051123472138584</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04522387760112857</v>
+        <v>0.05733953791319919</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02088968710679368</v>
+        <v>0.008209299356875328</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06271645633243074</v>
+        <v>0.05146657969192856</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02191877464142989</v>
+        <v>0.01677089776670042</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08338214907829528</v>
+        <v>0.07760108254442642</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0319317032180539</v>
+        <v>0.1010355231289133</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02644152356053921</v>
+        <v>0.05744952333413787</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02955213675565852</v>
+        <v>0.01547035129505327</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06864887398553288</v>
+        <v>0.009861163617084317</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.009196266600438638</v>
+        <v>0.01928852575962279</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1042653898338662</v>
+        <v>0.08474199241993637</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1416773922695251</v>
+        <v>0.1387798439599964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02264117262347905</v>
+        <v>0.05235756927967087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005701552855506198</v>
+        <v>0.03146568418755337</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04115148658256645</v>
+        <v>0.0317727196172851</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000862927491558</v>
+        <v>0.07511040438889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01147651692090235</v>
+        <v>0.001923992538461716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05675374132802151</v>
+        <v>0.02669561060540983</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00713545746978731</v>
+        <v>0.02365293547878531</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08234246416580608</v>
+        <v>0.05589143504125896</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06293691601167416</v>
+        <v>0.02344102382399741</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009102908402578266</v>
+        <v>0.002759797075831032</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04114447319682624</v>
+        <v>5.100320376439318e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08897426740112528</v>
+        <v>0.008695297213041474</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003392280457379904</v>
+        <v>0.08736389757243611</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06927007837080919</v>
+        <v>0.09150763089028337</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09266121008748884</v>
+        <v>0.06119288629779956</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01573442353380251</v>
+        <v>0.05307693714820556</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04030979660283466</v>
+        <v>0.09602591732446741</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03829691940765869</v>
+        <v>0.04409777213119104</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0350002701524727</v>
+        <v>0.08699960045320562</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001788758987371365</v>
+        <v>0.02913409470265421</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01338610321551252</v>
+        <v>0.007466909718065937</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04898646671406991</v>
+        <v>0.01360304759890211</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.111726442763171</v>
+        <v>0.09571383370883947</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1329773794179144</v>
+        <v>0.1232941647648896</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1301705566545658</v>
+        <v>0.1325161934058456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06729655524492872</v>
+        <v>0.001287967779373039</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02486429720542317</v>
+        <v>0.001417133300329587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008771230124836646</v>
+        <v>0.01430839893919702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06943687209097031</v>
+        <v>0.0299532732153179</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0668956741986431</v>
+        <v>0.06338009236586338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0161230719884394</v>
+        <v>0.05944620483771336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03193809345920153</v>
+        <v>0.02144262500149696</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001417971436192884</v>
+        <v>0.02012689673962507</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003019297772266249</v>
+        <v>0.02032313917043472</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02810776921149787</v>
+        <v>0.05210829891883573</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07502534875684226</v>
+        <v>0.1111881587839174</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06567166312200656</v>
+        <v>0.03012566801587887</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0925245379534176</v>
+        <v>0.1079417294540416</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02999892140220294</v>
+        <v>0.06900799797851401</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02161423486249341</v>
+        <v>0.02965307087174907</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05009946327603139</v>
+        <v>0.04106738248058611</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06339034360078365</v>
+        <v>0.01291142757208887</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06483131810895403</v>
+        <v>0.1044561137991662</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03918725616791714</v>
+        <v>0.00763341680399458</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07249706771995247</v>
+        <v>0.0896354600258597</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0899538852902772</v>
+        <v>0.06887150110650807</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003095092964424973</v>
+        <v>0.003163697538340206</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01424003404229637</v>
+        <v>0.0405503453011683</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01020435046322826</v>
+        <v>-0.02606606164238651</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1547644678686319</v>
+        <v>0.1496524672234757</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09195233392786084</v>
+        <v>0.007751863511921623</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01378330763361922</v>
+        <v>0.007623859019590768</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04660997333299747</v>
+        <v>8.387053346884804e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05527366427347986</v>
+        <v>0.09134671292345795</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04393290884814916</v>
+        <v>0.01849020279341811</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05120185625202166</v>
+        <v>0.01412703785314983</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008619666188664896</v>
+        <v>0.004583843512654708</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01173155570459423</v>
+        <v>0.01100306989519164</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0240409879845162</v>
+        <v>0.02367060627159967</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02726864545792024</v>
+        <v>0.03904659308940627</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02715414037607551</v>
+        <v>0.03892194162330456</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0004567078316900409</v>
+        <v>0.03867011189007088</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01846101232266731</v>
+        <v>0.03670882505736543</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08591924729708494</v>
+        <v>0.100268726108851</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1010099175057445</v>
+        <v>0.07531477541515809</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03620091319084644</v>
+        <v>0.08756638170126953</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01815828035619491</v>
+        <v>0.05945968622335487</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0248325105846373</v>
+        <v>0.04050552687762396</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04711955023420411</v>
+        <v>0.04582143659406107</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06621158485504591</v>
+        <v>0.06134029678324034</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00107649263646745</v>
+        <v>9.879868196261496e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07299656279830344</v>
+        <v>0.09170170512435651</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1259881804072143</v>
+        <v>0.1058941285155217</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.008357041324902482</v>
+        <v>-0.01036525652738265</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1305961796242167</v>
+        <v>0.1300348347637739</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06052763629886945</v>
+        <v>0.08416885587353452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01245739012950505</v>
+        <v>0.0518961680007651</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06856979214243458</v>
+        <v>0.03125591329955539</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04716060101953359</v>
+        <v>0.02702489684028615</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05079169402509403</v>
+        <v>0.06839277178773148</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003903360235552533</v>
+        <v>0.002732955229008063</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01295214647200314</v>
+        <v>0.07096113253350775</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009753368223621295</v>
+        <v>0.01761264327891211</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02010005849339952</v>
+        <v>0.06549349852202435</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07763272799798311</v>
+        <v>0.05136132458160026</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05812214624483473</v>
+        <v>0.06503868235152879</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02097301783950522</v>
+        <v>0.00420838545934156</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03808539037922595</v>
+        <v>0.08586161309982317</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07150932479564649</v>
+        <v>0.02538418406002832</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07096478811175148</v>
+        <v>0.03431241973050501</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04392982330228291</v>
+        <v>0.09101147901416544</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0313895949763433</v>
+        <v>0.007417798625175475</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0709866232457536</v>
+        <v>0.06326661277076612</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07255151502978507</v>
+        <v>0.01368731578725641</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0575372830934796</v>
+        <v>0.06568604085310134</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06796084548433481</v>
+        <v>0.05863106855190157</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0267691162866278</v>
+        <v>0.002464051976742741</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.005371756172432855</v>
+        <v>0.01213018777273899</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03249871204369994</v>
+        <v>0.03386128906426435</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1482883740752583</v>
+        <v>0.146639782211756</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05612253755412341</v>
+        <v>0.04472689970736844</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009727587124109078</v>
+        <v>0.01457847114500994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02164187178344361</v>
+        <v>0.01237312128985955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0532055159379339</v>
+        <v>0.007385953727637841</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004518239636187738</v>
+        <v>0.07614369404006996</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06993335706826147</v>
+        <v>0.06141984206049178</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06189958511587779</v>
+        <v>0.02554290214974268</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0110880718720602</v>
+        <v>0.02069472358232191</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03828347996410697</v>
+        <v>0.02391308171643834</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01485911606900534</v>
+        <v>0.05099205927847086</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07474420740561628</v>
+        <v>0.001969779877818388</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003466986170595882</v>
+        <v>0.03517256027676022</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05854629743934892</v>
+        <v>0.0694626527458146</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05257473628338021</v>
+        <v>0.06342803260735938</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1152942988163264</v>
+        <v>0.06607020461329213</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007458423927660489</v>
+        <v>0.07276752323719034</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007821781432443933</v>
+        <v>0.02255063944058731</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03523969089571024</v>
+        <v>0.01361166779812291</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01005648977384974</v>
+        <v>0.04091114375858167</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05494416800042121</v>
+        <v>0.04601880070650703</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0005998956411849796</v>
+        <v>0.003823545865388912</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1135857426675446</v>
+        <v>0.1033065023121675</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1243879194208075</v>
+        <v>0.1231361980629982</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.05366943150361029</v>
+        <v>0.04884726572672313</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1307215140244424</v>
+        <v>0.1322831489862926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1150135654507899</v>
+        <v>0.04577398504731395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002607091956722692</v>
+        <v>0.01706611126302481</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04357180581204514</v>
+        <v>0.009509795690735954</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007314938703176566</v>
+        <v>0.001780952445137448</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07422101434039856</v>
+        <v>0.1097740685568639</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01123240846797342</v>
+        <v>0.02253106207767002</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01125973354497153</v>
+        <v>0.04033964625420453</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003604735997094255</v>
+        <v>0.01771550456254395</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001780740849365626</v>
+        <v>0.006299988291521775</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1149198107810585</v>
+        <v>0.1135548409715911</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06158446459882374</v>
+        <v>0.07494141247013682</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003671551044282729</v>
+        <v>0.03790025197419535</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06225411248803903</v>
+        <v>0.05183386702081697</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1167520116041512</v>
+        <v>0.03390262870841564</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008893851745361213</v>
+        <v>0.00476476062527879</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08979365865252455</v>
+        <v>0.03738410092312058</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01449039181231204</v>
+        <v>0.03529149776478973</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05521909948926147</v>
+        <v>0.09888035827676891</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0439634746356283</v>
+        <v>0.02349664699151994</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1033245121095744</v>
+        <v>0.1101116224628534</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0176368452648337</v>
+        <v>0.04102478986490765</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02863624416663042</v>
+        <v>0.01476274462645924</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.008253936484980939</v>
+        <v>0.0513593631301295</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1590058925222151</v>
+        <v>-0.1498574066992334</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1513522101046021</v>
+        <v>0.1537486510812643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09534065394338992</v>
+        <v>0.01494849110002247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03438879731837925</v>
+        <v>0.09130647356981454</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005769622660062335</v>
+        <v>0.02362100994843553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06851621741845135</v>
+        <v>0.1006076286685422</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04057629453164879</v>
+        <v>0.005436455590546179</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05541697576466866</v>
+        <v>0.006427985704148483</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1114739791703651</v>
+        <v>0.08826096585572513</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00840211267453873</v>
+        <v>0.01774804236337386</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001767055157705996</v>
+        <v>0.02415561821521945</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01430578914791877</v>
+        <v>0.002268466330528941</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04576789884496566</v>
+        <v>0.001540632065380114</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07336911493920867</v>
+        <v>0.08744980226067062</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03867214210278166</v>
+        <v>0.00442886117208626</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05623872296948671</v>
+        <v>0.02471940074897757</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03071782105614562</v>
+        <v>0.001775469563071238</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01651444837002376</v>
+        <v>0.05855401501233766</v>
       </c>
       <c r="V9" t="n">
-        <v>0.006582017536802398</v>
+        <v>0.01308025671327007</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01746975040944347</v>
+        <v>0.08477667802165163</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0402243412925393</v>
+        <v>0.04615100067553587</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05133982614583972</v>
+        <v>0.03494284637165766</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01872215008411549</v>
+        <v>0.08251465304190855</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06115704667257561</v>
+        <v>0.08982046408208458</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.107267221788943</v>
+        <v>0.09546478292501141</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1405252761826868</v>
+        <v>-0.1342423540895483</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1614803785161664</v>
+        <v>0.1620148485394972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07875317995955927</v>
+        <v>0.04624663422079486</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03758823464242225</v>
+        <v>0.008455314859673692</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04880663161429152</v>
+        <v>0.01490377163107181</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03752558401353895</v>
+        <v>0.03952740248413461</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005997815509316259</v>
+        <v>0.03922051806022654</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002627403706333848</v>
+        <v>0.01949120676803436</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007510237292201829</v>
+        <v>0.05538837310170298</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01873454264219181</v>
+        <v>0.00274774960846819</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003775441566123584</v>
+        <v>0.01615166284700031</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04591268991561014</v>
+        <v>0.01332371831242719</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07922278887806682</v>
+        <v>0.0586847014986288</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09139495617910454</v>
+        <v>0.03479743990237444</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08265571967688407</v>
+        <v>0.1000625811719865</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07930228008845931</v>
+        <v>0.09346959465005394</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01750823181047903</v>
+        <v>0.04163044377033871</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03924922936032402</v>
+        <v>0.04348117402996737</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04129900702986771</v>
+        <v>0.03208682148162428</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03500053721609345</v>
+        <v>0.08231529310806593</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09123581653683789</v>
+        <v>0.09804284818178412</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01856070460810184</v>
+        <v>0.007064445076139041</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08939453172107406</v>
+        <v>0.08636181009899335</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02869848981528912</v>
+        <v>0.01947402696964021</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01924594621782875</v>
+        <v>0.04707246816686869</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.05383924679566987</v>
+        <v>-0.06389265820825843</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1785849196612817</v>
+        <v>0.1701081105768222</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07074186533051068</v>
+        <v>0.09489204361942644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04188587808655334</v>
+        <v>0.005844521793525606</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0571603731386249</v>
+        <v>0.06788120942042597</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06717931914466539</v>
+        <v>0.02577517801733949</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05335370035584221</v>
+        <v>0.003221682864191384</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06199630493741745</v>
+        <v>0.05493607978196696</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06516389452691458</v>
+        <v>0.09158563008703449</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02905360987912857</v>
+        <v>0.006079136678236406</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003746826490708628</v>
+        <v>0.000462287576012702</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004600394657788926</v>
+        <v>0.001351772075156751</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03286224784568026</v>
+        <v>0.0002654284319226937</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06115342857652044</v>
+        <v>0.08842018676034466</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01434901230111443</v>
+        <v>0.06062915713292383</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07151036286434406</v>
+        <v>0.01830717719507411</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01317187831073902</v>
+        <v>0.02575900729989658</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02286044079693636</v>
+        <v>0.04894744554518556</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00558660663792359</v>
+        <v>0.03301133950981473</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07480723571982731</v>
+        <v>0.08818926933355219</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03106082241307518</v>
+        <v>0.07039087304432615</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06321491799879995</v>
+        <v>0.04526057149542129</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003674966821676615</v>
+        <v>0.03568089400339087</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07818020340680551</v>
+        <v>0.05610508869754667</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0726857097584024</v>
+        <v>0.0770040196372844</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08954316591324007</v>
+        <v>-0.07570387819327916</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1979654301761272</v>
+        <v>0.1932388891132169</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03914178038975125</v>
+        <v>0.07339251658905784</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01335148200224017</v>
+        <v>0.005326769241767065</v>
       </c>
       <c r="H12" t="n">
-        <v>0.061070260025926</v>
+        <v>0.00748021802796155</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06663542692133802</v>
+        <v>0.004260947333376254</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003675914052649436</v>
+        <v>0.05747357628508773</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001770295229527748</v>
+        <v>0.01993150829849236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01027190591646685</v>
+        <v>0.007370644530334407</v>
       </c>
       <c r="M12" t="n">
-        <v>0.043948316285681</v>
+        <v>0.03915189128929951</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07607288642580912</v>
+        <v>0.01638417608042956</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04640937536629721</v>
+        <v>0.08531437338600403</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06560603524894154</v>
+        <v>0.09627031354122262</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.080955417365495</v>
+        <v>0.04176226171184488</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07093586436001141</v>
+        <v>0.09492594088228891</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07848550813102476</v>
+        <v>0.015705908798986</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07835366575144785</v>
+        <v>0.06530327157005242</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01292834977090988</v>
+        <v>0.02669993710137908</v>
       </c>
       <c r="V12" t="n">
-        <v>0.001064397235221082</v>
+        <v>0.00173588461482158</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0260721256143801</v>
+        <v>0.01366016145552767</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0732961997372744</v>
+        <v>0.04845039383905652</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06007841413097813</v>
+        <v>0.09750904444755665</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06005661568165568</v>
+        <v>0.06890698490721624</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001094972154638683</v>
+        <v>0.03441222542511921</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02872479220233472</v>
+        <v>0.07857105064311777</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3593772585134418</v>
+        <v>-0.355145767195666</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2124781864810647</v>
+        <v>0.2426937203708557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0116852503262767</v>
+        <v>0.07228883953269907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0007558369966426368</v>
+        <v>0.03402600091969105</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05730567426101089</v>
+        <v>0.02973656688027534</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09416141475965781</v>
+        <v>0.09085465227428469</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01473903264113145</v>
+        <v>0.03637312901987048</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01641255298186799</v>
+        <v>0.01036066976024495</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05720400487752826</v>
+        <v>0.09349403111489253</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05328061089823664</v>
+        <v>0.03965376165719974</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006664067704880226</v>
+        <v>0.01994399059092191</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01785977724146661</v>
+        <v>0.08326544272637085</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04976308393303906</v>
+        <v>0.06048854372133882</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07088053467088475</v>
+        <v>0.06161664336871622</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08996209744256323</v>
+        <v>0.04186363530261591</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06538429905803142</v>
+        <v>0.05285110883994507</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005633539044135842</v>
+        <v>0.004169866565320533</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06966264956211204</v>
+        <v>0.003835759914944301</v>
       </c>
       <c r="V13" t="n">
-        <v>0.004360803933239547</v>
+        <v>0.001595071993727764</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04336925809720625</v>
+        <v>0.08839952157083381</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0304258556607208</v>
+        <v>0.002604844075560853</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.05780367040001821</v>
+        <v>0.007154127741056617</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03428984486021727</v>
+        <v>0.02788459894638072</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06096013271833767</v>
+        <v>0.0468327074872278</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.08743600793079476</v>
+        <v>0.09070648599588092</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3458351818256374</v>
+        <v>-0.38328291969247</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2581541229600177</v>
+        <v>0.257477513186825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02040522165873466</v>
+        <v>0.06993559242801198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06519680240139283</v>
+        <v>0.01187998710476851</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01149171384137529</v>
+        <v>0.08330882236419769</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02159571776180218</v>
+        <v>0.01360259060614184</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08643884562487211</v>
+        <v>0.07139879051478148</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002397513256305865</v>
+        <v>0.01446782689277646</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02314519192637719</v>
+        <v>0.02996553660812484</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009895866774042097</v>
+        <v>0.0359041235452718</v>
       </c>
       <c r="N14" t="n">
-        <v>0.005629238340343552</v>
+        <v>0.007388071222822046</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01169779903555161</v>
+        <v>0.01983554433613262</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07043726328744156</v>
+        <v>0.1071466368352776</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04675260336007719</v>
+        <v>0.01796621632347506</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08883516175639732</v>
+        <v>0.0722607596937349</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08841459040536674</v>
+        <v>0.1002985268006025</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08464379609904343</v>
+        <v>0.05375934889231544</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03010763597697964</v>
+        <v>0.05118411516932524</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00409698855304708</v>
+        <v>0.003612904758732848</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03285047144332793</v>
+        <v>0.09901090842192699</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08398333286642476</v>
+        <v>0.01967246998084861</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07970706280332998</v>
+        <v>0.04107563138128868</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06033685292636937</v>
+        <v>0.06312516054856154</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.00597979133404109</v>
+        <v>0.005175012474025751</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07486681866399438</v>
+        <v>0.00802542309685568</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04763098565980801</v>
+        <v>-0.04731702611729585</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6832566320857211</v>
+        <v>0.8083625573442944</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008046419730145075</v>
+        <v>0.02162080781788228</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003913175833803396</v>
+        <v>0.01802203784073933</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01080647163529447</v>
+        <v>0.03472872732017875</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09500687710369282</v>
+        <v>0.07408312344113484</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01409784494342145</v>
+        <v>0.004127027599189199</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1097266201063968</v>
+        <v>0.1160450590831674</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00274361114790528</v>
+        <v>0.05647035820421448</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01871796025407121</v>
+        <v>0.01764088409437838</v>
       </c>
       <c r="N15" t="n">
-        <v>0.003891150052721917</v>
+        <v>0.001167055638234367</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03975450542533162</v>
+        <v>0.04854877256958495</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06786362008846174</v>
+        <v>0.05773970867483359</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.009610626979292127</v>
+        <v>0.04882703410450595</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08680944320917763</v>
+        <v>0.004036764702893227</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03789279031619456</v>
+        <v>0.04201248574222596</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07178315982300784</v>
+        <v>0.04381919918395924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005724106608973691</v>
+        <v>0.08519347734468005</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0950925120015625</v>
+        <v>0.1168689677286499</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0656911873165494</v>
+        <v>0.04988660848386876</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002786773570783746</v>
+        <v>0.05230301685234688</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09332595879044726</v>
+        <v>0.04048342809344973</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05533640394930922</v>
+        <v>0.03732257581934192</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01820114294396605</v>
+        <v>0.003561803555024318</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08317763816949038</v>
+        <v>0.02549107610551652</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.03380541979773292</v>
+        <v>-0.03398353532849006</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2691442323560894</v>
+        <v>0.2791105536110584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05894952005552126</v>
+        <v>0.08984759677325273</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01035640227464038</v>
+        <v>0.0005851281516367288</v>
       </c>
       <c r="H16" t="n">
-        <v>0.013577855468307</v>
+        <v>0.04981592643162328</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0617646830502713</v>
+        <v>0.07722073982008607</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03260989335983571</v>
+        <v>0.08886604973234137</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00633697591868601</v>
+        <v>0.01742327471606208</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03048010497478454</v>
+        <v>0.01036744375552125</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02123654911812846</v>
+        <v>0.02563803525799155</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02319976957722329</v>
+        <v>0.002887766759156139</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01774697839988385</v>
+        <v>0.04453500099873963</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06561956743882599</v>
+        <v>0.074626183248137</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06179769379017106</v>
+        <v>0.03414484176324027</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06699461866043536</v>
+        <v>0.07262231559667749</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08438194531463329</v>
+        <v>0.0320818275616574</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02559306550576302</v>
+        <v>0.02778780427150588</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0823651747220266</v>
+        <v>0.04774137916629603</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01722794838550236</v>
+        <v>0.02613580028657844</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08923496810844712</v>
+        <v>0.09305732718840989</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03498165542429347</v>
+        <v>0.009001222705273121</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07751576635947691</v>
+        <v>0.09137725847357471</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0823319627728894</v>
+        <v>0.03598358398366465</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003247266063775607</v>
+        <v>0.01132897025145891</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03244963525647809</v>
+        <v>0.03692452310711519</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1020341094641729</v>
+        <v>0.1176299041054609</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3461747930321464</v>
+        <v>0.3745603494043601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01309810027913436</v>
+        <v>0.03692095262920682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003230322536415074</v>
+        <v>0.02457805055935984</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07158874484201916</v>
+        <v>0.02634316114821519</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1018007742021237</v>
+        <v>0.001642523709486386</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04205923137438042</v>
+        <v>0.05826700848254101</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02013467532465062</v>
+        <v>0.01741594287486752</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01925432677674866</v>
+        <v>0.003317390528640279</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03065878687911815</v>
+        <v>0.007964698337231081</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001358605021304955</v>
+        <v>0.1117768509705033</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01571979627096714</v>
+        <v>0.05495819588764101</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005263098261607848</v>
+        <v>0.06605176541767779</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06537787177591063</v>
+        <v>0.008361533479109435</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06377135534930244</v>
+        <v>0.0330019890105597</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04668337490519436</v>
+        <v>0.01641060034281682</v>
       </c>
       <c r="T17" t="n">
-        <v>0.08074774590992985</v>
+        <v>0.08243989225282849</v>
       </c>
       <c r="U17" t="n">
-        <v>0.006522424448891354</v>
+        <v>0.01416973558011384</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1128443080255527</v>
+        <v>0.1034822598219392</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1054272678167105</v>
+        <v>0.07536112890402812</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01031821686487402</v>
+        <v>0.003337586286539877</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01495793888139991</v>
+        <v>0.0972895859930038</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08984646544107999</v>
+        <v>0.05271778486482397</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.05496296728093801</v>
+        <v>0.02090160100698886</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0255963460509205</v>
+        <v>0.08328976191187763</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1435929875252267</v>
+        <v>0.1696191756508549</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2932185577566068</v>
+        <v>0.2901572003658059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06161123664489204</v>
+        <v>0.01616666396651454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03351994541733685</v>
+        <v>0.003529570752628356</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03936393255821295</v>
+        <v>0.01141617914803894</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005031072152834427</v>
+        <v>0.08242141183153157</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04095614531893498</v>
+        <v>0.01242452561710529</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02734379988983921</v>
+        <v>0.01697926210515762</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02394527025235687</v>
+        <v>0.01038233653659483</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04809419994229715</v>
+        <v>0.061973055014007</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01369368000628473</v>
+        <v>0.02496056335381311</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009187117343075719</v>
+        <v>0.007034502174440365</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04959565038543762</v>
+        <v>0.07832713449840389</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04613052631859241</v>
+        <v>0.06151559130872458</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06212187089496661</v>
+        <v>0.1002541321556343</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05415119760065699</v>
+        <v>0.09360876895328357</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04307810685948942</v>
+        <v>0.0531755515045151</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05860666855704549</v>
+        <v>0.004580124929033989</v>
       </c>
       <c r="V18" t="n">
-        <v>0.002083876427035342</v>
+        <v>0.04432887165722834</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08936333758479675</v>
+        <v>0.09668655336286681</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07640768489310203</v>
+        <v>0.005779576571982986</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06287640755783018</v>
+        <v>0.01349477987717747</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07779289625456157</v>
+        <v>0.09795827427694562</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.005855555660501464</v>
+        <v>0.03643987888777112</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06918982147991927</v>
+        <v>0.06656269151660056</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1189673119908147</v>
+        <v>0.1257455380488698</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3639948734712568</v>
+        <v>0.3888212680461239</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05387471343644176</v>
+        <v>0.07285226916175118</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02539140309457373</v>
+        <v>0.02210023634671531</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04160805037649321</v>
+        <v>0.06359929664370668</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1187925110059719</v>
+        <v>0.06319718055960094</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005890863131948025</v>
+        <v>0.05576018464868526</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00568306118006163</v>
+        <v>0.05655368324593147</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007513968223952045</v>
+        <v>0.01633565646886666</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007334148403424076</v>
+        <v>0.01366844120062633</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02211640354787287</v>
+        <v>0.03204409036224061</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02436469427265733</v>
+        <v>0.004961721806733581</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06181071077631186</v>
+        <v>0.02370222940537386</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01241507467950931</v>
+        <v>0.002762009552405908</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04749986690925235</v>
+        <v>0.03405680124065642</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08922941356804066</v>
+        <v>0.05756897764762517</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02720762249951855</v>
+        <v>0.06079456651839053</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07580654954428101</v>
+        <v>0.08740827562310269</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1244385400791125</v>
+        <v>0.1002890844942434</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02093697369536802</v>
+        <v>0.01750613516824204</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07211713026950474</v>
+        <v>0.02793441982089407</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06076074969864649</v>
+        <v>0.02292399086960976</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0488241992805524</v>
+        <v>0.03164058809648555</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.522406063852424e-06</v>
+        <v>0.03699872443182493</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.04637582992044168</v>
+        <v>0.09534143668628775</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1512454281237749</v>
+        <v>0.1554091097657176</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2711485893876763</v>
+        <v>0.2717751054794397</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1116919399572036</v>
+        <v>0.01420656775015536</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01453016484851872</v>
+        <v>0.03299367573147007</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008798207640217816</v>
+        <v>0.02536249136538553</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01281003036925512</v>
+        <v>0.06948200332204318</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05238620253847038</v>
+        <v>0.01945206858200414</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003771049327091359</v>
+        <v>0.002230635326766697</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0527168246772974</v>
+        <v>0.0454362166514358</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0320627551331577</v>
+        <v>0.04672207840222951</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02355323528449947</v>
+        <v>0.004077565411044625</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03505953788352643</v>
+        <v>0.01926192385623766</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03659649388944164</v>
+        <v>0.05503644251558565</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07211777746846461</v>
+        <v>0.09515821259303936</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08580681757473985</v>
+        <v>0.0934083348371165</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1305116923334766</v>
+        <v>0.09429365469830428</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02656701850898629</v>
+        <v>0.04391052905904599</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02901378192500869</v>
+        <v>0.07051550489089563</v>
       </c>
       <c r="V20" t="n">
-        <v>0.005093923577015465</v>
+        <v>0.01340676050552913</v>
       </c>
       <c r="W20" t="n">
-        <v>0.106535879844176</v>
+        <v>0.04658699745406276</v>
       </c>
       <c r="X20" t="n">
-        <v>0.007932184976557064</v>
+        <v>0.0186809538253695</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.08977387859766853</v>
+        <v>0.01637878392512601</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.04220393337826892</v>
+        <v>0.09564022517716363</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.001940921915813926</v>
+        <v>0.008351592984821769</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.02644413522734026</v>
+        <v>0.06940678113516699</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03774273637876289</v>
+        <v>0.02851946484408382</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3631193486901328</v>
+        <v>0.3399296152422389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1029806141574039</v>
+        <v>0.00973215038109944</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03352028859908016</v>
+        <v>0.004821035406786705</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03122028724481572</v>
+        <v>0.01308601844783139</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04708344899759057</v>
+        <v>0.02014806995196592</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008081805595438987</v>
+        <v>0.003500814984946296</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05871829021106839</v>
+        <v>0.006482822708432263</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04488259841823463</v>
+        <v>0.06040748605515258</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04758857753084086</v>
+        <v>0.009754188321554209</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0576908596464799</v>
+        <v>0.1272286014540082</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01574287208985394</v>
+        <v>0.0007895814320476482</v>
       </c>
       <c r="P21" t="n">
-        <v>0.009936519826673516</v>
+        <v>0.04834159131471624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.003504236404618887</v>
+        <v>0.1329119777094388</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001004153290775845</v>
+        <v>0.02039923673819788</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004511421557937961</v>
+        <v>0.05949279214355866</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07253104263343557</v>
+        <v>0.04616063521057021</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1130905107124748</v>
+        <v>0.1175369251503861</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1161434532911784</v>
+        <v>0.1081620497930874</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01533839418576974</v>
+        <v>0.04553023342691749</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04679815005179923</v>
+        <v>0.02098178662916838</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.006535090145805444</v>
+        <v>0.0006483681813587353</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.08647007694364266</v>
+        <v>0.01398992908510475</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06532840243048631</v>
+        <v>0.001214392436918438</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01129890603459447</v>
+        <v>0.1286793130367523</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06767773671986074</v>
+        <v>0.0571340621353415</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2667975704475359</v>
+        <v>0.2662751747763741</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1000002251552507</v>
+        <v>0.07793130566189109</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0367558095906742</v>
+        <v>0.01631280739441368</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008129919198961591</v>
+        <v>0.04292045280367725</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01807242981527222</v>
+        <v>0.06050749390219907</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02386795760458587</v>
+        <v>0.01136321540100052</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005319695323912479</v>
+        <v>0.04693304998682027</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01660703007093426</v>
+        <v>0.001258941493376012</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0566895452202765</v>
+        <v>0.0097270237504537</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02534102405358074</v>
+        <v>0.009833021966445881</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03213112379734685</v>
+        <v>0.08585803703352117</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03203566902055415</v>
+        <v>0.06516776487069112</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08614511631989068</v>
+        <v>0.04157684324025351</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1186350155186261</v>
+        <v>0.08850527360668504</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04471002890261943</v>
+        <v>0.05405698404874743</v>
       </c>
       <c r="T22" t="n">
-        <v>0.08224643660933666</v>
+        <v>0.05601621220926013</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07245412954684395</v>
+        <v>0.03814005420127115</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01408180801404495</v>
+        <v>0.006308284892610002</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1178892222815032</v>
+        <v>0.0305205555195494</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01664602903978776</v>
+        <v>0.08286350670878799</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01375113440280892</v>
+        <v>0.05031346820694259</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02790396299506037</v>
+        <v>0.04312238169836314</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.009682656471353265</v>
+        <v>0.01947580560022567</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04822095832584059</v>
+        <v>0.06128751580281403</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3166682145177723</v>
+        <v>0.3367373028739018</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004606435944865723</v>
+        <v>0.02419029440334986</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06291037777102249</v>
+        <v>0.050783298049521</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04667681143867487</v>
+        <v>0.02118702760943905</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02584226959620084</v>
+        <v>0.005443051597798847</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1170356183673012</v>
+        <v>0.1020768958608756</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005859002538860571</v>
+        <v>0.08867977722701031</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03232685106790061</v>
+        <v>0.002007010490118158</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04714524787193952</v>
+        <v>0.03156618234670864</v>
       </c>
       <c r="N23" t="n">
-        <v>0.004697755141232596</v>
+        <v>0.06855596127289962</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00200253990715329</v>
+        <v>0.01853107118920658</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1020854065826278</v>
+        <v>0.04316184478924619</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04901104850872597</v>
+        <v>0.01197861887859454</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008884106359318779</v>
+        <v>0.1138777982399397</v>
       </c>
       <c r="S23" t="n">
-        <v>0.002161849619492746</v>
+        <v>0.003828864692078237</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006074102392182488</v>
+        <v>0.002010294756544237</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1053210472391714</v>
+        <v>0.07099880526533965</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1173897614971722</v>
+        <v>0.1133895183750514</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08000332462151966</v>
+        <v>0.01796303960238955</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007330643004494013</v>
+        <v>0.00494763316668578</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.008508443624767274</v>
+        <v>0.02335045872824589</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1021524095984537</v>
+        <v>0.05319438073883399</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.004176653977983794</v>
+        <v>0.09207075409888757</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0577982933289385</v>
+        <v>0.03620741862123542</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2719012735652963</v>
+        <v>0.2710482886645715</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07207937920792994</v>
+        <v>0.08756096642462766</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008247515924956105</v>
+        <v>0.02558303650440835</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04748323692620283</v>
+        <v>0.00464511074149962</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06943182615604444</v>
+        <v>0.07000137153330759</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03680643515565184</v>
+        <v>0.002250777949921027</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02204587366630349</v>
+        <v>0.0002956515628553725</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01580780882384766</v>
+        <v>0.02201195975982803</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03247384438417771</v>
+        <v>0.07446612102423421</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005584437952071654</v>
+        <v>0.007173271275899639</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02710700255903382</v>
+        <v>0.01262908850056588</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07198594631609345</v>
+        <v>0.0650052123408108</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03260877740438407</v>
+        <v>0.02307055914757188</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07613852106951072</v>
+        <v>0.09248802429486148</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04818586534496199</v>
+        <v>0.07222303168258555</v>
       </c>
       <c r="T24" t="n">
-        <v>0.06080574924818512</v>
+        <v>0.05894804154443768</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04849361968112453</v>
+        <v>0.05380973078581668</v>
       </c>
       <c r="V24" t="n">
-        <v>0.009034730379684486</v>
+        <v>0.01815844950729117</v>
       </c>
       <c r="W24" t="n">
-        <v>0.09388849380012679</v>
+        <v>0.09462305638867298</v>
       </c>
       <c r="X24" t="n">
-        <v>0.009328697570035778</v>
+        <v>0.067290143913385</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.09296954908675711</v>
+        <v>0.04383171144324195</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04280183661035623</v>
+        <v>0.005905028485927537</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04110339169331306</v>
+        <v>0.06903335141912309</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.03558746103924725</v>
+        <v>0.02899630376912668</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09394077359780514</v>
+        <v>0.08777057322145604</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3382518210600355</v>
+        <v>0.3273482665983055</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1182396917379198</v>
+        <v>0.02801302081583494</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0225459115296576</v>
+        <v>0.06438078414167822</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03649010748282035</v>
+        <v>0.1155140813462886</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02748835765421537</v>
+        <v>0.01438938895872159</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03553622298414406</v>
+        <v>0.008259449292195738</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002037897983439566</v>
+        <v>0.03441671891282996</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1133042191909546</v>
+        <v>0.01210659683682057</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003969052891035225</v>
+        <v>0.03997050235114018</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001272557740089741</v>
+        <v>0.008319132208479138</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0160238669293104</v>
+        <v>0.01850173844128517</v>
       </c>
       <c r="P25" t="n">
-        <v>0.09032721795109667</v>
+        <v>0.1060286683594512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01656662305508161</v>
+        <v>0.02871672988008656</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1122955354360792</v>
+        <v>0.1134267947890376</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06458531016046173</v>
+        <v>0.1001713238691402</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04770795247976622</v>
+        <v>0.043206168243483</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02361726546883983</v>
+        <v>0.01166210823472474</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1258859193439842</v>
+        <v>0.1271081944867891</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01766385929287764</v>
+        <v>0.0008145073784579361</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01011298420394613</v>
+        <v>0.007239361417250774</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02949869800163237</v>
+        <v>0.003841054072330335</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01374257860605077</v>
+        <v>0.0235777523508846</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0122745627863091</v>
+        <v>0.02218972589567129</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05881360709028775</v>
+        <v>0.06814619771741853</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1663282896522781</v>
+        <v>0.1627668706529699</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1837933130698697</v>
+        <v>0.1858228562619076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08195884347940463</v>
+        <v>0.03717776296719462</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02980361978331439</v>
+        <v>0.0140909141578754</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003830844979170128</v>
+        <v>0.007289178396009998</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08390026461288949</v>
+        <v>0.02119993809005099</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000956756397519782</v>
+        <v>0.02700731850529992</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03849980198395182</v>
+        <v>0.01248723529935194</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007098018289793975</v>
+        <v>0.01281117221150076</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03774830485677804</v>
+        <v>0.001682052470182732</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01894493150019162</v>
+        <v>0.03481875604394721</v>
       </c>
       <c r="O26" t="n">
-        <v>0.08222218223833133</v>
+        <v>0.08100843736143061</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06828170032434382</v>
+        <v>0.06375604272526333</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.08753564823584481</v>
+        <v>0.03671935244643633</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09281287616971136</v>
+        <v>0.08582928495054004</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04110260660596489</v>
+        <v>0.09761383027347909</v>
       </c>
       <c r="T26" t="n">
-        <v>0.003785296648270586</v>
+        <v>0.06224901920075825</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04340047847306156</v>
+        <v>0.0715258142639449</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02374906510237251</v>
+        <v>0.004064148532826097</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05370277488280258</v>
+        <v>0.04789267172871648</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05597388288920857</v>
+        <v>0.04837623438931747</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01120961271771306</v>
+        <v>0.06762778375936095</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.09469407751872432</v>
+        <v>0.09275578768953888</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.004064254483432251</v>
+        <v>0.04724682956858735</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.03472415782720437</v>
+        <v>0.02477043496838666</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.08253879226748566</v>
+        <v>0.07314343790096881</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2646883518945701</v>
+        <v>0.2220740355759594</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0762590410171541</v>
+        <v>0.05063064113624114</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1128280708521739</v>
+        <v>0.0004738380400686143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1157234828106429</v>
+        <v>0.09462666143209399</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002279611933999513</v>
+        <v>0.07683823505746615</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1068283015834961</v>
+        <v>0.07485156024088607</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02026432993886801</v>
+        <v>0.03725901451193091</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01571050911917802</v>
+        <v>0.04887298345338329</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008202404543969697</v>
+        <v>0.0001536003303461221</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0281150465069077</v>
+        <v>0.01604534407127369</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01167853940295279</v>
+        <v>0.01229912464540554</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02754358894352005</v>
+        <v>0.01984092004636233</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03306877177791157</v>
+        <v>0.02044804055197625</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03894747576682323</v>
+        <v>0.07657464078112634</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08530062701178685</v>
+        <v>0.08824869065178563</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02303052268681137</v>
+        <v>0.02150266615931528</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00943915303533154</v>
+        <v>0.01018223003080621</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1201194541454225</v>
+        <v>0.08460223623175991</v>
       </c>
       <c r="W27" t="n">
-        <v>0.008099910372156701</v>
+        <v>0.1082430129633319</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02365402386298998</v>
+        <v>0.01709507708333144</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.007554496040450464</v>
+        <v>0.02400025387289974</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03453739877481242</v>
+        <v>0.03514857392373359</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02093172285463824</v>
+        <v>0.04341800422574196</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0698835170180022</v>
+        <v>0.03864465055873398</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.08791616374997434</v>
+        <v>0.09029633928040119</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1608174111896053</v>
+        <v>0.1618604112038893</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02495871011906865</v>
+        <v>0.04055858556669387</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02133130425512432</v>
+        <v>0.07569769706592486</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03577237410969417</v>
+        <v>0.05759624258493398</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04982957795337277</v>
+        <v>0.02879741340127898</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0200234638512079</v>
+        <v>0.005602709983531635</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0004898286590891853</v>
+        <v>0.0004546423924659621</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01088957838433668</v>
+        <v>0.04415893932707299</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07818300415314436</v>
+        <v>0.03428035978098709</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0102386623369936</v>
+        <v>0.01060102119911769</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06083709930079476</v>
+        <v>0.05129573477335835</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06121628330779624</v>
+        <v>0.07549882321832073</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03377413473173597</v>
+        <v>0.0774681088515866</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07705766113345881</v>
+        <v>0.07941479442750912</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09828351481001942</v>
+        <v>0.0719305166791694</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01885763205255657</v>
+        <v>0.005232160345744944</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02752714324680451</v>
+        <v>0.05990362540074853</v>
       </c>
       <c r="V28" t="n">
-        <v>0.006563733440648339</v>
+        <v>0.0121964639563321</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06538793275562005</v>
+        <v>0.07442967212061627</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01033182746077283</v>
+        <v>0.07122476971972984</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.09683292838214466</v>
+        <v>0.05605825442942217</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.09333725319113528</v>
+        <v>0.03749285206671171</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0961362679683434</v>
+        <v>0.01297030129273627</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.002140084396137686</v>
+        <v>0.01713631141600687</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2418318606944766</v>
+        <v>-0.2418225063297041</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1921141605772019</v>
+        <v>0.2024232032365073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03656137326146793</v>
+        <v>0.06416597088468136</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0344818669300049</v>
+        <v>0.03426632511216592</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07619915079766199</v>
+        <v>0.0909032045201984</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007876084421379612</v>
+        <v>0.03642456319388886</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09127510852728006</v>
+        <v>0.08063644047105334</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02834556151802643</v>
+        <v>0.05695139997136817</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02118942287750417</v>
+        <v>0.03925255783476618</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05372883325516493</v>
+        <v>0.009946727194716894</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04535276995840922</v>
+        <v>0.01850490136323944</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01937501410025297</v>
+        <v>0.04351118050711118</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01967321370672935</v>
+        <v>0.006156341452119191</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.003752629371691966</v>
+        <v>0.01102143044990071</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09075245776849623</v>
+        <v>0.05087396759171355</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05380349676157849</v>
+        <v>0.09303252046395408</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02703314379078074</v>
+        <v>0.0006739607688368509</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07249788134133747</v>
+        <v>0.02424002148185984</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08389191780709865</v>
+        <v>0.07620066717275255</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07160474469562121</v>
+        <v>0.04067677900635615</v>
       </c>
       <c r="X29" t="n">
-        <v>0.009508668297287904</v>
+        <v>0.03596564138147144</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001661361090705669</v>
+        <v>0.0149951828135602</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07708914554784674</v>
+        <v>0.0728137273112564</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06291908014549921</v>
+        <v>0.0509160029906265</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01142707402817398</v>
+        <v>0.04787048606240273</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2185634222216344</v>
+        <v>-0.2096819259979749</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1882538150776102</v>
+        <v>0.1884478384977227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02988413994514946</v>
+        <v>0.08159034524565369</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03623734410495747</v>
+        <v>0.007257807611111743</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01992778984451571</v>
+        <v>0.05226887418931054</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09132618320663345</v>
+        <v>0.03448232080773908</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01658103169295139</v>
+        <v>0.0009022219896758669</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04926395011684367</v>
+        <v>0.06340794158858158</v>
       </c>
       <c r="L30" t="n">
-        <v>0.007969800625169421</v>
+        <v>0.05930252422182053</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01766256473187863</v>
+        <v>0.0813589276460845</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01680450843804183</v>
+        <v>0.009245253039220507</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04710613059213779</v>
+        <v>0.02786818434909541</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05721206936300946</v>
+        <v>0.003653290486495304</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02174709558514651</v>
+        <v>0.0267328735059191</v>
       </c>
       <c r="R30" t="n">
-        <v>0.09552898240310762</v>
+        <v>0.0584153756984533</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03994557042691004</v>
+        <v>0.07403816986028516</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01967417739987692</v>
+        <v>0.005638636463759446</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07911363135640979</v>
+        <v>0.07458324185176486</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0008325692321684985</v>
+        <v>0.007335617429427032</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07811434341019242</v>
+        <v>0.06704937205213371</v>
       </c>
       <c r="X30" t="n">
-        <v>0.03247492797598912</v>
+        <v>0.09381615935095965</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.05234560477456878</v>
+        <v>0.05139193685139407</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03346612644705019</v>
+        <v>0.03598961260601677</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.06090595909343016</v>
+        <v>0.002826124169729497</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.09587549923386156</v>
+        <v>0.08084518898536867</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.06225568482818031</v>
+        <v>0.04901987756793426</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2121691844878984</v>
+        <v>0.2023560710486586</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08850542288097467</v>
+        <v>0.06157576514241733</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02039853774890002</v>
+        <v>0.06724517802165546</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06207583489576089</v>
+        <v>0.008264555855629427</v>
       </c>
       <c r="I31" t="n">
-        <v>0.005294579332022296</v>
+        <v>0.01160617437347066</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06446338870595016</v>
+        <v>0.02672196200709091</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1174648859402521</v>
+        <v>0.08610114134902928</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02389975062737996</v>
+        <v>0.005379575396020929</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03622094924814291</v>
+        <v>0.08043716718275061</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002526802857964291</v>
+        <v>0.01399967465984064</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01233782207286274</v>
+        <v>0.02697515796678245</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0007267979014942501</v>
+        <v>0.008253810403562357</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006970221694530989</v>
+        <v>0.009445920457113156</v>
       </c>
       <c r="R31" t="n">
-        <v>0.02752316785823486</v>
+        <v>0.01391780872965844</v>
       </c>
       <c r="S31" t="n">
-        <v>0.008620257807066911</v>
+        <v>0.1015780983228515</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02771090820411753</v>
+        <v>0.00924411143077312</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009400916950112101</v>
+        <v>0.01874142845494699</v>
       </c>
       <c r="V31" t="n">
-        <v>0.06280404523635499</v>
+        <v>0.09132452958291573</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1308436900920054</v>
+        <v>0.06189846156377653</v>
       </c>
       <c r="X31" t="n">
-        <v>0.001416258319567298</v>
+        <v>0.07852773816394709</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02144679963632514</v>
+        <v>0.006653802713844925</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08000492035124468</v>
+        <v>0.05084676468592671</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.04784216691212684</v>
+        <v>0.06161846832225018</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.141501874726609</v>
+        <v>0.09964270521374551</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.04347051298119108</v>
+        <v>0.03159286549917024</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.18411116673133</v>
+        <v>0.1833812947501782</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02984716917412192</v>
+        <v>0.001545447697508307</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0005148220527486404</v>
+        <v>0.07167911923966058</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1186693769775654</v>
+        <v>0.0005089203159460462</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01420354141284169</v>
+        <v>0.005691639979425405</v>
       </c>
       <c r="J32" t="n">
-        <v>0.002823478631174045</v>
+        <v>0.0100712010694651</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04412094833023798</v>
+        <v>0.02478921030627611</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00285184777112857</v>
+        <v>0.002644646335315023</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02475626736564933</v>
+        <v>0.107196367325271</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04668629438975504</v>
+        <v>0.01539377002451758</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05738890717197037</v>
+        <v>0.1069098169042176</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1373655525666969</v>
+        <v>0.06719132363544263</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00988733320461074</v>
+        <v>0.003469995371246375</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1357446204075808</v>
+        <v>0.06956127603987146</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1189212704508953</v>
+        <v>0.09485535034707047</v>
       </c>
       <c r="T32" t="n">
-        <v>0.003352465568962326</v>
+        <v>0.004931540788681666</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08623608349863554</v>
+        <v>0.105707645632056</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03054124294887586</v>
+        <v>0.01891789815671131</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08699185440233602</v>
+        <v>0.06112824390633768</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01361862479981936</v>
+        <v>0.0402917623083841</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01138526505033975</v>
+        <v>0.0302300191236598</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.008580038722998132</v>
+        <v>0.09931378597886924</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.009546993172454334</v>
+        <v>0.04716827191423768</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.005966001928601908</v>
+        <v>0.01080274759982908</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.08179737153124345</v>
+        <v>0.1000229799695457</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.18411116673133</v>
+        <v>0.215686656518224</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02984716917412192</v>
+        <v>0.08362789909038176</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0005148220527486404</v>
+        <v>0.08200918022411494</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1186693769775654</v>
+        <v>0.04295411155813811</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01420354141284169</v>
+        <v>0.03881467478994607</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002823478631174045</v>
+        <v>0.08099543102308351</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04412094833023798</v>
+        <v>0.06901969399519209</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00285184777112857</v>
+        <v>0.01760786459458253</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02475626736564933</v>
+        <v>0.04673295429651552</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04668629438975504</v>
+        <v>0.01855426570118751</v>
       </c>
       <c r="O33" t="n">
-        <v>0.05738890717197037</v>
+        <v>0.03437960425023668</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1373655525666969</v>
+        <v>0.008678815686168672</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.00988733320461074</v>
+        <v>0.01189113602638019</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1357446204075808</v>
+        <v>0.08589136738898451</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1189212704508953</v>
+        <v>0.07533427343122211</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003352465568962326</v>
+        <v>0.02509836718509754</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08623608349863554</v>
+        <v>0.002054213244033394</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03054124294887586</v>
+        <v>0.08090541229443636</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08699185440233602</v>
+        <v>0.08715340149461491</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01361862479981936</v>
+        <v>0.01028075156469941</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01138526505033975</v>
+        <v>0.0235649098488895</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.008580038722998132</v>
+        <v>0.03725967869851524</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.009546993172454334</v>
+        <v>0.01302056564968043</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.005966001928601908</v>
+        <v>0.02417142796389896</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.08179737153124345</v>
+        <v>0.1398811186130419</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1963969047750854</v>
+        <v>0.1912996223716607</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0307086929146101</v>
+        <v>0.04546529661570804</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03819899620330917</v>
+        <v>0.01462744106249699</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04254310136779401</v>
+        <v>0.01780852252698039</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09595560252883979</v>
+        <v>0.04681876552892558</v>
       </c>
       <c r="J34" t="n">
-        <v>0.003019282432228263</v>
+        <v>0.03184669487970302</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02165784502255896</v>
+        <v>0.006268064616043426</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04994047739257448</v>
+        <v>0.05807205840838176</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02233588838673808</v>
+        <v>0.001889716133328089</v>
       </c>
       <c r="N34" t="n">
-        <v>0.007550117172471225</v>
+        <v>0.02453246985254733</v>
       </c>
       <c r="O34" t="n">
-        <v>0.06804406299652231</v>
+        <v>0.01053921705048329</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02414942862891728</v>
+        <v>0.08552471853633839</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.002132195833827877</v>
+        <v>0.03125140844678649</v>
       </c>
       <c r="R34" t="n">
-        <v>0.09109789479248315</v>
+        <v>0.06684487337303625</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08620438478877326</v>
+        <v>0.1169071500299225</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01467973309599577</v>
+        <v>0.01561993338989155</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07428243071781107</v>
+        <v>0.1161631403744748</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01721862664708158</v>
+        <v>0.002670846100657929</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0463137329949601</v>
+        <v>0.08545856926123463</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02983104527201759</v>
+        <v>0.02029741326735336</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04592264739272333</v>
+        <v>0.04657806945430475</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.09545333887454553</v>
+        <v>0.0907059438647949</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.09232765464673622</v>
+        <v>0.03720225169562073</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0004328198964810007</v>
+        <v>0.02690743553098583</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05194742585006128</v>
+        <v>0.04629473990802215</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2186953216456929</v>
+        <v>0.2017975399843414</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03891993329689764</v>
+        <v>0.04992370553701819</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05025475839445697</v>
+        <v>0.0752175209419039</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08181133762027193</v>
+        <v>0.002001155236964272</v>
       </c>
       <c r="I35" t="n">
-        <v>0.007395700604533722</v>
+        <v>0.0229993552500826</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02417468788238567</v>
+        <v>0.05697959224203391</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0840257883187117</v>
+        <v>0.03059548696716718</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0098015575630478</v>
+        <v>0.006320670414428485</v>
       </c>
       <c r="M35" t="n">
-        <v>0.004814377576712325</v>
+        <v>0.02012509064414711</v>
       </c>
       <c r="N35" t="n">
-        <v>0.003027378995331831</v>
+        <v>0.009400811602387562</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08471980264162815</v>
+        <v>0.08914624918840222</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0633594471034076</v>
+        <v>0.08089568107748753</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02149552363624556</v>
+        <v>0.004087487192112881</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05713610776098199</v>
+        <v>0.08872880396004673</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0710259867543422</v>
+        <v>0.06819690875125033</v>
       </c>
       <c r="T35" t="n">
-        <v>0.00847960627502457</v>
+        <v>0.01068279899155331</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08983616951295187</v>
+        <v>0.09023068473420552</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02335846267226284</v>
+        <v>0.06980235980423993</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0831844606235108</v>
+        <v>0.07516817242470838</v>
       </c>
       <c r="X35" t="n">
-        <v>0.04929084363430879</v>
+        <v>0.02782537038804484</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0008239308647501051</v>
+        <v>0.00902884394940255</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.04181459273688606</v>
+        <v>0.05231514440262178</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.01273541660754302</v>
+        <v>0.05124755643653768</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.08851412892380681</v>
+        <v>0.009080549863253264</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.03936536263815824</v>
+        <v>0.02024525192158527</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1953586797889272</v>
+        <v>0.1958000490500103</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0732028235622869</v>
+        <v>0.03390811507264597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03048189566090929</v>
+        <v>0.001015306034085809</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01640931160553285</v>
+        <v>0.01594980744043305</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05315582185809986</v>
+        <v>0.02629876587108932</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01097732206426834</v>
+        <v>0.08376219210582292</v>
       </c>
       <c r="K36" t="n">
-        <v>0.05213339075075558</v>
+        <v>0.01537626189750185</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0178478383573604</v>
+        <v>0.01084974224856813</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04267384778292727</v>
+        <v>0.0409668444051587</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0111407012467819</v>
+        <v>0.007830415020678353</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0006421953401737834</v>
+        <v>0.08466638735699478</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1034240611773796</v>
+        <v>0.07037672187429306</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03139013472958367</v>
+        <v>0.01976462936063723</v>
       </c>
       <c r="R36" t="n">
-        <v>0.109992154568292</v>
+        <v>0.08300762256361519</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05531620621358942</v>
+        <v>0.06861341848564462</v>
       </c>
       <c r="T36" t="n">
-        <v>0.007090324438414905</v>
+        <v>0.002350044949132082</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09720172397393496</v>
+        <v>0.0679598351118966</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0141080389700298</v>
+        <v>0.05931331746889677</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1047478967739588</v>
+        <v>0.06758316547393027</v>
       </c>
       <c r="X36" t="n">
-        <v>0.003532176925461492</v>
+        <v>0.04035802448502227</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01473585530616376</v>
+        <v>0.02442817259804439</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04570329257061079</v>
+        <v>0.08098466019155966</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07102102433013105</v>
+        <v>0.07324576217876166</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0330719617933538</v>
+        <v>0.02139078780558755</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.03765690095760701</v>
+        <v>0.06121738559377108</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2180441188029179</v>
+        <v>0.224414007185443</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04452618735438781</v>
+        <v>0.008697983810211387</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004056883760050405</v>
+        <v>0.06477354914720884</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04155395868853625</v>
+        <v>0.0685267915562294</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05970474405687448</v>
+        <v>0.07836364755366887</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06436055386804879</v>
+        <v>0.06335998506317497</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0684206388038632</v>
+        <v>0.07720166160852605</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0006770973634470007</v>
+        <v>0.03616602945025287</v>
       </c>
       <c r="M37" t="n">
-        <v>0.008720392607386789</v>
+        <v>0.008806612287323311</v>
       </c>
       <c r="N37" t="n">
-        <v>0.01367437919746129</v>
+        <v>0.008447474206057069</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07349456340721995</v>
+        <v>0.05630153689313456</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04279240062707128</v>
+        <v>0.006059583157318023</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.004034487244199157</v>
+        <v>0.003660971401687035</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06519358536609975</v>
+        <v>0.06620112443619915</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07905906185501452</v>
+        <v>0.09590536551977694</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03646775608795452</v>
+        <v>0.04612516266495919</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06045601032576278</v>
+        <v>0.02487405882001227</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03129609573879486</v>
+        <v>0.003312561336701841</v>
       </c>
       <c r="W37" t="n">
-        <v>0.07921146558162763</v>
+        <v>0.08616966336767362</v>
       </c>
       <c r="X37" t="n">
-        <v>0.04973385289349638</v>
+        <v>0.07549608041099441</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.003056521626225757</v>
+        <v>0.001045796122478926</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06952316609711134</v>
+        <v>0.1007263007244899</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.02159476987420743</v>
+        <v>0.01196837994550809</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07839142757515841</v>
+        <v>0.007809680516413264</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.08675000338406239</v>
+        <v>0.09505657619121473</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1960533987306432</v>
+        <v>0.1925783102888192</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08180889129712826</v>
+        <v>0.03508410387659514</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0337712921546878</v>
+        <v>0.002091441621103134</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02969358974334602</v>
+        <v>0.004773586863634841</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02566772355007519</v>
+        <v>0.03563393761722095</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01216289800389304</v>
+        <v>0.03902597457683386</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002853666130001564</v>
+        <v>0.02484283041260066</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01442352520837505</v>
+        <v>0.00371926276942007</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0704142440977132</v>
+        <v>0.04918611948789176</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02194241438138692</v>
+        <v>0.02114451431528236</v>
       </c>
       <c r="O38" t="n">
-        <v>0.002486261028874453</v>
+        <v>0.04243404713510703</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0661368689172098</v>
+        <v>0.08316666963181957</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.08705845489218297</v>
+        <v>0.0595431176780041</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0559355617426705</v>
+        <v>0.08616295780467159</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08068862781865614</v>
+        <v>0.08705378472599627</v>
       </c>
       <c r="T38" t="n">
-        <v>0.006391671837990442</v>
+        <v>0.01430204663653897</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05394574964730302</v>
+        <v>0.06791757390827115</v>
       </c>
       <c r="V38" t="n">
-        <v>0.03537584118888065</v>
+        <v>0.02765666050966505</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02962315724238054</v>
+        <v>0.07647962381952238</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1035347547163327</v>
+        <v>0.07650573776540158</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0153560814006633</v>
+        <v>0.06527561435859446</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.09802612161237119</v>
+        <v>0.05466362343748885</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.06653407775188244</v>
+        <v>0.0273043177011054</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.006168525635994685</v>
+        <v>0.01603245334723067</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.03030705384489551</v>
+        <v>0.02786707858175142</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2213636326047452</v>
+        <v>0.2155847599560719</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03445780194526417</v>
+        <v>0.04310795483052494</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00850026041214786</v>
+        <v>0.02500644651983444</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01119976636160808</v>
+        <v>0.05031404433013325</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0983229481551864</v>
+        <v>0.08444387871523472</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003192597765229832</v>
+        <v>0.007976677203599672</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1138005176366939</v>
+        <v>0.08454765829056163</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01417282880563116</v>
+        <v>0.08057823840724317</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04757849404948426</v>
+        <v>0.01241874085300534</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01240945300274532</v>
+        <v>0.004828987361679829</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1093919525885226</v>
+        <v>0.0850843328618007</v>
       </c>
       <c r="P39" t="n">
-        <v>0.02798023134673721</v>
+        <v>0.01140346574684489</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0006077278448994629</v>
+        <v>0.004212633875017691</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01002691629148439</v>
+        <v>0.04098476868884144</v>
       </c>
       <c r="S39" t="n">
-        <v>0.107426271973513</v>
+        <v>0.05849048940462592</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04090397441430844</v>
+        <v>0.0149475764553208</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06084369826498732</v>
+        <v>0.0805781230627633</v>
       </c>
       <c r="V39" t="n">
-        <v>0.04795949047931489</v>
+        <v>0.05760637752141908</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01080674337044295</v>
+        <v>0.05090098711686263</v>
       </c>
       <c r="X39" t="n">
-        <v>0.09791959132292821</v>
+        <v>0.08572087840398789</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.06913688935077676</v>
+        <v>0.009278746614585094</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04170769056219743</v>
+        <v>0.08496572945060027</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.007665255981929775</v>
+        <v>0.01711678544041132</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02398889807396664</v>
+        <v>0.005486478845102039</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03837800177030908</v>
+        <v>0.0415705448348859</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2003547226845816</v>
+        <v>0.197271341753142</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07023531321639342</v>
+        <v>0.04988540838649711</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06282899998885362</v>
+        <v>0.01839435450663366</v>
       </c>
       <c r="H40" t="n">
-        <v>0.005142171125694336</v>
+        <v>0.01578180863553735</v>
       </c>
       <c r="I40" t="n">
-        <v>0.009449985396714896</v>
+        <v>0.03459127527981096</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02412437578955277</v>
+        <v>0.01158981050361449</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001592581770129355</v>
+        <v>0.01325184912606281</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02116849249479721</v>
+        <v>0.03796695113842775</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05609829606389292</v>
+        <v>0.05092360429649544</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01322416524788332</v>
+        <v>0.005446703381150352</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02845680039560954</v>
+        <v>0.01775643076435595</v>
       </c>
       <c r="P40" t="n">
-        <v>0.04747029007149168</v>
+        <v>0.07506031802326617</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0212443001506181</v>
+        <v>0.0263999767915633</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07332816324339936</v>
+        <v>0.07066173076949726</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07827350007050464</v>
+        <v>0.07663609995236952</v>
       </c>
       <c r="T40" t="n">
-        <v>0.004400416582546635</v>
+        <v>0.03142838014568968</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1023629850333563</v>
+        <v>0.08368070298745213</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05002786510969719</v>
+        <v>0.04775493656533614</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06042911659048823</v>
+        <v>0.06219362758980455</v>
       </c>
       <c r="X40" t="n">
-        <v>0.05515007619803566</v>
+        <v>0.09092796194896012</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02439656369154842</v>
+        <v>0.02189887608241263</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.09407428014526009</v>
+        <v>0.06205777251167944</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.01825482251922137</v>
+        <v>0.06793804739504171</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.07826643910431091</v>
+        <v>0.02777337321834164</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.002081107154758954</v>
+        <v>0.005199291201779043</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2089676522737876</v>
+        <v>0.215701421450799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0095796516897844</v>
+        <v>0.05309901644984764</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06462465789345277</v>
+        <v>0.003698432493085512</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01291055796822434</v>
+        <v>0.0517171276910466</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07686793150952685</v>
+        <v>0.109468242177932</v>
       </c>
       <c r="J41" t="n">
-        <v>0.006708841662651721</v>
+        <v>0.08996380297526417</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004791242011263627</v>
+        <v>0.01375358189645663</v>
       </c>
       <c r="L41" t="n">
-        <v>0.07407421424792189</v>
+        <v>0.03093159656436564</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02508988953680931</v>
+        <v>0.02990214826436424</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01934373513005379</v>
+        <v>0.02604528495577144</v>
       </c>
       <c r="O41" t="n">
-        <v>0.07590972542889789</v>
+        <v>0.1053507746154231</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01317519915075647</v>
+        <v>0.01681807621846505</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.006682170602895455</v>
+        <v>0.009082050688862539</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07028003221520511</v>
+        <v>0.03162633993634471</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09875383903034708</v>
+        <v>0.04116006931730352</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01937025354704979</v>
+        <v>0.000457507796033149</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07118068292415212</v>
+        <v>0.09186798745292722</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01209003638170308</v>
+        <v>0.001319733725320571</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07926832359742306</v>
+        <v>0.07200984490795105</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01083618564965727</v>
+        <v>0.005337451683447369</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01448500535129844</v>
+        <v>0.02601699584898378</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1010799584804424</v>
+        <v>0.04799384345731064</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.03024159362716192</v>
+        <v>0.06485295716390344</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.1026562723633213</v>
+        <v>0.07752713371958993</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.02490794927548897</v>
+        <v>0.03048685014122112</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1820245758240424</v>
+        <v>0.1812520568930427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0009681751586640194</v>
+        <v>0.07413671484468491</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05871313505863543</v>
+        <v>0.01702170340223839</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08890877659516586</v>
+        <v>0.06472014455692764</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09406976795947357</v>
+        <v>0.07193591781225223</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07049646423395604</v>
+        <v>0.03680486039268049</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01427078583713845</v>
+        <v>0.003872314033271531</v>
       </c>
       <c r="L42" t="n">
-        <v>0.007549456773694345</v>
+        <v>0.05793325801087399</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0323515286126068</v>
+        <v>0.01414701290904521</v>
       </c>
       <c r="N42" t="n">
-        <v>0.009259061405653671</v>
+        <v>0.02342555637659238</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01461699905654765</v>
+        <v>0.005898513427296668</v>
       </c>
       <c r="P42" t="n">
-        <v>0.07966427863034184</v>
+        <v>0.04607084266288259</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01286701956487787</v>
+        <v>0.01077333028838827</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09103270210851427</v>
+        <v>0.09503100405462543</v>
       </c>
       <c r="S42" t="n">
-        <v>0.09287686068647037</v>
+        <v>0.1001124335141501</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0130078736063659</v>
+        <v>0.0009918572594363043</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08617971857063576</v>
+        <v>0.06944560945672919</v>
       </c>
       <c r="V42" t="n">
-        <v>0.002611347760608212</v>
+        <v>0.01686941483476161</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03638729317497009</v>
+        <v>0.05359144903175754</v>
       </c>
       <c r="X42" t="n">
-        <v>0.01417705205419204</v>
+        <v>0.008183948984216564</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.002050291369936814</v>
+        <v>0.04538991953858168</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08342061555458953</v>
+        <v>0.08605708788822843</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.05585689034441818</v>
+        <v>0.05771318594338117</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0386639058825434</v>
+        <v>0.03987392077699754</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1475209410077582</v>
+        <v>0.1439807322537644</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2036136714174247</v>
+        <v>0.2073629402139168</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07937564273512357</v>
+        <v>0.07776829376597348</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004317406158993451</v>
+        <v>0.007021718983938251</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04076077291110638</v>
+        <v>0.06046775808584266</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08313536688059903</v>
+        <v>0.03990171722169329</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06205932803460262</v>
+        <v>0.04409911969979981</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0667588465778395</v>
+        <v>0.07711651192280197</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06371329579365625</v>
+        <v>0.05329680930051407</v>
       </c>
       <c r="M43" t="n">
-        <v>0.005154579161444834</v>
+        <v>0.006361877842562381</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0008428286946282779</v>
+        <v>0.004184987605172011</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09070228072426997</v>
+        <v>0.03119455182375888</v>
       </c>
       <c r="P43" t="n">
-        <v>0.007460706185066268</v>
+        <v>0.02195218918016728</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.003401070595541628</v>
+        <v>0.004316963358953002</v>
       </c>
       <c r="R43" t="n">
-        <v>0.06640993935738623</v>
+        <v>0.03899988360382044</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08628079186514587</v>
+        <v>0.06228036075957862</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01564196026943459</v>
+        <v>0.04485154899548317</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1011747644406334</v>
+        <v>0.09273935528025805</v>
       </c>
       <c r="V43" t="n">
-        <v>0.018162500986944</v>
+        <v>0.03949248827995316</v>
       </c>
       <c r="W43" t="n">
-        <v>0.006173311385172936</v>
+        <v>0.0005806692209877852</v>
       </c>
       <c r="X43" t="n">
-        <v>0.02485609842261039</v>
+        <v>0.07873505108734448</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.009475770694129441</v>
+        <v>0.006513462599432729</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.09669787238071403</v>
+        <v>0.1006209300252529</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.004738849918558878</v>
+        <v>0.03991267912618957</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.06270601582639831</v>
+        <v>0.06759107223052185</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1498860373668251</v>
+        <v>0.1485117435490588</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1458782386316064</v>
+        <v>0.1459212909731795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09106288727667956</v>
+        <v>0.009922043379507585</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01109207823589499</v>
+        <v>0.0009034544364176567</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02730627133711082</v>
+        <v>0.03023472967479542</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04615732700102927</v>
+        <v>0.08995934471432762</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01569327608819704</v>
+        <v>0.01208557535820572</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02459829542006979</v>
+        <v>0.05725420523055957</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02011876830682822</v>
+        <v>0.02291870122525448</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0128412317140503</v>
+        <v>0.0664845486127037</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01063499934010501</v>
+        <v>0.01980438126861505</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08225608647495197</v>
+        <v>0.06487601811584581</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02699573505961172</v>
+        <v>0.01695242320853293</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.03663570645195476</v>
+        <v>0.07043073600520253</v>
       </c>
       <c r="R44" t="n">
-        <v>0.08557241019766097</v>
+        <v>0.1094793267350846</v>
       </c>
       <c r="S44" t="n">
-        <v>0.09095609134439536</v>
+        <v>0.06538905646837072</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01687068391081269</v>
+        <v>0.02544373666259665</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0538237564049778</v>
+        <v>0.01928114738788491</v>
       </c>
       <c r="V44" t="n">
-        <v>0.006987990230118668</v>
+        <v>0.004189748289497588</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0135434488307397</v>
+        <v>0.06750781768470751</v>
       </c>
       <c r="X44" t="n">
-        <v>0.03480663303216299</v>
+        <v>0.04359942356025322</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.09675430003726558</v>
+        <v>0.0255462171805479</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.06476449600868424</v>
+        <v>0.09540844666959436</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07331115343066408</v>
+        <v>0.0793098951075147</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05721637386603443</v>
+        <v>0.003019023023979704</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.008426531597226826</v>
+        <v>-0.004225429036736303</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1665677447967369</v>
+        <v>0.1669621899107733</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09717038089357939</v>
+        <v>0.05201644258270859</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03059212982769021</v>
+        <v>0.01461209331196194</v>
       </c>
       <c r="H45" t="n">
-        <v>0.004844309748634769</v>
+        <v>0.02346727224360545</v>
       </c>
       <c r="I45" t="n">
-        <v>0.09565088390692905</v>
+        <v>0.07466745766405183</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005875588699923344</v>
+        <v>0.01568760479377814</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09472607317809441</v>
+        <v>0.05689637899891789</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03706885145661239</v>
+        <v>0.07575135731021047</v>
       </c>
       <c r="M45" t="n">
-        <v>0.08433482102430971</v>
+        <v>0.02392838152932593</v>
       </c>
       <c r="N45" t="n">
-        <v>0.006224586224820256</v>
+        <v>0.005294330742755449</v>
       </c>
       <c r="O45" t="n">
-        <v>0.09055540042939171</v>
+        <v>0.08044028011784186</v>
       </c>
       <c r="P45" t="n">
-        <v>0.05091932826563322</v>
+        <v>0.05673178207367654</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0002279711467952133</v>
+        <v>0.01013061342509967</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03823647903509165</v>
+        <v>0.01725016761165983</v>
       </c>
       <c r="S45" t="n">
-        <v>0.05256683833596377</v>
+        <v>0.06413713698867131</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01210171224425817</v>
+        <v>0.005741334013488305</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03330037122082667</v>
+        <v>0.08144612390253575</v>
       </c>
       <c r="V45" t="n">
-        <v>0.009623680309100605</v>
+        <v>0.07727564897372845</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03974602247913379</v>
+        <v>0.07836048414114197</v>
       </c>
       <c r="X45" t="n">
-        <v>0.06824400007183747</v>
+        <v>0.01373603019026075</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04035075090994875</v>
+        <v>0.01335017585125869</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.00194440722569796</v>
+        <v>0.03172696551450846</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.02730778638491246</v>
+        <v>0.07493389867123733</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.07838762698081483</v>
+        <v>0.05241803934757526</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.01333021625820248</v>
+        <v>-0.001142573481500866</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1358193748025479</v>
+        <v>0.1361300456080863</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001612743881950683</v>
+        <v>0.03144285829847446</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04563909711368231</v>
+        <v>0.0281998571299805</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01187739093876531</v>
+        <v>0.01487693769544662</v>
       </c>
       <c r="I46" t="n">
-        <v>0.007832211239770929</v>
+        <v>0.07490569808167298</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03283595395155778</v>
+        <v>0.005351406588617405</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03127308392352925</v>
+        <v>0.03676768350299059</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02892586823597664</v>
+        <v>0.001310819468993562</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03706459936833242</v>
+        <v>0.06464758439841847</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0220209986669793</v>
+        <v>0.04049287614555816</v>
       </c>
       <c r="O46" t="n">
-        <v>0.002563243655740679</v>
+        <v>0.02697091522000054</v>
       </c>
       <c r="P46" t="n">
-        <v>0.08736838486416418</v>
+        <v>0.07832312550283632</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.09113391255584295</v>
+        <v>0.03236082395678348</v>
       </c>
       <c r="R46" t="n">
-        <v>0.04739170259182317</v>
+        <v>0.09782903040033139</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08806414044319655</v>
+        <v>0.07359476569867936</v>
       </c>
       <c r="T46" t="n">
-        <v>0.00388423932682269</v>
+        <v>0.00162837611163967</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07257338815169521</v>
+        <v>0.09478699666888014</v>
       </c>
       <c r="V46" t="n">
-        <v>0.01366850531834503</v>
+        <v>0.02483433430840367</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1050132993057597</v>
+        <v>0.05040075132369749</v>
       </c>
       <c r="X46" t="n">
-        <v>0.01060116899290731</v>
+        <v>0.03835987081218524</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02286445551818948</v>
+        <v>0.02813345676821213</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.1045493044181778</v>
+        <v>0.08898626294132847</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.09198451725552538</v>
+        <v>0.065632122278671</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0392577902812651</v>
+        <v>0.0001634466981984199</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01778748918684714</v>
+        <v>0.007570830599660347</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1616776487710934</v>
+        <v>0.1697344390529968</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0511053909218253</v>
+        <v>0.01194530345421807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03788871705228568</v>
+        <v>0.01495110458100591</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04044391540401261</v>
+        <v>0.0159254389844294</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09960557153863664</v>
+        <v>0.05718368999517716</v>
       </c>
       <c r="J47" t="n">
-        <v>0.003721798902119068</v>
+        <v>0.02726937351054613</v>
       </c>
       <c r="K47" t="n">
-        <v>0.08595294955348684</v>
+        <v>0.09562241735678058</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05977005517871855</v>
+        <v>0.09207602787401246</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0007404862119039353</v>
+        <v>0.01834412507714245</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05735088266514719</v>
+        <v>0.05482502007309736</v>
       </c>
       <c r="O47" t="n">
-        <v>0.09338152236717731</v>
+        <v>0.07886165495510193</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08373907329606661</v>
+        <v>0.06087271616907498</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.00198276325610582</v>
+        <v>0.0002651854647148306</v>
       </c>
       <c r="R47" t="n">
-        <v>0.005922865427998047</v>
+        <v>0.02080113917552304</v>
       </c>
       <c r="S47" t="n">
-        <v>0.08512300470537626</v>
+        <v>0.04310726207531051</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02265194420736701</v>
+        <v>0.06885033933648288</v>
       </c>
       <c r="U47" t="n">
-        <v>0.04602696343240383</v>
+        <v>0.06819523485894602</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05622414566413339</v>
+        <v>0.0789284555050824</v>
       </c>
       <c r="W47" t="n">
-        <v>0.08245231564561732</v>
+        <v>0.0818579815930968</v>
       </c>
       <c r="X47" t="n">
-        <v>0.009426540471239772</v>
+        <v>0.02248835310164682</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.003259197014938431</v>
+        <v>0.002356555481759349</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03051998024785803</v>
+        <v>0.03069223787255707</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.03341047061369029</v>
+        <v>0.005938826845853707</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.009299446221892018</v>
+        <v>0.04864155665844032</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02525116166122128</v>
+        <v>-0.02170929581755342</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1228928919278576</v>
+        <v>0.1222033146558097</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06789249765664948</v>
+        <v>0.04214173440956953</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05371244780944039</v>
+        <v>0.07019591647755048</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02549335056764084</v>
+        <v>0.06363596237016636</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002292683201159135</v>
+        <v>0.005004406266509634</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04951812428963785</v>
+        <v>0.02978387082674072</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0213064622547774</v>
+        <v>0.01822678167945463</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01871797145885833</v>
+        <v>0.02324217496059636</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0805166694520536</v>
+        <v>0.05824389549553704</v>
       </c>
       <c r="N48" t="n">
-        <v>0.00293198689774627</v>
+        <v>0.006912223483018127</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02800305617071888</v>
+        <v>0.0129636415297394</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01434431182327708</v>
+        <v>0.07344884173163345</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02390868240460118</v>
+        <v>0.06324276813110834</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0726764848263842</v>
+        <v>0.0667063576666638</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06504860345745121</v>
+        <v>0.05290611723904045</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01533022841705851</v>
+        <v>0.0005500444330247278</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0822887915558114</v>
+        <v>0.08301529733417204</v>
       </c>
       <c r="V48" t="n">
-        <v>0.05628477966321756</v>
+        <v>0.02729178508172853</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06029667302348528</v>
+        <v>0.0648487256115389</v>
       </c>
       <c r="X48" t="n">
-        <v>0.06870204365985848</v>
+        <v>0.07016868241371223</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0321236531464751</v>
+        <v>0.07236862922421151</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.06064744357176029</v>
+        <v>0.07541003167693304</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0275425581772477</v>
+        <v>0.01172759869908601</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07042049651468989</v>
+        <v>0.007964513258264708</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06008205837836283</v>
+        <v>0.04951042073931265</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1359038354492369</v>
+        <v>0.137941415964774</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09143491947308931</v>
+        <v>0.05395913103619775</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006875248669429213</v>
+        <v>0.07371732900663582</v>
       </c>
       <c r="H49" t="n">
-        <v>0.003384628310457031</v>
+        <v>0.02705204574752265</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0815374342407779</v>
+        <v>0.08959194331925632</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01796295441322695</v>
+        <v>0.01633226773540047</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07500146796710301</v>
+        <v>0.09627304145144897</v>
       </c>
       <c r="L49" t="n">
-        <v>0.09923853616745074</v>
+        <v>0.09213624269763918</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06645963588329051</v>
+        <v>0.01948677794529943</v>
       </c>
       <c r="N49" t="n">
-        <v>0.009476036282776594</v>
+        <v>0.01439384199213257</v>
       </c>
       <c r="O49" t="n">
-        <v>0.09212218867731371</v>
+        <v>0.09700172008852656</v>
       </c>
       <c r="P49" t="n">
-        <v>0.05200547243624147</v>
+        <v>0.008671723332366198</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0357087960073364</v>
+        <v>0.01294690642869651</v>
       </c>
       <c r="R49" t="n">
-        <v>0.08248422610864777</v>
+        <v>0.06330432971423845</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02726132954148065</v>
+        <v>0.08402152434262868</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03990692639250153</v>
+        <v>0.03665886024041912</v>
       </c>
       <c r="U49" t="n">
-        <v>0.02614759665450254</v>
+        <v>0.01822521650413535</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0195069266561756</v>
+        <v>0.0139684569039001</v>
       </c>
       <c r="W49" t="n">
-        <v>0.07868218868300594</v>
+        <v>0.03657235802069613</v>
       </c>
       <c r="X49" t="n">
-        <v>0.008171549176885787</v>
+        <v>0.05847528827439682</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.007604597893852967</v>
+        <v>0.02084912280252833</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.003003172185114685</v>
+        <v>0.01296178675687955</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0731329984422673</v>
+        <v>0.01341455535068426</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.002891169737072378</v>
+        <v>0.03998553030837088</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07719217916929991</v>
+        <v>0.07308149737294023</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1326038297988528</v>
+        <v>0.1338350591595199</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03168947284614344</v>
+        <v>0.08449095311919133</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03350168011981083</v>
+        <v>0.04140173664979514</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04064024354028798</v>
+        <v>0.08683289937392574</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01256105118859867</v>
+        <v>0.01047730904705764</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01162658809155707</v>
+        <v>0.03627256779653676</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002277379659120132</v>
+        <v>0.00455289960100522</v>
       </c>
       <c r="L50" t="n">
-        <v>0.007607841687511813</v>
+        <v>0.002942944439753759</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06972723454633301</v>
+        <v>0.06624197791070192</v>
       </c>
       <c r="N50" t="n">
-        <v>0.002982498010565615</v>
+        <v>0.00119341680631852</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05079261667620975</v>
+        <v>0.02671121369190621</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02563645213248825</v>
+        <v>0.08728647831245308</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.009070316092478927</v>
+        <v>0.01128785492350663</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08632835628569914</v>
+        <v>0.06182292099509884</v>
       </c>
       <c r="S50" t="n">
-        <v>0.07715528926496951</v>
+        <v>0.04451627719920756</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04673488382118935</v>
+        <v>0.008247736928338401</v>
       </c>
       <c r="U50" t="n">
-        <v>0.06133223794392445</v>
+        <v>0.06521857006107561</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02953336477841927</v>
+        <v>0.03760186272250707</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07792661552607566</v>
+        <v>0.06947179366246428</v>
       </c>
       <c r="X50" t="n">
-        <v>0.08289231806777575</v>
+        <v>0.05133611154258528</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.08951971358875384</v>
+        <v>0.06414774900261558</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08528635680516412</v>
+        <v>0.08312784102341617</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03166313385530243</v>
+        <v>0.01186887051535744</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03351435547162085</v>
+        <v>0.04294801467518206</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1453322263797018</v>
+        <v>0.1699639866851714</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1431396822291564</v>
+        <v>0.1424531584611403</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03349620020236735</v>
+        <v>0.03012990836492575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02939626464275799</v>
+        <v>0.01365032708370963</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08011683826269354</v>
+        <v>0.09144889770640403</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0755848035486929</v>
+        <v>0.01806769608236888</v>
       </c>
       <c r="J51" t="n">
-        <v>0.003586026699105172</v>
+        <v>0.05976298150163283</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05300349446618566</v>
+        <v>0.01692962984354525</v>
       </c>
       <c r="L51" t="n">
-        <v>0.07020724106564313</v>
+        <v>0.01727995488389188</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01189876726471955</v>
+        <v>0.01198678474084821</v>
       </c>
       <c r="N51" t="n">
-        <v>0.001063675981738775</v>
+        <v>0.02779332943721926</v>
       </c>
       <c r="O51" t="n">
-        <v>0.04603129994026667</v>
+        <v>0.01674583983511529</v>
       </c>
       <c r="P51" t="n">
-        <v>0.06672179530924226</v>
+        <v>0.009173022890463005</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02456902369085762</v>
+        <v>0.000513536519808836</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09182161753825202</v>
+        <v>0.1279452400930065</v>
       </c>
       <c r="S51" t="n">
-        <v>0.08629724359858265</v>
+        <v>0.1274230107356856</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04987310938794213</v>
+        <v>0.02249086569313025</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08088231715823249</v>
+        <v>0.1103456520566792</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02525557232276959</v>
+        <v>0.02798391803764482</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08697591293873401</v>
+        <v>0.01261403896526896</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0002280417574561518</v>
+        <v>0.01210780399282406</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.03237290620238169</v>
+        <v>0.1285205378425726</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.004043604421041323</v>
+        <v>0.03847883819197503</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03572619100958999</v>
+        <v>0.05444609316358396</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0108480525907474</v>
+        <v>0.02416209233769629</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1761991081169129</v>
+        <v>0.1456389746321311</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1442720215612911</v>
+        <v>0.1467969405888555</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06524822691958289</v>
+        <v>0.04427802116996082</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06113327001688611</v>
+        <v>0.03242975440796718</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0352332815721975</v>
+        <v>0.03666239861111003</v>
       </c>
       <c r="I52" t="n">
-        <v>0.002006903437978656</v>
+        <v>0.03255820393006339</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02633535771025454</v>
+        <v>0.001339581708761745</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01653915088568357</v>
+        <v>0.0002634121452093127</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00980252134493354</v>
+        <v>0.04050324808904222</v>
       </c>
       <c r="M52" t="n">
-        <v>0.07521571621639916</v>
+        <v>0.05785578421709631</v>
       </c>
       <c r="N52" t="n">
-        <v>0.05130293662012921</v>
+        <v>0.03178008728469693</v>
       </c>
       <c r="O52" t="n">
-        <v>0.01005115692388755</v>
+        <v>0.05838656708163763</v>
       </c>
       <c r="P52" t="n">
-        <v>0.04565289754497125</v>
+        <v>0.02014114207856989</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08722983283976136</v>
+        <v>0.05341305331970751</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1006316758369952</v>
+        <v>0.06478407928398722</v>
       </c>
       <c r="S52" t="n">
-        <v>0.05589619143277239</v>
+        <v>0.08475617787478615</v>
       </c>
       <c r="T52" t="n">
-        <v>0.001970278253913</v>
+        <v>0.03149813297093231</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08194229473314113</v>
+        <v>0.02188971820712966</v>
       </c>
       <c r="V52" t="n">
-        <v>0.004850582933906655</v>
+        <v>0.004250808506738118</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02821120275366697</v>
+        <v>0.06764794118776793</v>
       </c>
       <c r="X52" t="n">
-        <v>0.04549575153831858</v>
+        <v>0.05255983731555672</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05241117062269279</v>
+        <v>0.06527634480995514</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.07390012519806391</v>
+        <v>0.05033869705607567</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0159582860723456</v>
+        <v>0.07902894095114804</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.05298118859151851</v>
+        <v>0.06835806779209991</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1679644531349452</v>
+        <v>-0.1664366200929072</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1545723255336154</v>
+        <v>0.1546747106647919</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01680290265156048</v>
+        <v>0.0004129820583987533</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06243339943326741</v>
+        <v>0.1038005272917465</v>
       </c>
       <c r="H53" t="n">
-        <v>0.004623772759867455</v>
+        <v>0.03298925544074902</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04930363526609566</v>
+        <v>0.08829969956387246</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01677516933282503</v>
+        <v>0.02712594787747274</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04329954346257008</v>
+        <v>0.1060057116269459</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0874372291837108</v>
+        <v>0.0166830300775204</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06039114185660365</v>
+        <v>0.09663214643670902</v>
       </c>
       <c r="N53" t="n">
-        <v>0.004531766534559886</v>
+        <v>0.003254688708451053</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0758240737046902</v>
+        <v>0.0532776033234436</v>
       </c>
       <c r="P53" t="n">
-        <v>0.07148774755844124</v>
+        <v>0.0154545640416514</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0002828076787235889</v>
+        <v>0.08150335809584852</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08354706649780887</v>
+        <v>0.07247094287779483</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0885514665230025</v>
+        <v>0.0805057132567699</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02099639737530161</v>
+        <v>0.01817982579020083</v>
       </c>
       <c r="U53" t="n">
-        <v>0.09145195660319545</v>
+        <v>0.05855705604032495</v>
       </c>
       <c r="V53" t="n">
-        <v>0.05850450466439471</v>
+        <v>0.01557819104422543</v>
       </c>
       <c r="W53" t="n">
-        <v>0.009196548277773402</v>
+        <v>0.0233881314697309</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01496757427729785</v>
+        <v>0.002002207845844985</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.04180430930047521</v>
+        <v>0.003330923741148602</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08177288458040466</v>
+        <v>0.07858020226597576</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.00564350239522779</v>
+        <v>0.01443004371815625</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01037060008220255</v>
+        <v>0.007537247407018283</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1377146316863114</v>
+        <v>-0.1287061054412911</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1624793271796012</v>
+        <v>0.1615505615907837</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08521993287547967</v>
+        <v>0.09547514480794468</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008349773690476462</v>
+        <v>0.08100014682190194</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02255952866054487</v>
+        <v>0.008492290776386148</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01669170745595448</v>
+        <v>0.01380162676778415</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01829372301813253</v>
+        <v>0.0001085804475517812</v>
       </c>
       <c r="K54" t="n">
-        <v>0.004889980843548127</v>
+        <v>0.03814222348096896</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01842121994136513</v>
+        <v>0.04279021112493918</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01320744227049185</v>
+        <v>0.02659339130563809</v>
       </c>
       <c r="N54" t="n">
-        <v>0.02527772984564705</v>
+        <v>0.09215635171625559</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0554718431974648</v>
+        <v>0.00964208507731896</v>
       </c>
       <c r="P54" t="n">
-        <v>0.05109945459995449</v>
+        <v>0.05074391560008706</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0009194306353941083</v>
+        <v>0.006819558938142076</v>
       </c>
       <c r="R54" t="n">
-        <v>0.07462629195742949</v>
+        <v>0.02739621809373816</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08068026072087998</v>
+        <v>0.08226028297021555</v>
       </c>
       <c r="T54" t="n">
-        <v>0.07269822502741898</v>
+        <v>0.005558295449544254</v>
       </c>
       <c r="U54" t="n">
-        <v>0.05056337835491972</v>
+        <v>0.04146433352090709</v>
       </c>
       <c r="V54" t="n">
-        <v>0.03241408304241431</v>
+        <v>0.09334986584558574</v>
       </c>
       <c r="W54" t="n">
-        <v>0.08600184044874272</v>
+        <v>0.08871862283870981</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06501169821465694</v>
+        <v>0.09501087805474219</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0234576548218407</v>
+        <v>0.01565179935462017</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.08990416751560984</v>
+        <v>0.07761534428795154</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.08038678496293057</v>
+        <v>0.001104024287874723</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02385384789870317</v>
+        <v>0.006104808431192</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.117158746549553</v>
+        <v>0.1324501758550223</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1761971549865871</v>
+        <v>0.1657839820626016</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003404225555589628</v>
+        <v>0.03144571249613885</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04256494247049467</v>
+        <v>0.08790406799076987</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01050046744056116</v>
+        <v>0.03906597477351417</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05565640745220652</v>
+        <v>0.08410904303833935</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05746425584613953</v>
+        <v>0.08163880973211887</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0484263746329214</v>
+        <v>0.003943654288964025</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0938449789232921</v>
+        <v>0.002242958882258714</v>
       </c>
       <c r="M55" t="n">
-        <v>0.001514626803844991</v>
+        <v>0.07392459634081884</v>
       </c>
       <c r="N55" t="n">
-        <v>0.004346952985544613</v>
+        <v>0.004232832742131403</v>
       </c>
       <c r="O55" t="n">
-        <v>0.08724805858598837</v>
+        <v>0.007880493824414404</v>
       </c>
       <c r="P55" t="n">
-        <v>0.04497187592788509</v>
+        <v>0.05797221086228561</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02862460272225371</v>
+        <v>0.008083568476203996</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08620532562174622</v>
+        <v>0.006764228819634367</v>
       </c>
       <c r="S55" t="n">
-        <v>0.09073714501175151</v>
+        <v>0.08515970596437553</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04755908222192395</v>
+        <v>0.03755320486873976</v>
       </c>
       <c r="U55" t="n">
-        <v>0.06733538185227575</v>
+        <v>0.08864865500593855</v>
       </c>
       <c r="V55" t="n">
-        <v>0.00486030002079327</v>
+        <v>0.0812856460045563</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08418615767431238</v>
+        <v>0.07753392019372563</v>
       </c>
       <c r="X55" t="n">
-        <v>0.08063934600258556</v>
+        <v>0.0631788578965876</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.01525175622880654</v>
+        <v>0.002615121038311057</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03196484139795899</v>
+        <v>0.0483689861562366</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.006151010287322931</v>
+        <v>0.01712151671976164</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.006541884333801175</v>
+        <v>0.009326233884174862</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1028689024549396</v>
+        <v>0.1250001293916364</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1759618936069375</v>
+        <v>0.1780379803140975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.006065174276932048</v>
+        <v>0.03387876471064045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08590913713909461</v>
+        <v>0.04232237445032589</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04440362900752102</v>
+        <v>0.03140146408255636</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0007240739981186078</v>
+        <v>0.03061033699209843</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01498133472754152</v>
+        <v>0.06161878818909262</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003472854431447714</v>
+        <v>0.02150487829637543</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001031681509031584</v>
+        <v>0.001430662602123034</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04374258280545119</v>
+        <v>0.05786988843729189</v>
       </c>
       <c r="N56" t="n">
-        <v>0.09081334589188876</v>
+        <v>0.04306946923939953</v>
       </c>
       <c r="O56" t="n">
-        <v>0.08263387815876379</v>
+        <v>0.04633487798404672</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01759816677703022</v>
+        <v>0.06652998110859441</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02815184974010612</v>
+        <v>0.004990044706646611</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08020704585340732</v>
+        <v>0.04778740411651002</v>
       </c>
       <c r="S56" t="n">
-        <v>0.07488468623540952</v>
+        <v>0.02973224197796867</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03447389655764904</v>
+        <v>0.09477316951609137</v>
       </c>
       <c r="U56" t="n">
-        <v>0.07201768679586076</v>
+        <v>0.08226137061701182</v>
       </c>
       <c r="V56" t="n">
-        <v>0.008584837166098581</v>
+        <v>0.007828430696958349</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04508412862550014</v>
+        <v>0.05012744232692858</v>
       </c>
       <c r="X56" t="n">
-        <v>0.06952304581545814</v>
+        <v>0.09207246029640295</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.02512736188305148</v>
+        <v>0.02114318587097858</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.06001215170523486</v>
+        <v>0.09378718343639553</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05694792655302518</v>
+        <v>0.01991002942430791</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05360952434637779</v>
+        <v>0.01901555092125471</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.02649399740000864</v>
+        <v>-0.02769906760815561</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1891256077171443</v>
+        <v>0.1895722231938626</v>
       </c>
       <c r="F57" t="n">
-        <v>0.093301790662352</v>
+        <v>0.08334403448620227</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08826767120706655</v>
+        <v>0.09728810675845104</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01033051176434256</v>
+        <v>0.03225377910100514</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03830989482160126</v>
+        <v>0.09715846594017885</v>
       </c>
       <c r="J57" t="n">
-        <v>0.00232187509896949</v>
+        <v>0.02486283542348626</v>
       </c>
       <c r="K57" t="n">
-        <v>0.09167321967526453</v>
+        <v>0.05291952521095301</v>
       </c>
       <c r="L57" t="n">
-        <v>0.004167362863760494</v>
+        <v>0.001285124962985654</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05345581743040698</v>
+        <v>0.002490094322493723</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01994681793713716</v>
+        <v>0.06389290448361087</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03655476957032915</v>
+        <v>0.0181034022343303</v>
       </c>
       <c r="P57" t="n">
-        <v>0.09362042572409933</v>
+        <v>0.09353568528346204</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01663053757033238</v>
+        <v>0.02043632545178574</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02628040370746399</v>
+        <v>0.03695093959931484</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1045384625419766</v>
+        <v>0.08341710804133226</v>
       </c>
       <c r="T57" t="n">
-        <v>0.04472579893274699</v>
+        <v>0.09449589823032596</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03915977107183777</v>
+        <v>0.01817070300330716</v>
       </c>
       <c r="V57" t="n">
-        <v>0.06330669151756707</v>
+        <v>0.04011850295741888</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02363112289487372</v>
+        <v>0.06486986309599235</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04107039729619047</v>
+        <v>0.01309554882592818</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01753753517328738</v>
+        <v>0.002354312411892486</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.03402461344833288</v>
+        <v>0.04056479069428053</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02667678324823493</v>
+        <v>0.007744114818162164</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.03046772584182642</v>
+        <v>0.01064793466310033</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.008706185270534952</v>
+        <v>-0.02168662540772742</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1886997233527377</v>
+        <v>0.188395690479084</v>
       </c>
       <c r="F58" t="n">
-        <v>0.008279280395360571</v>
+        <v>0.08070863469496074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07643374970591643</v>
+        <v>0.01469135490530052</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09265585156544336</v>
+        <v>0.02737926269735321</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01368316994731032</v>
+        <v>0.007066758587151842</v>
       </c>
       <c r="J58" t="n">
-        <v>0.01522668550682033</v>
+        <v>0.07284447474845651</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01354877978284682</v>
+        <v>0.02197386590126234</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02188200293735738</v>
+        <v>0.003827703446104625</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08932108074886969</v>
+        <v>0.08581466256018341</v>
       </c>
       <c r="N58" t="n">
-        <v>0.006788325756480825</v>
+        <v>0.009389987749799959</v>
       </c>
       <c r="O58" t="n">
-        <v>0.03137897051254772</v>
+        <v>0.005752271483124422</v>
       </c>
       <c r="P58" t="n">
-        <v>0.07952145913577292</v>
+        <v>0.0341611652974921</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01420856016487376</v>
+        <v>2.108798160538512e-05</v>
       </c>
       <c r="R58" t="n">
-        <v>0.07213755678621832</v>
+        <v>0.08262818083539505</v>
       </c>
       <c r="S58" t="n">
-        <v>0.08405575208721253</v>
+        <v>0.0724410251439353</v>
       </c>
       <c r="T58" t="n">
-        <v>0.02212231243705986</v>
+        <v>0.05591250467894145</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08542337096484889</v>
+        <v>0.08482759173367235</v>
       </c>
       <c r="V58" t="n">
-        <v>0.02286281705061435</v>
+        <v>0.03707634310165174</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0005559694729106875</v>
+        <v>0.04440589344432364</v>
       </c>
       <c r="X58" t="n">
-        <v>0.07085895656715063</v>
+        <v>0.07212214143477864</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.02693767873705439</v>
+        <v>0.03459460666678971</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.07184374327059773</v>
+        <v>0.06212616199961401</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.07880308306467274</v>
+        <v>0.06875868564675079</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.001470843402059804</v>
+        <v>0.02147563526135234</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.03635620929817262</v>
+        <v>0.06698151312512451</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1958036269756157</v>
+        <v>0.1929506803571392</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06991717743301296</v>
+        <v>0.0940689491945156</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08203084850667294</v>
+        <v>0.003013847499291336</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07915264210450598</v>
+        <v>0.03990967181083185</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01243876830020732</v>
+        <v>0.05142583796050028</v>
       </c>
       <c r="J59" t="n">
-        <v>0.008962414784373538</v>
+        <v>0.0272106866032857</v>
       </c>
       <c r="K59" t="n">
-        <v>0.06891813768990519</v>
+        <v>0.006818691804327207</v>
       </c>
       <c r="L59" t="n">
-        <v>0.004111427855315328</v>
+        <v>0.06649112737352329</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04383061958064001</v>
+        <v>0.06973709182024936</v>
       </c>
       <c r="N59" t="n">
-        <v>0.03042012713555431</v>
+        <v>0.002266261398537262</v>
       </c>
       <c r="O59" t="n">
-        <v>0.008405624106346151</v>
+        <v>0.004033509328371331</v>
       </c>
       <c r="P59" t="n">
-        <v>0.07686550422460726</v>
+        <v>0.08499030543898888</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0139354789346813</v>
+        <v>0.02121016925874705</v>
       </c>
       <c r="R59" t="n">
-        <v>0.05833888016430533</v>
+        <v>0.05069195208085475</v>
       </c>
       <c r="S59" t="n">
-        <v>0.08612250382677487</v>
+        <v>0.09175425800673707</v>
       </c>
       <c r="T59" t="n">
-        <v>0.0078285327420949</v>
+        <v>0.003508939885477265</v>
       </c>
       <c r="U59" t="n">
-        <v>0.002921186993771142</v>
+        <v>0.04490968462520826</v>
       </c>
       <c r="V59" t="n">
-        <v>0.08961737188148029</v>
+        <v>0.06167849323684461</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08326876089653748</v>
+        <v>0.05904113906194575</v>
       </c>
       <c r="X59" t="n">
-        <v>0.02247543859770242</v>
+        <v>0.05423976819560709</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.01596719007723995</v>
+        <v>0.004739532506695126</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.08576136715627213</v>
+        <v>0.07395754021488117</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.03749008168753422</v>
+        <v>0.08001309468518941</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.01121991532046518</v>
+        <v>0.004289448009390361</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.04680040429646874</v>
+        <v>0.06585844772891644</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2018850826400553</v>
+        <v>0.2013906832386133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06992349680429626</v>
+        <v>0.07780249246690361</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05131849738248737</v>
+        <v>0.0700047149439046</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06908858008264873</v>
+        <v>0.006801364201604892</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01549263985878403</v>
+        <v>0.058556441113787</v>
       </c>
       <c r="J60" t="n">
-        <v>0.02424973878309625</v>
+        <v>0.005334711368164804</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03597134326408908</v>
+        <v>0.01269964395604257</v>
       </c>
       <c r="L60" t="n">
-        <v>0.002714012731795781</v>
+        <v>0.03581089056149519</v>
       </c>
       <c r="M60" t="n">
-        <v>0.05890077245648422</v>
+        <v>0.05449699365017489</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0005004108895206498</v>
+        <v>0.001935325539214876</v>
       </c>
       <c r="O60" t="n">
-        <v>0.002785118263973178</v>
+        <v>0.02921486599642689</v>
       </c>
       <c r="P60" t="n">
-        <v>0.05091031515083162</v>
+        <v>0.08965655352249451</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01525040583039975</v>
+        <v>0.001844177288013488</v>
       </c>
       <c r="R60" t="n">
-        <v>0.04848571705255329</v>
+        <v>0.03448923552524222</v>
       </c>
       <c r="S60" t="n">
-        <v>0.08101141117574208</v>
+        <v>0.09060013034571598</v>
       </c>
       <c r="T60" t="n">
-        <v>0.04853123739930898</v>
+        <v>0.01661462057147188</v>
       </c>
       <c r="U60" t="n">
-        <v>0.06251092431840766</v>
+        <v>0.08979837044210168</v>
       </c>
       <c r="V60" t="n">
-        <v>0.04037145928986611</v>
+        <v>0.005180828446550208</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08273282700303647</v>
+        <v>0.05878768290840899</v>
       </c>
       <c r="X60" t="n">
-        <v>0.06052515512719737</v>
+        <v>0.05824924142922931</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.02892956021978014</v>
+        <v>0.05752532897724479</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.05775366331924592</v>
+        <v>0.07859210140076282</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.08790007095788133</v>
+        <v>0.06055484170290239</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.004142642638573671</v>
+        <v>0.005449443642142663</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06891564160135367</v>
+        <v>0.05890242968896087</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2128156300672543</v>
+        <v>0.2147943595873489</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0936787292736021</v>
+        <v>0.1003590471969742</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008078443203276525</v>
+        <v>0.01729204178486628</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07414013988139428</v>
+        <v>0.03898487998914733</v>
       </c>
       <c r="I61" t="n">
-        <v>0.002479701215599517</v>
+        <v>0.006297349777058602</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01233310718767025</v>
+        <v>0.000339007346793211</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02392146439366976</v>
+        <v>0.05179530764833063</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02952432441703053</v>
+        <v>0.01639380742971345</v>
       </c>
       <c r="M61" t="n">
-        <v>0.06843396695479619</v>
+        <v>0.01928728573431146</v>
       </c>
       <c r="N61" t="n">
-        <v>0.04900212740744621</v>
+        <v>0.0333120091399295</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0091575755009128</v>
+        <v>0.06179924580383272</v>
       </c>
       <c r="P61" t="n">
-        <v>0.008366370588229413</v>
+        <v>0.03380868425994606</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.03302444836079971</v>
+        <v>0.05129751704144066</v>
       </c>
       <c r="R61" t="n">
-        <v>0.09793690351972333</v>
+        <v>0.01410182474949735</v>
       </c>
       <c r="S61" t="n">
-        <v>0.09980982641006116</v>
+        <v>0.08933789075219416</v>
       </c>
       <c r="T61" t="n">
-        <v>0.05389321947565697</v>
+        <v>0.03222288456081157</v>
       </c>
       <c r="U61" t="n">
-        <v>0.04832315837776652</v>
+        <v>0.01400179373104919</v>
       </c>
       <c r="V61" t="n">
-        <v>0.05783714169594752</v>
+        <v>0.1063738426610115</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0156946578305144</v>
+        <v>0.1133810840270462</v>
       </c>
       <c r="X61" t="n">
-        <v>0.008464093115249467</v>
+        <v>0.03739520567695752</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01026347146129261</v>
+        <v>0.00791151245999047</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.09529372345164823</v>
+        <v>0.0912944922169034</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.07381229349699583</v>
+        <v>0.05188004775514291</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.02653111278071688</v>
+        <v>0.01113323825705151</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.07682192654536575</v>
+        <v>0.07271139302061902</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1945516700454761</v>
+        <v>0.1959367089254349</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06114937010460574</v>
+        <v>0.07955066971359857</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01325608448025041</v>
+        <v>0.0234879565122339</v>
       </c>
       <c r="H62" t="n">
-        <v>0.05027688233203281</v>
+        <v>0.02517538101748158</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01292863357295995</v>
+        <v>0.07522608523918282</v>
       </c>
       <c r="J62" t="n">
-        <v>0.04192239802256126</v>
+        <v>0.02705312668506986</v>
       </c>
       <c r="K62" t="n">
-        <v>0.02289548594455638</v>
+        <v>0.08330354928087728</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02085294639020916</v>
+        <v>0.01358760056255458</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1028516923112434</v>
+        <v>0.02596345664577302</v>
       </c>
       <c r="N62" t="n">
-        <v>0.001415349883434874</v>
+        <v>0.0006808669122367907</v>
       </c>
       <c r="O62" t="n">
-        <v>0.004319369178270258</v>
+        <v>0.09442823599328207</v>
       </c>
       <c r="P62" t="n">
-        <v>0.07238046744151673</v>
+        <v>0.001136687241198349</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02220879634130089</v>
+        <v>0.004322317560694957</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07875872901271495</v>
+        <v>0.08001295822362674</v>
       </c>
       <c r="S62" t="n">
-        <v>0.003403563905609375</v>
+        <v>0.01025515433808685</v>
       </c>
       <c r="T62" t="n">
-        <v>0.02317915371993732</v>
+        <v>0.04254012847941015</v>
       </c>
       <c r="U62" t="n">
-        <v>0.08234368549245652</v>
+        <v>0.1062002114608667</v>
       </c>
       <c r="V62" t="n">
-        <v>0.009410402937834074</v>
+        <v>0.05425856296448311</v>
       </c>
       <c r="W62" t="n">
-        <v>0.02294143498999519</v>
+        <v>0.03518762687278045</v>
       </c>
       <c r="X62" t="n">
-        <v>0.1045135902270841</v>
+        <v>0.05308002325734755</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.05910137515373987</v>
+        <v>0.01486638516176092</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.1077706231004487</v>
+        <v>0.075592975825896</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.03831765688862326</v>
+        <v>0.06976228361852997</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.04380230856861469</v>
+        <v>0.004327756433027742</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.067284285587231</v>
+        <v>0.07626640707222895</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2089401950700282</v>
+        <v>0.2030473993038755</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1059460564108888</v>
+        <v>0.1137616272730713</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06995961502300742</v>
+        <v>0.01082579261855169</v>
       </c>
       <c r="H63" t="n">
-        <v>0.05419006184765193</v>
+        <v>0.0003819406671467359</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04306464894300643</v>
+        <v>0.04981703634188205</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04238781213373136</v>
+        <v>0.01309786626837122</v>
       </c>
       <c r="K63" t="n">
-        <v>0.008373610567753084</v>
+        <v>0.005664447712078572</v>
       </c>
       <c r="L63" t="n">
-        <v>0.03747429370631594</v>
+        <v>0.06059471077532939</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04284450707401065</v>
+        <v>0.02836967361437398</v>
       </c>
       <c r="N63" t="n">
-        <v>0.03857920942354572</v>
+        <v>0.004513727418625147</v>
       </c>
       <c r="O63" t="n">
-        <v>0.04461931217021321</v>
+        <v>0.06679739104354379</v>
       </c>
       <c r="P63" t="n">
-        <v>0.008751187039507519</v>
+        <v>0.01975172676185252</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01665268524443159</v>
+        <v>0.04762951474111648</v>
       </c>
       <c r="R63" t="n">
-        <v>0.00440431324487093</v>
+        <v>0.003820187687469961</v>
       </c>
       <c r="S63" t="n">
-        <v>0.05480325018528805</v>
+        <v>0.1138908486559282</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0088850584950832</v>
+        <v>0.09400069974827903</v>
       </c>
       <c r="U63" t="n">
-        <v>0.007023818939853653</v>
+        <v>0.03697510046193366</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1079426374701622</v>
+        <v>0.0499422902190074</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0697888797081439</v>
+        <v>0.01235756251195039</v>
       </c>
       <c r="X63" t="n">
-        <v>0.03008350087753508</v>
+        <v>0.009168858141761884</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0005138710718903145</v>
+        <v>0.0007033516610267431</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.06091562689981279</v>
+        <v>0.1108633461710709</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.09586083486626711</v>
+        <v>0.121234031521473</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.04693520865702899</v>
+        <v>0.02583826798415611</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.08128590768018426</v>
+        <v>0.06804087353861099</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1913320704386167</v>
+        <v>0.1895157808660719</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00652036819949655</v>
+        <v>0.03349634269611124</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07009382831102123</v>
+        <v>0.05013366435313134</v>
       </c>
       <c r="H64" t="n">
-        <v>0.05243971902700346</v>
+        <v>0.07065716875759202</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05999079519300858</v>
+        <v>0.03231361409511702</v>
       </c>
       <c r="J64" t="n">
-        <v>0.006393036944293941</v>
+        <v>0.003375376804444211</v>
       </c>
       <c r="K64" t="n">
-        <v>0.004704129532095223</v>
+        <v>0.002895526375718988</v>
       </c>
       <c r="L64" t="n">
-        <v>0.08781169480194699</v>
+        <v>0.04725317343459642</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06822951862341493</v>
+        <v>0.08087041714703813</v>
       </c>
       <c r="N64" t="n">
-        <v>0.03970622788690373</v>
+        <v>0.001431097297038188</v>
       </c>
       <c r="O64" t="n">
-        <v>0.008354863880008187</v>
+        <v>0.06819519370483194</v>
       </c>
       <c r="P64" t="n">
-        <v>0.05419852297046136</v>
+        <v>0.08618118915989846</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.001095825235092671</v>
+        <v>0.001490268225613379</v>
       </c>
       <c r="R64" t="n">
-        <v>0.04506185606284957</v>
+        <v>0.03918700285184917</v>
       </c>
       <c r="S64" t="n">
-        <v>0.06051289680026088</v>
+        <v>0.01925822974025777</v>
       </c>
       <c r="T64" t="n">
-        <v>0.03372621251331329</v>
+        <v>0.06071493193285785</v>
       </c>
       <c r="U64" t="n">
-        <v>0.1128081034426423</v>
+        <v>0.08775583643061824</v>
       </c>
       <c r="V64" t="n">
-        <v>0.03892681250110198</v>
+        <v>0.0142459929878609</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01149870986907979</v>
+        <v>0.01346547452141962</v>
       </c>
       <c r="X64" t="n">
-        <v>0.1122946632695631</v>
+        <v>0.07912603368206755</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.006292259551334395</v>
+        <v>0.04462597981699944</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.1083185813358839</v>
+        <v>0.08314983219164429</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.004316896842125292</v>
+        <v>0.05840808782286272</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.006704477207098687</v>
+        <v>0.02176956597043105</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.05084499149044401</v>
+        <v>-0.0317303215415714</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2055099356779967</v>
+        <v>0.2051465474198772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08615827328060537</v>
+        <v>0.104157290640675</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0009541837449184999</v>
+        <v>0.04569736193983789</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06222370857367159</v>
+        <v>0.05104170948009185</v>
       </c>
       <c r="I65" t="n">
-        <v>0.004052337169335722</v>
+        <v>0.02005948742740032</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01037609771295738</v>
+        <v>0.02210344621565057</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01050304454763806</v>
+        <v>0.01811898885146542</v>
       </c>
       <c r="L65" t="n">
-        <v>0.006995377521442869</v>
+        <v>0.03545642853552873</v>
       </c>
       <c r="M65" t="n">
-        <v>0.07541109780513047</v>
+        <v>0.009230079335736168</v>
       </c>
       <c r="N65" t="n">
-        <v>0.02534151274199245</v>
+        <v>0.006822372950296139</v>
       </c>
       <c r="O65" t="n">
-        <v>0.06109996521019483</v>
+        <v>0.1226760911174769</v>
       </c>
       <c r="P65" t="n">
-        <v>0.04381951111408176</v>
+        <v>0.002787281354384026</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.02491426411035085</v>
+        <v>0.004881800525818799</v>
       </c>
       <c r="R65" t="n">
-        <v>0.001218801839699315</v>
+        <v>0.02832292288900983</v>
       </c>
       <c r="S65" t="n">
-        <v>0.02011360066765751</v>
+        <v>0.01943661844067194</v>
       </c>
       <c r="T65" t="n">
-        <v>0.04467894495991491</v>
+        <v>0.05238233669973424</v>
       </c>
       <c r="U65" t="n">
-        <v>0.06768815261716783</v>
+        <v>0.03287250812858044</v>
       </c>
       <c r="V65" t="n">
-        <v>0.05669358300386011</v>
+        <v>0.02312408111264798</v>
       </c>
       <c r="W65" t="n">
-        <v>0.007988084866705422</v>
+        <v>0.0754177303569999</v>
       </c>
       <c r="X65" t="n">
-        <v>0.06237756138057633</v>
+        <v>0.1178034810356895</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0762147495089195</v>
+        <v>0.1223746463689412</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08462989835122688</v>
+        <v>0.02355990718640331</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.08798786431914676</v>
+        <v>0.02408511090997658</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.07855938495280566</v>
+        <v>0.0375883184969833</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.01752555263744317</v>
+        <v>0.009559373620914576</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1652721296196254</v>
+        <v>0.1645818178209283</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0823973181656566</v>
+        <v>0.04308895929371794</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04160257048111079</v>
+        <v>0.002150762588847581</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04372384785556085</v>
+        <v>0.03248235997933512</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06323390852575332</v>
+        <v>0.01965524025267725</v>
       </c>
       <c r="J66" t="n">
-        <v>0.00225366141690359</v>
+        <v>0.03228445320241937</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0193688952597124</v>
+        <v>0.05122278440822602</v>
       </c>
       <c r="L66" t="n">
-        <v>0.08071596172284584</v>
+        <v>0.005845784397415876</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04063214955660206</v>
+        <v>0.04683879368783993</v>
       </c>
       <c r="N66" t="n">
-        <v>0.007806592407320249</v>
+        <v>0.02164391685008255</v>
       </c>
       <c r="O66" t="n">
-        <v>0.09124234141160181</v>
+        <v>0.06482273503057712</v>
       </c>
       <c r="P66" t="n">
-        <v>0.01782002586328848</v>
+        <v>0.104835954995536</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01812758085080833</v>
+        <v>0.0001594647011300303</v>
       </c>
       <c r="R66" t="n">
-        <v>0.01678290361789199</v>
+        <v>0.02050180079467829</v>
       </c>
       <c r="S66" t="n">
-        <v>0.04233780324213822</v>
+        <v>0.1070739937468844</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02941969926903258</v>
+        <v>0.02832552355674001</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1010748202349154</v>
+        <v>0.09485578307146113</v>
       </c>
       <c r="V66" t="n">
-        <v>0.002356729808195106</v>
+        <v>0.005155974557650641</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04985650877415334</v>
+        <v>0.08390617795315808</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1028899839653961</v>
+        <v>0.1136004349131678</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.004052534737564313</v>
+        <v>0.01905606489379864</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.03514673068608538</v>
+        <v>0.03635534813494066</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.07120894864169186</v>
+        <v>0.02912782635071668</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.03594848350577148</v>
+        <v>0.03700986263899876</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.03743555716143331</v>
+        <v>0.02716256529430541</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1785256776642418</v>
+        <v>0.1813771815300074</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07041660408190735</v>
+        <v>0.111980060985087</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0177219118317589</v>
+        <v>0.05939820226101793</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03737586314952043</v>
+        <v>0.0934881922799958</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02440223488042739</v>
+        <v>0.06282488871064555</v>
       </c>
       <c r="J67" t="n">
-        <v>0.003839982393419637</v>
+        <v>0.01642583197717229</v>
       </c>
       <c r="K67" t="n">
-        <v>0.006107118097200328</v>
+        <v>0.01341896700894339</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02341745119714267</v>
+        <v>0.01107881619363481</v>
       </c>
       <c r="M67" t="n">
-        <v>0.08300677146790596</v>
+        <v>0.04515042275975777</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01680436850694644</v>
+        <v>0.004526750084519648</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0960464572908569</v>
+        <v>0.1126240383434834</v>
       </c>
       <c r="P67" t="n">
-        <v>0.03783659756463028</v>
+        <v>0.03139666847023406</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02172922481238113</v>
+        <v>0.002774092560048681</v>
       </c>
       <c r="R67" t="n">
-        <v>0.02842582096514278</v>
+        <v>0.005083902281864304</v>
       </c>
       <c r="S67" t="n">
-        <v>0.03098127674843347</v>
+        <v>0.0156575571074716</v>
       </c>
       <c r="T67" t="n">
-        <v>0.02126582254145115</v>
+        <v>0.08649345711324444</v>
       </c>
       <c r="U67" t="n">
-        <v>0.1029304592482947</v>
+        <v>0.02892185647380771</v>
       </c>
       <c r="V67" t="n">
-        <v>0.09872362534853539</v>
+        <v>0.0887787830432363</v>
       </c>
       <c r="W67" t="n">
-        <v>0.03640986784153465</v>
+        <v>0.02702222396212269</v>
       </c>
       <c r="X67" t="n">
-        <v>0.03419874347534984</v>
+        <v>0.02840070770726223</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1029523163685965</v>
+        <v>0.1031082901592568</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01802979576398771</v>
+        <v>0.01637899136334754</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.0653873372852061</v>
+        <v>0.03270212649543577</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.02199034913937016</v>
+        <v>0.00236517265841035</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.01911024613775087</v>
+        <v>0.01961745882999849</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1430832189444161</v>
+        <v>0.1436044807879527</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08769514571610698</v>
+        <v>0.08691354903221604</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002967289598127153</v>
+        <v>0.02349352987905883</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08849422636488241</v>
+        <v>0.01879044034773019</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0897975464432338</v>
+        <v>0.01228433301565747</v>
       </c>
       <c r="J68" t="n">
-        <v>0.06070788667488124</v>
+        <v>0.06091781136793481</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05614874769200455</v>
+        <v>0.0655112073393766</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02808606060269398</v>
+        <v>0.0400883224671913</v>
       </c>
       <c r="M68" t="n">
-        <v>0.07903326777813438</v>
+        <v>0.04052289162552542</v>
       </c>
       <c r="N68" t="n">
-        <v>0.002315646478835481</v>
+        <v>0.002716322503223431</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01200982454598274</v>
+        <v>0.00425931479870108</v>
       </c>
       <c r="P68" t="n">
-        <v>0.08477668429481763</v>
+        <v>0.05887241174427609</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.008100887852121994</v>
+        <v>0.017639035938914</v>
       </c>
       <c r="R68" t="n">
-        <v>0.07413372916395494</v>
+        <v>0.09700500232280246</v>
       </c>
       <c r="S68" t="n">
-        <v>0.03860495015666033</v>
+        <v>0.05849238142010015</v>
       </c>
       <c r="T68" t="n">
-        <v>0.01593582390064602</v>
+        <v>0.02367454017470806</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06007547501234126</v>
+        <v>0.05937858332371934</v>
       </c>
       <c r="V68" t="n">
-        <v>0.01374116254220036</v>
+        <v>0.02666229184313322</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06442243902648639</v>
+        <v>0.07722570264645034</v>
       </c>
       <c r="X68" t="n">
-        <v>0.01341884511291486</v>
+        <v>0.0898873356778935</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.04706937479575726</v>
+        <v>0.00686137594584939</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.04531119013695594</v>
+        <v>0.06120359288619905</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.01438276132280544</v>
+        <v>0.0431850342544412</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.01277103478745465</v>
+        <v>0.02441498944489799</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.01073151126388964</v>
+        <v>0.003938328107505674</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1693053486852444</v>
+        <v>0.1679521511705635</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006266715247305884</v>
+        <v>0.05453231621081207</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1035189372072768</v>
+        <v>0.07526036661409545</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04898458885744131</v>
+        <v>0.004399882545165871</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02918184648142358</v>
+        <v>0.02312405856981183</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004564911743560576</v>
+        <v>0.00561687017520383</v>
       </c>
       <c r="K69" t="n">
-        <v>0.04576993299418499</v>
+        <v>0.04692031835498198</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02836182203163336</v>
+        <v>0.02217779738750568</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04912468552076881</v>
+        <v>0.09584971523313264</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01457826850668</v>
+        <v>0.01263909356142249</v>
       </c>
       <c r="O69" t="n">
-        <v>0.01448081483575922</v>
+        <v>0.05106131763412989</v>
       </c>
       <c r="P69" t="n">
-        <v>0.02097252421090237</v>
+        <v>0.04519007671908801</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.06780729425208028</v>
+        <v>0.03670127136109507</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08841656537132531</v>
+        <v>0.03147972855320738</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01951704522824366</v>
+        <v>0.01020583472932087</v>
       </c>
       <c r="T69" t="n">
-        <v>0.002139483569519399</v>
+        <v>0.02376666425021886</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03183035858708095</v>
+        <v>0.042770897854223</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1057071164736857</v>
+        <v>0.102573330150406</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02558793492246289</v>
+        <v>0.02744091919160999</v>
       </c>
       <c r="X69" t="n">
-        <v>0.07182635812615717</v>
+        <v>0.0092477605061992</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.09382301524582642</v>
+        <v>0.1064031664289571</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.03306680795301855</v>
+        <v>0.03107293192937229</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.0105764841966189</v>
+        <v>0.05116652508321316</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.08389648843704393</v>
+        <v>0.09039915695682736</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.0008354069123374668</v>
+        <v>0.01171122498132751</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1270839753164512</v>
+        <v>0.129174715388247</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08742426934896634</v>
+        <v>0.07546803917170587</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02130966245034713</v>
+        <v>0.05154300322823066</v>
       </c>
       <c r="H70" t="n">
-        <v>0.04009241900902945</v>
+        <v>0.008341706869301597</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04214944024566693</v>
+        <v>0.06999035319941811</v>
       </c>
       <c r="J70" t="n">
-        <v>0.06903016721469379</v>
+        <v>0.01550882064213771</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0163906673316352</v>
+        <v>0.03367805021261075</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001459701975181401</v>
+        <v>0.01809511955064705</v>
       </c>
       <c r="M70" t="n">
-        <v>0.05351134192801436</v>
+        <v>0.06140080370806323</v>
       </c>
       <c r="N70" t="n">
-        <v>0.001941919840137349</v>
+        <v>0.01506842224441578</v>
       </c>
       <c r="O70" t="n">
-        <v>0.08431428483205278</v>
+        <v>0.02531524338781974</v>
       </c>
       <c r="P70" t="n">
-        <v>0.08559297594112515</v>
+        <v>0.08409524293335233</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.05872813991242495</v>
+        <v>0.02356215166594415</v>
       </c>
       <c r="R70" t="n">
-        <v>0.06236044884190791</v>
+        <v>0.02313946527822604</v>
       </c>
       <c r="S70" t="n">
-        <v>0.04452645232271969</v>
+        <v>0.02315091872177003</v>
       </c>
       <c r="T70" t="n">
-        <v>0.0208297987225422</v>
+        <v>0.08641922269727068</v>
       </c>
       <c r="U70" t="n">
-        <v>0.08247515406750588</v>
+        <v>0.07961756555625761</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02664407830276309</v>
+        <v>0.04458561407678781</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07343253252073484</v>
+        <v>0.0907563097475397</v>
       </c>
       <c r="X70" t="n">
-        <v>0.01493078647455276</v>
+        <v>0.04073067707137969</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.002032224752023333</v>
+        <v>0.0221484442073595</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.0836072749274083</v>
+        <v>0.08645797760677584</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.01680070331421776</v>
+        <v>0.002880910447887979</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.01041555572434935</v>
+        <v>0.01804593777509807</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.02521362896199172</v>
+        <v>-0.03948035243566413</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1422012523378492</v>
+        <v>0.1414643182475844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04046202736402214</v>
+        <v>0.09794023898279108</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07487478294847699</v>
+        <v>0.09186560700030094</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02796098616953684</v>
+        <v>0.02814299395174359</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03030630560277757</v>
+        <v>0.0183027811745584</v>
       </c>
       <c r="J71" t="n">
-        <v>0.03501090576613237</v>
+        <v>0.01461144433511224</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0002213561887354995</v>
+        <v>0.05614533363878289</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01239621612058021</v>
+        <v>0.001951449471439592</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07370258515509094</v>
+        <v>0.09748406455462917</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01865521201171597</v>
+        <v>0.001704650475967413</v>
       </c>
       <c r="O71" t="n">
-        <v>0.03260850091556206</v>
+        <v>0.02672872088635224</v>
       </c>
       <c r="P71" t="n">
-        <v>0.02843813640388316</v>
+        <v>0.03012326022777028</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.07605137596917012</v>
+        <v>0.07816096458534573</v>
       </c>
       <c r="R71" t="n">
-        <v>0.01001536397694998</v>
+        <v>0.03922684851678997</v>
       </c>
       <c r="S71" t="n">
-        <v>0.07219679139996826</v>
+        <v>0.05489714265073779</v>
       </c>
       <c r="T71" t="n">
-        <v>0.005593617120038367</v>
+        <v>0.0172067782383103</v>
       </c>
       <c r="U71" t="n">
-        <v>0.08568600928717003</v>
+        <v>0.009386876565508278</v>
       </c>
       <c r="V71" t="n">
-        <v>0.07607242448158835</v>
+        <v>0.01688031793169466</v>
       </c>
       <c r="W71" t="n">
-        <v>0.004884354022970537</v>
+        <v>0.01093214163055035</v>
       </c>
       <c r="X71" t="n">
-        <v>0.07749883409850272</v>
+        <v>0.06455207211461872</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.09168863425936195</v>
+        <v>0.08140572509118615</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.04476522265914525</v>
+        <v>0.08551955057091354</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.01597853389092876</v>
+        <v>0.03255982621934379</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.06493182418769185</v>
+        <v>0.04427121118555278</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.02845769231023079</v>
+        <v>-0.03306707538665055</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1150678557432946</v>
+        <v>0.1143786453122912</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07601495933278353</v>
+        <v>0.07977181225939318</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03976835719511384</v>
+        <v>0.03249699139721868</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007508832565213954</v>
+        <v>0.01514072840217911</v>
       </c>
       <c r="I72" t="n">
-        <v>0.003927391411285995</v>
+        <v>0.01507408152311595</v>
       </c>
       <c r="J72" t="n">
-        <v>0.04373450074185018</v>
+        <v>0.09974072557129721</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01809092775387325</v>
+        <v>0.008606083958115695</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00325802148487629</v>
+        <v>0.01466777136994772</v>
       </c>
       <c r="M72" t="n">
-        <v>0.06127437416463472</v>
+        <v>0.04835842683106921</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01626217340418244</v>
+        <v>0.02540944488410191</v>
       </c>
       <c r="O72" t="n">
-        <v>0.06571130798052814</v>
+        <v>0.05654189353503426</v>
       </c>
       <c r="P72" t="n">
-        <v>0.08606570775962247</v>
+        <v>0.09856239760275805</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.07554103300751062</v>
+        <v>0.05393608342283728</v>
       </c>
       <c r="R72" t="n">
-        <v>0.009995209467050554</v>
+        <v>0.02260963029796758</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01771355222161955</v>
+        <v>0.0338017520004097</v>
       </c>
       <c r="T72" t="n">
-        <v>0.03293415397726136</v>
+        <v>0.0145388745146463</v>
       </c>
       <c r="U72" t="n">
-        <v>0.08729828426183864</v>
+        <v>0.09909664806756624</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02607703842080398</v>
+        <v>0.02015720295445166</v>
       </c>
       <c r="W72" t="n">
-        <v>0.0834892152378035</v>
+        <v>0.08383918943761449</v>
       </c>
       <c r="X72" t="n">
-        <v>0.05153630375097012</v>
+        <v>0.08753486915013983</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.01275000875638269</v>
+        <v>0.03636837580142201</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.0594052922621792</v>
+        <v>0.02161871281804479</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.05309128775433185</v>
+        <v>0.01548650131747995</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.06855206708828292</v>
+        <v>0.01664180288318921</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1188068209466386</v>
+        <v>-0.1293312793781893</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1271064079577212</v>
+        <v>0.1267931747981713</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08533348012739433</v>
+        <v>0.06291957417274703</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06881799402261483</v>
+        <v>0.0746399815891621</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02819422424227884</v>
+        <v>0.03506659515102069</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04974774668335873</v>
+        <v>0.008633114798144487</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005767895233752503</v>
+        <v>0.01658149417227435</v>
       </c>
       <c r="K73" t="n">
-        <v>0.03301930234071931</v>
+        <v>0.07356884429112691</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02353978914211905</v>
+        <v>0.0075248773322116</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06957384548280632</v>
+        <v>0.08262490972623268</v>
       </c>
       <c r="N73" t="n">
-        <v>0.06104884532468567</v>
+        <v>0.003360210493238572</v>
       </c>
       <c r="O73" t="n">
-        <v>0.006498358291503446</v>
+        <v>0.04737712545367389</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01783537980453054</v>
+        <v>0.005077343816591781</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02005735217502338</v>
+        <v>0.0780514232228708</v>
       </c>
       <c r="R73" t="n">
-        <v>0.04065052068383584</v>
+        <v>0.02089962478734511</v>
       </c>
       <c r="S73" t="n">
-        <v>0.01355734545819505</v>
+        <v>0.03509914024709036</v>
       </c>
       <c r="T73" t="n">
-        <v>0.00897860716778244</v>
+        <v>0.01016158838525059</v>
       </c>
       <c r="U73" t="n">
-        <v>0.04006063757309388</v>
+        <v>0.02433366313385458</v>
       </c>
       <c r="V73" t="n">
-        <v>0.03363019156836709</v>
+        <v>0.08117016486519148</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02791705827937675</v>
+        <v>0.08037496967296642</v>
       </c>
       <c r="X73" t="n">
-        <v>0.05982039255438234</v>
+        <v>0.07135034909974219</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.1004343895031858</v>
+        <v>0.07638424831953876</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.104275643817021</v>
+        <v>0.04061688883945121</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.00200105144069501</v>
+        <v>0.008336675005825923</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.09923994908327788</v>
+        <v>0.05584719342444867</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1559234659488188</v>
+        <v>-0.1461414291459345</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1256604488926402</v>
+        <v>0.1243497692191865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05228757335457794</v>
+        <v>0.04513850180476273</v>
       </c>
       <c r="G74" t="n">
-        <v>0.08110693830129372</v>
+        <v>0.09043377999461889</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0149185865645241</v>
+        <v>0.06564470056992511</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02519503607877022</v>
+        <v>0.01251622542033575</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0009801773906155094</v>
+        <v>0.05238572804093718</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0002399720773566172</v>
+        <v>0.01999312512504318</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04655090436503147</v>
+        <v>0.02916817982841059</v>
       </c>
       <c r="M74" t="n">
-        <v>0.08508299256799157</v>
+        <v>0.07972178657738087</v>
       </c>
       <c r="N74" t="n">
-        <v>0.001938062315743972</v>
+        <v>0.008619719304017545</v>
       </c>
       <c r="O74" t="n">
-        <v>0.07594502916743881</v>
+        <v>0.03403969318830236</v>
       </c>
       <c r="P74" t="n">
-        <v>0.08764976684270104</v>
+        <v>0.05226455855339082</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.03387002710508524</v>
+        <v>0.08831366874883537</v>
       </c>
       <c r="R74" t="n">
-        <v>0.03190538040851522</v>
+        <v>0.04946071403908297</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03401119844747547</v>
+        <v>0.01130515241553406</v>
       </c>
       <c r="T74" t="n">
-        <v>0.0008845537964539507</v>
+        <v>0.02092870960203973</v>
       </c>
       <c r="U74" t="n">
-        <v>0.07540705145746128</v>
+        <v>0.05101064452351966</v>
       </c>
       <c r="V74" t="n">
-        <v>0.03375782922954797</v>
+        <v>0.01689523634468803</v>
       </c>
       <c r="W74" t="n">
-        <v>0.06068046926177108</v>
+        <v>0.05122012649573926</v>
       </c>
       <c r="X74" t="n">
-        <v>0.04711617381689778</v>
+        <v>0.07731024468964476</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.04244136232496939</v>
+        <v>0.0302595385943247</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.0741569686118876</v>
+        <v>0.07448214738399707</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.07575466591386132</v>
+        <v>0.03885642990559456</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.01811928060002874</v>
+        <v>3.138884987498943e-05</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1373173364420116</v>
+        <v>0.146236662701106</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1361028611126004</v>
+        <v>0.146760490134737</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09087102077978791</v>
+        <v>0.06373198024029651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02761527829770661</v>
+        <v>0.03273857066662266</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0033948024824174</v>
+        <v>0.006304843990375569</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00912945890922345</v>
+        <v>0.006022011508220318</v>
       </c>
       <c r="J75" t="n">
-        <v>0.05456947986306616</v>
+        <v>0.004300360332175095</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03490253172796092</v>
+        <v>0.01802123636551261</v>
       </c>
       <c r="L75" t="n">
-        <v>0.004824217574330706</v>
+        <v>0.04583818882890897</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1056317929110879</v>
+        <v>0.05251022311439755</v>
       </c>
       <c r="N75" t="n">
-        <v>0.02793067824181135</v>
+        <v>0.1051254627853047</v>
       </c>
       <c r="O75" t="n">
-        <v>0.02039489015839712</v>
+        <v>0.006250893657921912</v>
       </c>
       <c r="P75" t="n">
-        <v>0.02758697768035995</v>
+        <v>0.01109405813443082</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.03496231723711949</v>
+        <v>0.02539976332335409</v>
       </c>
       <c r="R75" t="n">
-        <v>0.02829685822619366</v>
+        <v>0.02402084253032009</v>
       </c>
       <c r="S75" t="n">
-        <v>0.04139622198260258</v>
+        <v>0.03643794186460692</v>
       </c>
       <c r="T75" t="n">
-        <v>0.04976186831296864</v>
+        <v>0.03486302449251174</v>
       </c>
       <c r="U75" t="n">
-        <v>0.01160073388331775</v>
+        <v>0.02437441581354882</v>
       </c>
       <c r="V75" t="n">
-        <v>0.04991507773394577</v>
+        <v>0.02355482082791672</v>
       </c>
       <c r="W75" t="n">
-        <v>0.09160415104923032</v>
+        <v>0.03325298228636743</v>
       </c>
       <c r="X75" t="n">
-        <v>0.06504098612316335</v>
+        <v>0.1364264614720283</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.08522473806256066</v>
+        <v>0.1028808488262498</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.007157216785242083</v>
+        <v>0.05498577485210594</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.04519540909990789</v>
+        <v>0.121809435205262</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.08299329287759842</v>
+        <v>0.03005585888156151</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1434593133142505</v>
+        <v>0.146585111236492</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1205108644364899</v>
+        <v>0.1214101284520045</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04911648457857753</v>
+        <v>0.02008059442383133</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02607099144956465</v>
+        <v>0.002702824530100796</v>
       </c>
       <c r="H76" t="n">
-        <v>0.005037156589782213</v>
+        <v>0.002153882664306149</v>
       </c>
       <c r="I76" t="n">
-        <v>0.009049656436768866</v>
+        <v>0.04365789581430351</v>
       </c>
       <c r="J76" t="n">
-        <v>0.104872054468538</v>
+        <v>0.0218415508661073</v>
       </c>
       <c r="K76" t="n">
-        <v>6.366558861324341e-05</v>
+        <v>0.002262241670997847</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02763588189423919</v>
+        <v>0.07503500559258905</v>
       </c>
       <c r="M76" t="n">
-        <v>0.05010681652576873</v>
+        <v>0.09829680016043867</v>
       </c>
       <c r="N76" t="n">
-        <v>0.01680003167719477</v>
+        <v>0.03092205084917787</v>
       </c>
       <c r="O76" t="n">
-        <v>0.03418021743609295</v>
+        <v>0.05508257101381395</v>
       </c>
       <c r="P76" t="n">
-        <v>0.09111498577181752</v>
+        <v>0.07082380188383376</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.04818317352612067</v>
+        <v>0.08097960327619848</v>
       </c>
       <c r="R76" t="n">
-        <v>0.008701530740801494</v>
+        <v>0.07517603717221136</v>
       </c>
       <c r="S76" t="n">
-        <v>0.02298948139303771</v>
+        <v>0.01795791278577095</v>
       </c>
       <c r="T76" t="n">
-        <v>0.06687330824079189</v>
+        <v>0.02404005058334727</v>
       </c>
       <c r="U76" t="n">
-        <v>0.07994314192337121</v>
+        <v>0.0909830079493518</v>
       </c>
       <c r="V76" t="n">
-        <v>0.00785140686623317</v>
+        <v>0.01011970768177451</v>
       </c>
       <c r="W76" t="n">
-        <v>0.09197620542691667</v>
+        <v>0.0890591114117729</v>
       </c>
       <c r="X76" t="n">
-        <v>0.08785971199900511</v>
+        <v>0.06030856738497362</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.01132716580110731</v>
+        <v>0.02922062691947262</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.04368287448823933</v>
+        <v>0.06871310857766395</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.1087362948501293</v>
+        <v>0.02632357156216285</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.007827762327288565</v>
+        <v>0.004259475225799298</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.05595638898396183</v>
+        <v>-0.04758209433378748</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1325002276417786</v>
+        <v>0.1326642446417602</v>
       </c>
       <c r="F77" t="n">
-        <v>0.08502754709896965</v>
+        <v>0.06563438966395105</v>
       </c>
       <c r="G77" t="n">
-        <v>0.06984606328666183</v>
+        <v>0.1066341873122607</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01582689980818735</v>
+        <v>0.0469686012838481</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03133534993230037</v>
+        <v>0.01556834562230466</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02743423317601942</v>
+        <v>0.01444979089668017</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02446396359283193</v>
+        <v>0.01475455647506875</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01003988661370309</v>
+        <v>0.01172718548785901</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04180580143349683</v>
+        <v>0.04956081855494707</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05059345824841598</v>
+        <v>0.005838458260054303</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01266339075339701</v>
+        <v>0.02970975240291622</v>
       </c>
       <c r="P77" t="n">
-        <v>0.07907504527588022</v>
+        <v>0.04957437954238487</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.04326144615450888</v>
+        <v>0.05634211278799774</v>
       </c>
       <c r="R77" t="n">
-        <v>0.004551835790605144</v>
+        <v>0.00967442650991452</v>
       </c>
       <c r="S77" t="n">
-        <v>0.0001661523227782062</v>
+        <v>0.04585578219858193</v>
       </c>
       <c r="T77" t="n">
-        <v>0.000932312961521076</v>
+        <v>0.1069223001408517</v>
       </c>
       <c r="U77" t="n">
-        <v>0.09399027544467382</v>
+        <v>0.03059936566715574</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01139091337114077</v>
+        <v>0.01094169510621807</v>
       </c>
       <c r="W77" t="n">
-        <v>0.05434259642487371</v>
+        <v>0.04728834572142105</v>
       </c>
       <c r="X77" t="n">
-        <v>0.0983081680823262</v>
+        <v>0.08756588071846666</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.1010893645425667</v>
+        <v>0.1107456769436194</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.09819973632168888</v>
+        <v>0.003846708860345563</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.01917113397907341</v>
+        <v>0.07783002305384168</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.02648442538437957</v>
+        <v>0.001967216789310812</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.007346948601922088</v>
+        <v>-0.03536116151610885</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1251862372043924</v>
+        <v>0.1252940362432506</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02346540845809337</v>
+        <v>0.008148785326593749</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05785638711468599</v>
+        <v>0.07824306078309602</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03326034217439026</v>
+        <v>0.03303628118539276</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06438770842918835</v>
+        <v>0.006791129556123891</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04477743582596978</v>
+        <v>0.08252026034230416</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02107381494393644</v>
+        <v>0.05354789649579956</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02649827965232793</v>
+        <v>0.005565092211769184</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03286687672655565</v>
+        <v>0.03159792701498144</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01128589301177915</v>
+        <v>0.05663186208346502</v>
       </c>
       <c r="O78" t="n">
-        <v>0.03123885700036766</v>
+        <v>0.01524069200217706</v>
       </c>
       <c r="P78" t="n">
-        <v>0.08879265583726513</v>
+        <v>0.1362780155995241</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.09200633984453908</v>
+        <v>0.04744596545239934</v>
       </c>
       <c r="R78" t="n">
-        <v>0.01131329312650543</v>
+        <v>0.006484512256640327</v>
       </c>
       <c r="S78" t="n">
-        <v>0.03885382020171545</v>
+        <v>0.007255756512883443</v>
       </c>
       <c r="T78" t="n">
-        <v>0.0707800226526335</v>
+        <v>0.07113642172732428</v>
       </c>
       <c r="U78" t="n">
-        <v>0.03060942234873642</v>
+        <v>0.08063516925706853</v>
       </c>
       <c r="V78" t="n">
-        <v>0.004475673311469653</v>
+        <v>0.006493349291351231</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08993054630718365</v>
+        <v>0.1398444517337915</v>
       </c>
       <c r="X78" t="n">
-        <v>0.06312372053756719</v>
+        <v>0.05055646503351947</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.02984381039337677</v>
+        <v>0.004154218848784645</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.09219063142003646</v>
+        <v>0.005998089351972278</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.03680850483923444</v>
+        <v>0.06769258278031</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.004560555842442152</v>
+        <v>0.004702015152727793</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.08850841162713242</v>
+        <v>0.07833183570200634</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1324523308860292</v>
+        <v>0.1349393700873386</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08430540710988252</v>
+        <v>0.079847854421639</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1062696586766253</v>
+        <v>0.06287764007534924</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03108210135405775</v>
+        <v>0.0332861888285254</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01816819175800375</v>
+        <v>0.01449733990133873</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03745127356794829</v>
+        <v>0.002478200543764932</v>
       </c>
       <c r="K79" t="n">
-        <v>0.003121331465722778</v>
+        <v>0.0393441619240003</v>
       </c>
       <c r="L79" t="n">
-        <v>0.004265892911405309</v>
+        <v>0.07391648820507406</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08444625498749915</v>
+        <v>0.08093943237106785</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01438311007432692</v>
+        <v>0.0007762152169806751</v>
       </c>
       <c r="O79" t="n">
-        <v>0.03614385245082213</v>
+        <v>0.009698626310834357</v>
       </c>
       <c r="P79" t="n">
-        <v>0.04230691863084027</v>
+        <v>0.03079667380046101</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06956899863981644</v>
+        <v>0.06889509716195945</v>
       </c>
       <c r="R79" t="n">
-        <v>0.005071384354865846</v>
+        <v>0.009001575708637143</v>
       </c>
       <c r="S79" t="n">
-        <v>0.001633612610772149</v>
+        <v>0.02223488917732719</v>
       </c>
       <c r="T79" t="n">
-        <v>0.08875558460073553</v>
+        <v>0.03522896957071964</v>
       </c>
       <c r="U79" t="n">
-        <v>0.05277600701276483</v>
+        <v>0.005182319613940636</v>
       </c>
       <c r="V79" t="n">
-        <v>0.02536307904540004</v>
+        <v>0.02393427699833458</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01371218642238276</v>
+        <v>0.05531756449502562</v>
       </c>
       <c r="X79" t="n">
-        <v>0.06182805976006962</v>
+        <v>0.08573165900335251</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.08499965417015842</v>
+        <v>0.07108118127869222</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.05005320760724943</v>
+        <v>0.08001196375537141</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.00645588114549075</v>
+        <v>0.06093057819756387</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.07783835164315983</v>
+        <v>0.05399110344004002</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.08577322566390957</v>
+        <v>0.1038733755289636</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1289854868161458</v>
+        <v>0.1287698501874876</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09114314294020832</v>
+        <v>0.09382212482244456</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03921596291528321</v>
+        <v>0.01121661887357578</v>
       </c>
       <c r="H80" t="n">
-        <v>0.04824556512337238</v>
+        <v>0.04373805213836882</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0265668871202689</v>
+        <v>0.0301866823805524</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03798650370792908</v>
+        <v>0.04027714122464028</v>
       </c>
       <c r="K80" t="n">
-        <v>0.06194843758428613</v>
+        <v>0.07606389308964072</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01077540621503791</v>
+        <v>0.01008925901056608</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0719935023139486</v>
+        <v>0.03578588405873324</v>
       </c>
       <c r="N80" t="n">
-        <v>0.03050049401588328</v>
+        <v>0.004928845455224862</v>
       </c>
       <c r="O80" t="n">
-        <v>0.03103060806671943</v>
+        <v>0.01624070385716242</v>
       </c>
       <c r="P80" t="n">
-        <v>0.09159364849071663</v>
+        <v>0.114441831946946</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.08514904752273579</v>
+        <v>0.09688493186264488</v>
       </c>
       <c r="R80" t="n">
-        <v>0.0601208971936861</v>
+        <v>0.009042857141735916</v>
       </c>
       <c r="S80" t="n">
-        <v>0.04126929912828218</v>
+        <v>0.03372492755175062</v>
       </c>
       <c r="T80" t="n">
-        <v>0.03504689565674002</v>
+        <v>0.02415257022214733</v>
       </c>
       <c r="U80" t="n">
-        <v>0.07658524953604251</v>
+        <v>0.09064864731517457</v>
       </c>
       <c r="V80" t="n">
-        <v>0.01121994298411429</v>
+        <v>0.02689566041118883</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07766294975765231</v>
+        <v>0.08121950997403485</v>
       </c>
       <c r="X80" t="n">
-        <v>0.004690371607964609</v>
+        <v>0.05119498670919727</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.01430000156556038</v>
+        <v>0.03200959469119238</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.02298950519660694</v>
+        <v>0.02991588437588702</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.02578373387742622</v>
+        <v>0.01079569802793306</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.004181947479534627</v>
+        <v>0.03672369485925814</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1734524716558161</v>
+        <v>-0.1925323710809149</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.146603668102745</v>
+        <v>0.1347637798842633</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08921843741121342</v>
+        <v>0.07079672973342906</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01728258633606495</v>
+        <v>0.05897488594846637</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04617719804202135</v>
+        <v>0.04055564475443793</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03193131638999298</v>
+        <v>0.04822954030925423</v>
       </c>
       <c r="J81" t="n">
-        <v>0.004140259418556588</v>
+        <v>0.009854589446388107</v>
       </c>
       <c r="K81" t="n">
-        <v>0.006935714909352367</v>
+        <v>0.00756535262650448</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02983048841674445</v>
+        <v>0.004174082936807317</v>
       </c>
       <c r="M81" t="n">
-        <v>0.08986448951174229</v>
+        <v>0.06715619685912508</v>
       </c>
       <c r="N81" t="n">
-        <v>0.003130120765569316</v>
+        <v>3.018971418767694e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>0.06653866302556007</v>
+        <v>0.04884082826480467</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01788015922689284</v>
+        <v>0.04076054072822696</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.03670799748638544</v>
+        <v>0.08656423671970896</v>
       </c>
       <c r="R81" t="n">
-        <v>0.007052491875146414</v>
+        <v>0.001483237460238212</v>
       </c>
       <c r="S81" t="n">
-        <v>0.01574845368862032</v>
+        <v>0.05627864442511642</v>
       </c>
       <c r="T81" t="n">
-        <v>0.04833820666502122</v>
+        <v>0.07286520916537717</v>
       </c>
       <c r="U81" t="n">
-        <v>0.009600480740084922</v>
+        <v>0.04298475513067538</v>
       </c>
       <c r="V81" t="n">
-        <v>0.01695966205509065</v>
+        <v>0.01017058512609988</v>
       </c>
       <c r="W81" t="n">
-        <v>0.09746498588377002</v>
+        <v>0.07543929992711663</v>
       </c>
       <c r="X81" t="n">
-        <v>0.09153952551546755</v>
+        <v>0.08417197675476586</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.08419614622486055</v>
+        <v>0.07326147989470901</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.0944417430858977</v>
+        <v>0.07107135048303913</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.02113958163374798</v>
+        <v>0.01375386724331247</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.07388129169219641</v>
+        <v>0.01501677634820906</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1934144511186585</v>
+        <v>-0.1851666689320838</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1965754527635299</v>
+        <v>0.1948210418545689</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0677338485495715</v>
+        <v>0.02824329616592023</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03737932188348565</v>
+        <v>0.01605140194028014</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01504830469747591</v>
+        <v>0.067301974446309</v>
       </c>
       <c r="I82" t="n">
-        <v>0.005254123181157348</v>
+        <v>0.0548816046233186</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08419943515508486</v>
+        <v>0.01186682271505426</v>
       </c>
       <c r="K82" t="n">
-        <v>0.007805560474035141</v>
+        <v>0.01460283393885405</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002803545838254903</v>
+        <v>0.001753490753592799</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02051502686800509</v>
+        <v>0.05117859691816604</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01411488122445972</v>
+        <v>0.002543623280816202</v>
       </c>
       <c r="O82" t="n">
-        <v>0.05542648251326683</v>
+        <v>0.02952130568362679</v>
       </c>
       <c r="P82" t="n">
-        <v>0.04898632167003131</v>
+        <v>0.009132222479121177</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.08782014066934614</v>
+        <v>0.0751122513223839</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1168107681891601</v>
+        <v>0.08092605357943031</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1098910941516113</v>
+        <v>0.03503734814806948</v>
       </c>
       <c r="T82" t="n">
-        <v>0.009631433905383714</v>
+        <v>0.007775866169468123</v>
       </c>
       <c r="U82" t="n">
-        <v>0.09206555141024517</v>
+        <v>0.0826057608110841</v>
       </c>
       <c r="V82" t="n">
-        <v>0.03573595114776072</v>
+        <v>0.00109784632382942</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02367527538570609</v>
+        <v>0.06156380752809269</v>
       </c>
       <c r="X82" t="n">
-        <v>0.009969208588816463</v>
+        <v>0.09228191509161553</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.1084140714418313</v>
+        <v>0.08617411093577716</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.009464860248566086</v>
+        <v>0.09545876768078893</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.02963657710931592</v>
+        <v>0.06993139473913328</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.007618215697428641</v>
+        <v>0.02495770472526791</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.157407681181961</v>
+        <v>0.1630484570105964</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2153575159444387</v>
+        <v>0.2021388440877987</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07512030076514861</v>
+        <v>0.09491956842633936</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03179441392986385</v>
+        <v>0.03697187693306236</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01040226611114953</v>
+        <v>0.01039684351894635</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0451757675083478</v>
+        <v>0.02512200392947423</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03227183512266759</v>
+        <v>0.02480519095525994</v>
       </c>
       <c r="K83" t="n">
-        <v>0.006060705866503354</v>
+        <v>0.005411304155457008</v>
       </c>
       <c r="L83" t="n">
-        <v>0.006387978058734418</v>
+        <v>0.01339564446848543</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08517148926217365</v>
+        <v>0.08293702621367957</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04805323192931533</v>
+        <v>0.01479490261821692</v>
       </c>
       <c r="O83" t="n">
-        <v>0.08383716604218185</v>
+        <v>0.0312518947878899</v>
       </c>
       <c r="P83" t="n">
-        <v>0.03288063123089585</v>
+        <v>0.05336464359543228</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.03049783690318976</v>
+        <v>0.07014898630463333</v>
       </c>
       <c r="R83" t="n">
-        <v>0.05706043513382602</v>
+        <v>0.020324879478993</v>
       </c>
       <c r="S83" t="n">
-        <v>0.02306716924393919</v>
+        <v>0.0175074005950576</v>
       </c>
       <c r="T83" t="n">
-        <v>0.002419227726704773</v>
+        <v>0.01706056611220657</v>
       </c>
       <c r="U83" t="n">
-        <v>0.03197764957883605</v>
+        <v>0.08045817447301126</v>
       </c>
       <c r="V83" t="n">
-        <v>0.08771992586110629</v>
+        <v>0.07938311680113827</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03003514562751545</v>
+        <v>0.05385922803486608</v>
       </c>
       <c r="X83" t="n">
-        <v>0.02968815321992694</v>
+        <v>0.08226767838030002</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.07129690783204801</v>
+        <v>0.09308181875164716</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.0870224118973861</v>
+        <v>0.08043356180320252</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.03421688004194753</v>
+        <v>0.001728751576577445</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.05784247110659207</v>
+        <v>0.01037493808612343</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.2040610490276384</v>
+        <v>0.1947080810003642</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2177603992733808</v>
+        <v>0.218552131256721</v>
       </c>
       <c r="F84" t="n">
-        <v>0.06683339433564549</v>
+        <v>0.001646281861108192</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09756241281763398</v>
+        <v>0.06322899474947315</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01072141788300829</v>
+        <v>0.02606272679365128</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0630009173677322</v>
+        <v>0.08811913033343821</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02733212297663056</v>
+        <v>0.03432590880596622</v>
       </c>
       <c r="K84" t="n">
-        <v>0.004716060101755142</v>
+        <v>0.003982078628456264</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01124912352007728</v>
+        <v>0.002704312475535906</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04339669187191703</v>
+        <v>0.07982407571395186</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02657994769495012</v>
+        <v>0.01186551128904832</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01272785728853893</v>
+        <v>0.09250266629681973</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03642157314997541</v>
+        <v>0.08624487136895527</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.09717251730237836</v>
+        <v>0.09004247042830338</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1053270976032716</v>
+        <v>0.09312149761017685</v>
       </c>
       <c r="S84" t="n">
-        <v>0.0991568828535728</v>
+        <v>0.01663683284742397</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0002184554546637426</v>
+        <v>0.007127216986566368</v>
       </c>
       <c r="U84" t="n">
-        <v>0.1068517599044301</v>
+        <v>0.04701845924814189</v>
       </c>
       <c r="V84" t="n">
-        <v>0.0251772295651543</v>
+        <v>0.01161105234146831</v>
       </c>
       <c r="W84" t="n">
-        <v>0.04013277147090683</v>
+        <v>0.0001805705941148067</v>
       </c>
       <c r="X84" t="n">
-        <v>0.03929579137497346</v>
+        <v>0.05138420493220982</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.01996745566686547</v>
+        <v>0.09695340257772833</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.02142566209542874</v>
+        <v>0.005842670830058212</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.01696990945347518</v>
+        <v>0.0760910729640078</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.02776294824701483</v>
+        <v>0.0134839903233959</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.02925461582680532</v>
+        <v>0.007823077013249097</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.234690057916981</v>
+        <v>0.2348678465684394</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1112940282847067</v>
+        <v>0.07374124523407632</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1057438824603073</v>
+        <v>0.02715363720460556</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02814267973899433</v>
+        <v>0.02256446092416195</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009015680084864849</v>
+        <v>0.0410311992515714</v>
       </c>
       <c r="J85" t="n">
-        <v>0.003498473616745451</v>
+        <v>0.04123472116681998</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007141486901482284</v>
+        <v>0.008067047842685813</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04081224135040129</v>
+        <v>0.007436566347308706</v>
       </c>
       <c r="M85" t="n">
-        <v>0.09101677205749248</v>
+        <v>0.08109440150839788</v>
       </c>
       <c r="N85" t="n">
-        <v>0.003314311272699537</v>
+        <v>0.01543387405942896</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04552645966006511</v>
+        <v>0.05066237850173667</v>
       </c>
       <c r="P85" t="n">
-        <v>0.04615798627958889</v>
+        <v>0.00421764733300288</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02947990269009487</v>
+        <v>0.08329588530658592</v>
       </c>
       <c r="R85" t="n">
-        <v>0.105630002850513</v>
+        <v>0.06676375122120135</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02889527247706976</v>
+        <v>0.02718948822720781</v>
       </c>
       <c r="T85" t="n">
-        <v>0.03758955354199447</v>
+        <v>0.007775057412727243</v>
       </c>
       <c r="U85" t="n">
-        <v>0.01464458207260457</v>
+        <v>0.02062499870301313</v>
       </c>
       <c r="V85" t="n">
-        <v>0.009085229933804395</v>
+        <v>0.05478764842486739</v>
       </c>
       <c r="W85" t="n">
-        <v>0.04429205799365251</v>
+        <v>0.08018839584529334</v>
       </c>
       <c r="X85" t="n">
-        <v>0.03474398243354782</v>
+        <v>0.07157871066297565</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.07149451133535062</v>
+        <v>0.08197290675694277</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.05906730994332572</v>
+        <v>0.07744999406477039</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.03764622007511306</v>
+        <v>0.01182454640911736</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.0357673729455809</v>
+        <v>0.04391143759150151</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.0428767116454486</v>
+        <v>0.03253500298388964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1240377592703423</v>
+        <v>0.1240756038867918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0688346729883693</v>
+        <v>0.07589306206533666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02330557601248881</v>
+        <v>0.008158279599583797</v>
       </c>
       <c r="H2" t="n">
-        <v>0.084068378476806</v>
+        <v>0.07433270764367381</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008053489024356342</v>
+        <v>0.06440649791274566</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02650218291584588</v>
+        <v>0.05181460123391913</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0176430954343702</v>
+        <v>0.02311941427924427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003376204718150142</v>
+        <v>0.03675721906338831</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03224688740941475</v>
+        <v>0.01330875663893365</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0773553230922429</v>
+        <v>0.05448196030525902</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05443578163069103</v>
+        <v>0.06455810857917783</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08327077852136837</v>
+        <v>0.06653299084792594</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00130279815409629</v>
+        <v>0.003422210397772387</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1051123472138584</v>
+        <v>0.0951864148315059</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05733953791319919</v>
+        <v>0.03399585444664301</v>
       </c>
       <c r="T2" t="n">
-        <v>0.008209299356875328</v>
+        <v>0.003510904783517668</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05146657969192856</v>
+        <v>0.01926501143225037</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01677089776670042</v>
+        <v>0.01481569069340942</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07760108254442642</v>
+        <v>0.08066608339766626</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1010355231289133</v>
+        <v>0.03318012823587663</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05744952333413787</v>
+        <v>0.00365613430056161</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01547035129505327</v>
+        <v>0.08075540427910019</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009861163617084317</v>
+        <v>0.08087442685711876</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01928852575962279</v>
+        <v>0.01730813817538976</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08474199241993637</v>
+        <v>0.1017261348290648</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1387798439599964</v>
+        <v>0.1405191035794794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05235756927967087</v>
+        <v>0.05232533078115078</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03146568418755337</v>
+        <v>0.006412954809947155</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0317727196172851</v>
+        <v>0.002724243889212084</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07511040438889</v>
+        <v>0.03372941873421308</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001923992538461716</v>
+        <v>0.00290407326383165</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02669561060540983</v>
+        <v>0.01596725094789953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02365293547878531</v>
+        <v>0.02064983640729805</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05589143504125896</v>
+        <v>0.1013995959532973</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02344102382399741</v>
+        <v>0.009224192259437325</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002759797075831032</v>
+        <v>0.05334595048331087</v>
       </c>
       <c r="P3" t="n">
-        <v>5.100320376439318e-05</v>
+        <v>0.006938849935023994</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008695297213041474</v>
+        <v>0.008875437050233692</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08736389757243611</v>
+        <v>0.02346154672309245</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09150763089028337</v>
+        <v>0.1093614146231889</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06119288629779956</v>
+        <v>0.08913405597420676</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05307693714820556</v>
+        <v>0.01600340238299126</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09602591732446741</v>
+        <v>0.04180684958962728</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04409777213119104</v>
+        <v>0.03349450625163609</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08699960045320562</v>
+        <v>0.01682805737932734</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02913409470265421</v>
+        <v>0.107628380713665</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.007466909718065937</v>
+        <v>0.0728220494432846</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01360304759890211</v>
+        <v>0.08379247112384314</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09571383370883947</v>
+        <v>0.09117013128028166</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1232941647648896</v>
+        <v>0.1040845169748119</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1325161934058456</v>
+        <v>0.132805596385181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001287967779373039</v>
+        <v>0.02890591892109074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001417133300329587</v>
+        <v>0.00115549009533317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01430839893919702</v>
+        <v>0.01881442910578252</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0299532732153179</v>
+        <v>0.02243067989097924</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06338009236586338</v>
+        <v>0.04843195791350931</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05944620483771336</v>
+        <v>0.05221161149120024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02144262500149696</v>
+        <v>0.006466588291473731</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02012689673962507</v>
+        <v>0.01398096704997212</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02032313917043472</v>
+        <v>0.04380201474602367</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05210829891883573</v>
+        <v>0.07820527637547808</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1111881587839174</v>
+        <v>0.0424932807747892</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03012566801587887</v>
+        <v>0.0274874556483106</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1079417294540416</v>
+        <v>0.07631794723895892</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06900799797851401</v>
+        <v>0.02671702704913273</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02965307087174907</v>
+        <v>0.0006266991759522763</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04106738248058611</v>
+        <v>0.07403075136474555</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01291142757208887</v>
+        <v>0.07205986440991718</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1044561137991662</v>
+        <v>0.04079908488699662</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00763341680399458</v>
+        <v>0.07344689741383092</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0896354600258597</v>
+        <v>0.0907124233491913</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06887150110650807</v>
+        <v>0.08782291351410838</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003163697538340206</v>
+        <v>0.04726758984120386</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0405503453011683</v>
+        <v>0.02581313145201949</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.02606606164238651</v>
+        <v>-0.02524906764944638</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1496524672234757</v>
+        <v>0.1468370519219728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007751863511921623</v>
+        <v>0.1041208720732069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007623859019590768</v>
+        <v>0.00419525358057291</v>
       </c>
       <c r="H5" t="n">
-        <v>8.387053346884804e-05</v>
+        <v>0.0137156400561028</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09134671292345795</v>
+        <v>0.03749065131460198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01849020279341811</v>
+        <v>0.001621549489253154</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01412703785314983</v>
+        <v>0.06791343048437576</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004583843512654708</v>
+        <v>0.03759600285514371</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01100306989519164</v>
+        <v>0.002449180354362559</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02367060627159967</v>
+        <v>0.04455122209505293</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03904659308940627</v>
+        <v>0.01140497733247115</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03892194162330456</v>
+        <v>0.03558726407274676</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03867011189007088</v>
+        <v>0.001621200552620059</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03670882505736543</v>
+        <v>0.07439783101187109</v>
       </c>
       <c r="S5" t="n">
-        <v>0.100268726108851</v>
+        <v>0.1053774979828789</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07531477541515809</v>
+        <v>0.06050541618768821</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08756638170126953</v>
+        <v>0.007865455478981053</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05945968622335487</v>
+        <v>0.0279584985369685</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04050552687762396</v>
+        <v>0.06861692794261075</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04582143659406107</v>
+        <v>0.02855355352786512</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06134029678324034</v>
+        <v>0.06953842705312649</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.879868196261496e-05</v>
+        <v>0.05086917893530014</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09170170512435651</v>
+        <v>0.03819699896665992</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1058941285155217</v>
+        <v>0.1058529701155391</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.01036525652738265</v>
+        <v>-0.006848189521895681</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1300348347637739</v>
+        <v>0.1271058631918934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08416885587353452</v>
+        <v>0.08873477128894675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0518961680007651</v>
+        <v>0.03586499928936141</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03125591329955539</v>
+        <v>0.02636811401692001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02702489684028615</v>
+        <v>0.006851953307040633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06839277178773148</v>
+        <v>0.004147214980634962</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002732955229008063</v>
+        <v>0.02145916603978586</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07096113253350775</v>
+        <v>0.03664176294844555</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01761264327891211</v>
+        <v>0.005315462731731409</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06549349852202435</v>
+        <v>0.07196706435873473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05136132458160026</v>
+        <v>0.09590886754563185</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06503868235152879</v>
+        <v>0.08857765919941232</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00420838545934156</v>
+        <v>0.01039425830707761</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08586161309982317</v>
+        <v>0.05541498043757807</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02538418406002832</v>
+        <v>0.05838844508314013</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03431241973050501</v>
+        <v>0.02299056713468331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09101147901416544</v>
+        <v>0.08533491627690849</v>
       </c>
       <c r="V6" t="n">
-        <v>0.007417798625175475</v>
+        <v>0.01664741279544673</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06326661277076612</v>
+        <v>0.07820132472514162</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01368731578725641</v>
+        <v>0.01499320820899011</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06568604085310134</v>
+        <v>0.09975149450008812</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05863106855190157</v>
+        <v>0.04701258663061071</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.002464051976742741</v>
+        <v>0.005884586956494477</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01213018777273899</v>
+        <v>0.02314918323719525</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03386128906426435</v>
+        <v>0.04232963056391978</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.146639782211756</v>
+        <v>0.1469650639048451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04472689970736844</v>
+        <v>0.05780584490331272</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01457847114500994</v>
+        <v>0.06913751842365791</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01237312128985955</v>
+        <v>0.06192013662140412</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007385953727637841</v>
+        <v>0.08923465873783064</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07614369404006996</v>
+        <v>0.03671107928462816</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06141984206049178</v>
+        <v>0.02715762841360233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02554290214974268</v>
+        <v>0.006017907456255317</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02069472358232191</v>
+        <v>0.02954728419102793</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02391308171643834</v>
+        <v>0.008065969192379877</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05099205927847086</v>
+        <v>0.0206447327593096</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001969779877818388</v>
+        <v>0.04216121797089979</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03517256027676022</v>
+        <v>0.0007163568695309585</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0694626527458146</v>
+        <v>0.009687442366512764</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06342803260735938</v>
+        <v>0.09738302480453741</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06607020461329213</v>
+        <v>0.09579752801057381</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07276752323719034</v>
+        <v>0.06127828076569213</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02255063944058731</v>
+        <v>0.03846593276121355</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01361166779812291</v>
+        <v>0.001320243952237069</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04091114375858167</v>
+        <v>0.001512709158185382</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04601880070650703</v>
+        <v>0.04118825767982205</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003823545865388912</v>
+        <v>0.005852846148810552</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1033065023121675</v>
+        <v>0.1048224024128699</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1231361980629982</v>
+        <v>0.09357099711570588</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04884726572672313</v>
+        <v>0.05205215838819094</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1322831489862926</v>
+        <v>0.1305519413713088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04577398504731395</v>
+        <v>0.09303725741582436</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01706611126302481</v>
+        <v>0.003548422238802887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009509795690735954</v>
+        <v>0.06123992772669281</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001780952445137448</v>
+        <v>0.0005650750506578894</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1097740685568639</v>
+        <v>0.05746501009814183</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02253106207767002</v>
+        <v>0.00957034312519457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04033964625420453</v>
+        <v>0.001145011894714536</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01771550456254395</v>
+        <v>0.01810537360369626</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006299988291521775</v>
+        <v>0.01025978077668628</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1135548409715911</v>
+        <v>0.0753285066528946</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07494141247013682</v>
+        <v>0.07019610792180803</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03790025197419535</v>
+        <v>0.009658626564712721</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05183386702081697</v>
+        <v>0.083909937366184</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03390262870841564</v>
+        <v>0.02584008882619491</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00476476062527879</v>
+        <v>0.01315345627788443</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03738410092312058</v>
+        <v>0.03581269458389028</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03529149776478973</v>
+        <v>0.06900726305526104</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09888035827676891</v>
+        <v>0.08969636362651671</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02349664699151994</v>
+        <v>0.08149550394713469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1101116224628534</v>
+        <v>0.0709228903936419</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04102478986490765</v>
+        <v>0.03077423632362439</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01476274462645924</v>
+        <v>0.0309493861593176</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0513593631301295</v>
+        <v>0.05831873637052314</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1498574066992334</v>
+        <v>-0.1410076249325467</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1537486510812643</v>
+        <v>0.1567808768861462</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01494849110002247</v>
+        <v>0.03784994734752854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09130647356981454</v>
+        <v>0.01080709149608475</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02362100994843553</v>
+        <v>0.09465784490851904</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1006076286685422</v>
+        <v>0.08541916597181669</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005436455590546179</v>
+        <v>0.002248945672031563</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006427985704148483</v>
+        <v>0.1452481895532192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08826096585572513</v>
+        <v>0.001077070660102822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01774804236337386</v>
+        <v>0.003249563558653446</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02415561821521945</v>
+        <v>0.003608904555675668</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002268466330528941</v>
+        <v>0.001285119829120957</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001540632065380114</v>
+        <v>0.01160669498926645</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08744980226067062</v>
+        <v>0.06231482585972403</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00442886117208626</v>
+        <v>0.03086345592782955</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02471940074897757</v>
+        <v>0.02668736948993386</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001775469563071238</v>
+        <v>0.05186446717689672</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05855401501233766</v>
+        <v>0.003142559419746138</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01308025671327007</v>
+        <v>0.02336431705157958</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08477667802165163</v>
+        <v>0.02692663514879399</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04615100067553587</v>
+        <v>0.1346497518935546</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03494284637165766</v>
+        <v>0.02984586578788527</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08251465304190855</v>
+        <v>0.0162307194403521</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08982046408208458</v>
+        <v>0.05178167354280974</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09546478292501141</v>
+        <v>0.1452698207188753</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1342423540895483</v>
+        <v>-0.0931384134039961</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1620148485394972</v>
+        <v>0.1639306923400339</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04624663422079486</v>
+        <v>0.0236297910520479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008455314859673692</v>
+        <v>0.1032182848769044</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01490377163107181</v>
+        <v>0.05927195185156373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03952740248413461</v>
+        <v>0.02641359167988897</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03922051806022654</v>
+        <v>0.006281094881165177</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01949120676803436</v>
+        <v>0.01027310644321979</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05538837310170298</v>
+        <v>0.01908504447989176</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00274774960846819</v>
+        <v>0.01965246621473535</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01615166284700031</v>
+        <v>0.01074329943369034</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01332371831242719</v>
+        <v>0.004526928458057937</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0586847014986288</v>
+        <v>0.05473256686950821</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03479743990237444</v>
+        <v>0.004616726643324041</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1000625811719865</v>
+        <v>0.1065861653227984</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09346959465005394</v>
+        <v>0.0445754620912007</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04163044377033871</v>
+        <v>0.05028256037496099</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04348117402996737</v>
+        <v>0.05835968365795378</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03208682148162428</v>
+        <v>0.0183385668820019</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08231529310806593</v>
+        <v>0.09967048164253249</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09804284818178412</v>
+        <v>0.09706486761777725</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.007064445076139041</v>
+        <v>0.04558624681359699</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08636181009899335</v>
+        <v>0.07929552823749965</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01947402696964021</v>
+        <v>0.04303684067572615</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.04707246816686869</v>
+        <v>0.01475874379995381</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.06389265820825843</v>
+        <v>-0.08140593978849425</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1701081105768222</v>
+        <v>0.1712420450074182</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09489204361942644</v>
+        <v>0.116378370194256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005844521793525606</v>
+        <v>0.03247406186865465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06788120942042597</v>
+        <v>0.09313169251289152</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02577517801733949</v>
+        <v>0.06067162735111233</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003221682864191384</v>
+        <v>0.01480540067494019</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05493607978196696</v>
+        <v>0.07892350325297177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09158563008703449</v>
+        <v>0.05675307886993789</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006079136678236406</v>
+        <v>0.004887524942552086</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000462287576012702</v>
+        <v>0.001413048034826691</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001351772075156751</v>
+        <v>0.01231476436254738</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0002654284319226937</v>
+        <v>0.04861553069188344</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08842018676034466</v>
+        <v>0.02191045761568974</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06062915713292383</v>
+        <v>0.05068320581103541</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01830717719507411</v>
+        <v>0.002615711353694779</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02575900729989658</v>
+        <v>0.04004574646761338</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04894744554518556</v>
+        <v>0.0008311280127798997</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03301133950981473</v>
+        <v>0.007262741704800262</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08818926933355219</v>
+        <v>0.07051681139444961</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07039087304432615</v>
+        <v>0.07272150675522822</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.04526057149542129</v>
+        <v>0.002320575828559352</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03568089400339087</v>
+        <v>0.09892476711395334</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.05610508869754667</v>
+        <v>0.03941145225344325</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0770040196372844</v>
+        <v>0.07238729293217863</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07570387819327916</v>
+        <v>-0.06838143202799279</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1932388891132169</v>
+        <v>0.1901659287422073</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07339251658905784</v>
+        <v>0.07427413777168605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005326769241767065</v>
+        <v>0.02480434815920004</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00748021802796155</v>
+        <v>0.0354796374965972</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004260947333376254</v>
+        <v>0.08248236915611717</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05747357628508773</v>
+        <v>0.01994196281181603</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01993150829849236</v>
+        <v>0.03905546340844399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007370644530334407</v>
+        <v>0.003994589091276149</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03915189128929951</v>
+        <v>0.0142145182253383</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01638417608042956</v>
+        <v>0.01297631134393776</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08531437338600403</v>
+        <v>0.02381981737009876</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09627031354122262</v>
+        <v>0.081979376288652</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04176226171184488</v>
+        <v>0.03322474649313027</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09492594088228891</v>
+        <v>0.09032861168127772</v>
       </c>
       <c r="S12" t="n">
-        <v>0.015705908798986</v>
+        <v>0.07728910382377244</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06530327157005242</v>
+        <v>0.03054991699995583</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02669993710137908</v>
+        <v>0.07396144184032673</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00173588461482158</v>
+        <v>0.01491573310904343</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01366016145552767</v>
+        <v>0.06289976723117702</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04845039383905652</v>
+        <v>0.08785743462546251</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.09750904444755665</v>
+        <v>0.06220718615337636</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06890698490721624</v>
+        <v>0.04288116752910485</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03441222542511921</v>
+        <v>0.005174411755772918</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07857105064311777</v>
+        <v>0.005687947634436597</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.355145767195666</v>
+        <v>-0.3062872950165193</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2426937203708557</v>
+        <v>0.2423820613540581</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07228883953269907</v>
+        <v>0.07930326193907196</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03402600091969105</v>
+        <v>0.01535709816219004</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02973656688027534</v>
+        <v>0.04677319609930406</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09085465227428469</v>
+        <v>0.09180529907162212</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03637312901987048</v>
+        <v>0.02299657028685394</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01036066976024495</v>
+        <v>0.08696479635675559</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09349403111489253</v>
+        <v>0.05054616226477295</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03965376165719974</v>
+        <v>0.001889288909870493</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01994399059092191</v>
+        <v>0.003650318965029216</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08326544272637085</v>
+        <v>0.01371071470924078</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06048854372133882</v>
+        <v>0.04030390721540044</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06161664336871622</v>
+        <v>0.07961673015154715</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04186363530261591</v>
+        <v>0.04302830038109541</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05285110883994507</v>
+        <v>0.0773385349397535</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004169866565320533</v>
+        <v>0.04750995413754302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003835759914944301</v>
+        <v>0.01302581763039984</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001595071993727764</v>
+        <v>0.02874758780224719</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08839952157083381</v>
+        <v>0.04413558385853553</v>
       </c>
       <c r="X13" t="n">
-        <v>0.002604844075560853</v>
+        <v>0.05540924833820087</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.007154127741056617</v>
+        <v>0.006522700045882026</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02788459894638072</v>
+        <v>0.008907988713722776</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0468327074872278</v>
+        <v>0.05465698864840488</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09070648599588092</v>
+        <v>0.08779995137255642</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.38328291969247</v>
+        <v>-0.4799252170516315</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.257477513186825</v>
+        <v>0.2661587599545193</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06993559242801198</v>
+        <v>0.0662396069920719</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01187998710476851</v>
+        <v>0.05971167436193776</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08330882236419769</v>
+        <v>0.004574307598779506</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01360259060614184</v>
+        <v>0.03754542305870231</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07139879051478148</v>
+        <v>0.07066588993779022</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01446782689277646</v>
+        <v>0.02348781077859835</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02996553660812484</v>
+        <v>0.01694084245744696</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0359041235452718</v>
+        <v>0.0321726035578823</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007388071222822046</v>
+        <v>0.002967964073278604</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01983554433613262</v>
+        <v>0.045942467860539</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1071466368352776</v>
+        <v>0.05212839267992583</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01796621632347506</v>
+        <v>0.04819314965114962</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0722607596937349</v>
+        <v>0.07149476948512212</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1002985268006025</v>
+        <v>0.03839038370588421</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05375934889231544</v>
+        <v>0.04674086802159885</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05118411516932524</v>
+        <v>0.08175016514508061</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003612904758732848</v>
+        <v>0.001319971812360379</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09901090842192699</v>
+        <v>0.07679442590620417</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01967246998084861</v>
+        <v>0.001375448874464294</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04107563138128868</v>
+        <v>0.04817035461422884</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06312516054856154</v>
+        <v>0.04632436965549687</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.005175012474025751</v>
+        <v>0.05271056061052826</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00802542309685568</v>
+        <v>0.07435854916092914</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04731702611729585</v>
+        <v>-0.05834477140278677</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8083625573442944</v>
+        <v>0.79166096213451</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02162080781788228</v>
+        <v>0.03019916605119845</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01802203784073933</v>
+        <v>0.004136946077038537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03472872732017875</v>
+        <v>0.08784098339234545</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07408312344113484</v>
+        <v>0.07350992512541782</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004127027599189199</v>
+        <v>0.008610934741222443</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1160450590831674</v>
+        <v>0.05273688188226004</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05647035820421448</v>
+        <v>0.004643176987893644</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01764088409437838</v>
+        <v>0.0005688976284808884</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001167055638234367</v>
+        <v>0.04424747374711586</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04854877256958495</v>
+        <v>0.005483774230178357</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05773970867483359</v>
+        <v>0.02801781302271506</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04882703410450595</v>
+        <v>0.09850213245890599</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004036764702893227</v>
+        <v>0.05624950760663647</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04201248574222596</v>
+        <v>0.03127466079938344</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04381919918395924</v>
+        <v>0.04081217329546936</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08519347734468005</v>
+        <v>0.03682752775601455</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1168689677286499</v>
+        <v>0.111575350508243</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04988660848386876</v>
+        <v>0.008765036403472285</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05230301685234688</v>
+        <v>0.08058539948742183</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04048342809344973</v>
+        <v>0.01634484704478432</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03732257581934192</v>
+        <v>0.01818676002388468</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003561803555024318</v>
+        <v>0.0448280830087125</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02549107610551652</v>
+        <v>0.1160525487212048</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.03398353532849006</v>
+        <v>0.03166751905520186</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2791105536110584</v>
+        <v>0.278362480822884</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08984759677325273</v>
+        <v>0.09220753212097396</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005851281516367288</v>
+        <v>0.007306002799336376</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04981592643162328</v>
+        <v>0.0186130994927279</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07722073982008607</v>
+        <v>0.04221708373672622</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08886604973234137</v>
+        <v>0.07115590940850762</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01742327471606208</v>
+        <v>0.0004708064709700026</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01036744375552125</v>
+        <v>0.01169682834201635</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02563803525799155</v>
+        <v>0.01911759417936854</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002887766759156139</v>
+        <v>0.00320938585756019</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04453500099873963</v>
+        <v>0.006903671788192345</v>
       </c>
       <c r="P16" t="n">
-        <v>0.074626183248137</v>
+        <v>0.05560022627366999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03414484176324027</v>
+        <v>0.09945696665887693</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07262231559667749</v>
+        <v>0.06863380625259179</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0320818275616574</v>
+        <v>0.09128386589645412</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02778780427150588</v>
+        <v>0.07889544473635875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04774137916629603</v>
+        <v>0.03611313143377583</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02613580028657844</v>
+        <v>0.02774349100483526</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09305732718840989</v>
+        <v>0.0670704996548861</v>
       </c>
       <c r="X16" t="n">
-        <v>0.009001222705273121</v>
+        <v>0.08928852796362852</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.09137725847357471</v>
+        <v>0.09037596230335707</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03598358398366465</v>
+        <v>0.009611943437143312</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01132897025145891</v>
+        <v>0.0003459425501561012</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03692452310711519</v>
+        <v>0.01268227763788659</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1176299041054609</v>
+        <v>0.085056720387856</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3745603494043601</v>
+        <v>0.3641816534861114</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03692095262920682</v>
+        <v>0.008186142628063817</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02457805055935984</v>
+        <v>0.02672229355118204</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02634316114821519</v>
+        <v>0.05624623295081811</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001642523709486386</v>
+        <v>0.04486521019964954</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05826700848254101</v>
+        <v>0.104730230489356</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01741594287486752</v>
+        <v>0.007905087256841772</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003317390528640279</v>
+        <v>0.003435130040088172</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007964698337231081</v>
+        <v>0.03132857605082901</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1117768509705033</v>
+        <v>0.1015116019729415</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05495819588764101</v>
+        <v>0.07050363247439737</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06605176541767779</v>
+        <v>0.06040100605198712</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.008361533479109435</v>
+        <v>0.004054319414975085</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0330019890105597</v>
+        <v>0.09050094565823799</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01641060034281682</v>
+        <v>0.001915247926932889</v>
       </c>
       <c r="T17" t="n">
-        <v>0.08243989225282849</v>
+        <v>0.07356715921905606</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01416973558011384</v>
+        <v>0.02670314846130387</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1034822598219392</v>
+        <v>0.08803008328178617</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07536112890402812</v>
+        <v>0.05531818882876931</v>
       </c>
       <c r="X17" t="n">
-        <v>0.003337586286539877</v>
+        <v>0.03058212441802582</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0972895859930038</v>
+        <v>0.005020638513041556</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05271778486482397</v>
+        <v>0.06168161768781893</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02090160100698886</v>
+        <v>0.01206865920539299</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.08328976191187763</v>
+        <v>0.03472272371850476</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1696191756508549</v>
+        <v>0.1513522822674456</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2901572003658059</v>
+        <v>0.2913067915215002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01616666396651454</v>
+        <v>0.06960759073144951</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003529570752628356</v>
+        <v>0.01789883419917223</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01141617914803894</v>
+        <v>0.01274250512895823</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08242141183153157</v>
+        <v>0.0913787358955086</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01242452561710529</v>
+        <v>0.04910603700238825</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01697926210515762</v>
+        <v>0.03230447496554065</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01038233653659483</v>
+        <v>0.04605744476992412</v>
       </c>
       <c r="M18" t="n">
-        <v>0.061973055014007</v>
+        <v>0.01976419900651879</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02496056335381311</v>
+        <v>0.003459529928696204</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007034502174440365</v>
+        <v>0.05388492860621</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07832713449840389</v>
+        <v>0.07835960909974878</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06151559130872458</v>
+        <v>0.01995088462272831</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1002541321556343</v>
+        <v>0.07530826713517448</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09360876895328357</v>
+        <v>0.04212456310754194</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0531755515045151</v>
+        <v>0.05488040264447051</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004580124929033989</v>
+        <v>0.01017341746368474</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04432887165722834</v>
+        <v>0.001482271558771764</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09668655336286681</v>
+        <v>0.09625166740472232</v>
       </c>
       <c r="X18" t="n">
-        <v>0.005779576571982986</v>
+        <v>0.05050988142581415</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01349477987717747</v>
+        <v>0.0367767604028004</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09795827427694562</v>
+        <v>0.05779526535848152</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.03643987888777112</v>
+        <v>0.02502664524698503</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06656269151660056</v>
+        <v>0.05515608429470948</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1257455380488698</v>
+        <v>0.1377588984371945</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3888212680461239</v>
+        <v>0.4588102438331332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07285226916175118</v>
+        <v>0.008161250531478653</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02210023634671531</v>
+        <v>0.08898637438211413</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06359929664370668</v>
+        <v>0.0393377757866523</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06319718055960094</v>
+        <v>0.007759892929313167</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05576018464868526</v>
+        <v>0.02822417172210227</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05655368324593147</v>
+        <v>0.02386640860503761</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01633565646886666</v>
+        <v>0.08991865773229106</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01366844120062633</v>
+        <v>0.02030195688959775</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03204409036224061</v>
+        <v>0.06014941718201432</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004961721806733581</v>
+        <v>0.01904313692281879</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02370222940537386</v>
+        <v>0.02844543275650907</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002762009552405908</v>
+        <v>0.1056286312929344</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03405680124065642</v>
+        <v>0.007979801416360002</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05756897764762517</v>
+        <v>0.01046268439536453</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06079456651839053</v>
+        <v>0.03487034289568703</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08740827562310269</v>
+        <v>0.09474015596762624</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1002890844942434</v>
+        <v>0.1464106951014852</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01750613516824204</v>
+        <v>0.01936667590751501</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02793441982089407</v>
+        <v>0.03715576042444698</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02292399086960976</v>
+        <v>0.04943864289229798</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03164058809648555</v>
+        <v>0.00280013391146605</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03699872443182493</v>
+        <v>0.01225946804718728</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.09534143668628775</v>
+        <v>0.06469253230770015</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1554091097657176</v>
+        <v>0.1245967731651461</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2717751054794397</v>
+        <v>0.2671425650972915</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01420656775015536</v>
+        <v>0.05108405097062126</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03299367573147007</v>
+        <v>0.01457290115288978</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02536249136538553</v>
+        <v>0.0580927772864746</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06948200332204318</v>
+        <v>0.09704699297683256</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01945206858200414</v>
+        <v>0.007484719604561541</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002230635326766697</v>
+        <v>0.003601886193776669</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0454362166514358</v>
+        <v>0.01447690825950964</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04672207840222951</v>
+        <v>0.03814603964473446</v>
       </c>
       <c r="N20" t="n">
-        <v>0.004077565411044625</v>
+        <v>0.004048581628628209</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01926192385623766</v>
+        <v>0.003073390134401445</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05503644251558565</v>
+        <v>0.05333493897261826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09515821259303936</v>
+        <v>0.08209924316141609</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0934083348371165</v>
+        <v>0.1014959170549463</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09429365469830428</v>
+        <v>0.0919247793140672</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04391052905904599</v>
+        <v>0.04366001810381891</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07051550489089563</v>
+        <v>0.07951770554309348</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01340676050552913</v>
+        <v>0.02182056899782784</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04658699745406276</v>
+        <v>0.05097957784678932</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0186809538253695</v>
+        <v>0.02733950293177555</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01637878392512601</v>
+        <v>0.03524701091048417</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09564022517716363</v>
+        <v>0.08635917280379858</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008351592984821769</v>
+        <v>0.01362332471950546</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06940678113516699</v>
+        <v>0.02096999178742869</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02851946484408382</v>
+        <v>0.0238422105451502</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3399296152422389</v>
+        <v>0.3585624380830824</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00973215038109944</v>
+        <v>0.06761372847253574</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004821035406786705</v>
+        <v>0.03964733032506752</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01308601844783139</v>
+        <v>0.09222908088991646</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02014806995196592</v>
+        <v>0.0495579315166562</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003500814984946296</v>
+        <v>0.03114946906513199</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006482822708432263</v>
+        <v>0.01823758214556067</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06040748605515258</v>
+        <v>0.01069963263136266</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009754188321554209</v>
+        <v>0.04134421946840355</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1272286014540082</v>
+        <v>0.07890479539260584</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0007895814320476482</v>
+        <v>0.01053203065264799</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04834159131471624</v>
+        <v>0.005095245453747595</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1329119777094388</v>
+        <v>0.1129256233784452</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02039923673819788</v>
+        <v>0.01191498571277133</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05949279214355866</v>
+        <v>0.03725996292819916</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04616063521057021</v>
+        <v>0.006957898898993123</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175369251503861</v>
+        <v>0.01794864621960629</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1081620497930874</v>
+        <v>0.1257645965809689</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04553023342691749</v>
+        <v>0.0001430407110696771</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02098178662916838</v>
+        <v>0.02743647917275691</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0006483681813587353</v>
+        <v>0.007899371706352567</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01398992908510475</v>
+        <v>0.03544775924465299</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.001214392436918438</v>
+        <v>0.04751277947077144</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1286793130367523</v>
+        <v>0.1237778099617764</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0571340621353415</v>
+        <v>0.06612753755988257</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2662751747763741</v>
+        <v>0.2618875281809655</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07793130566189109</v>
+        <v>0.00253996140080252</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01631280739441368</v>
+        <v>0.07966494758646386</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04292045280367725</v>
+        <v>0.01882883959555004</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06050749390219907</v>
+        <v>0.06536773540383155</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01136321540100052</v>
+        <v>0.02322560898861736</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04693304998682027</v>
+        <v>0.01905848918353556</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001258941493376012</v>
+        <v>0.007120422269703546</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0097270237504537</v>
+        <v>0.01691971067053642</v>
       </c>
       <c r="N22" t="n">
-        <v>0.009833021966445881</v>
+        <v>0.02807228723691046</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08585803703352117</v>
+        <v>0.02747690093366962</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06516776487069112</v>
+        <v>0.04690358693309979</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04157684324025351</v>
+        <v>0.009842239620191822</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08850527360668504</v>
+        <v>0.1053806678471725</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05405698404874743</v>
+        <v>0.09471458401772165</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05601621220926013</v>
+        <v>0.01720323223367691</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03814005420127115</v>
+        <v>0.08210184715626129</v>
       </c>
       <c r="V22" t="n">
-        <v>0.006308284892610002</v>
+        <v>0.02477311719756828</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0305205555195494</v>
+        <v>0.08211451053516917</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08286350670878799</v>
+        <v>0.02506583019430109</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05031346820694259</v>
+        <v>0.04413773779850072</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04312238169836314</v>
+        <v>0.09463064209220183</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01947580560022567</v>
+        <v>0.02930827517446855</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.06128751580281403</v>
+        <v>0.05554882593004547</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3367373028739018</v>
+        <v>0.320166107589105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02419029440334986</v>
+        <v>0.02379024021582494</v>
       </c>
       <c r="G23" t="n">
-        <v>0.050783298049521</v>
+        <v>0.01261737325429781</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02118702760943905</v>
+        <v>0.07994566196468478</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005443051597798847</v>
+        <v>0.0557353045932994</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1020768958608756</v>
+        <v>0.1147575183045236</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08867977722701031</v>
+        <v>0.03022653247812939</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002007010490118158</v>
+        <v>0.005406378159836864</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03156618234670864</v>
+        <v>0.007002883631125062</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06855596127289962</v>
+        <v>0.004729654351629494</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01853107118920658</v>
+        <v>0.08458990614226844</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04316184478924619</v>
+        <v>0.003614617073565489</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01197861887859454</v>
+        <v>0.03353653668978152</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1138777982399397</v>
+        <v>0.05123293369301218</v>
       </c>
       <c r="S23" t="n">
-        <v>0.003828864692078237</v>
+        <v>0.05465462419061669</v>
       </c>
       <c r="T23" t="n">
-        <v>0.002010294756544237</v>
+        <v>0.04706200930141913</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07099880526533965</v>
+        <v>0.04692636734055385</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1133895183750514</v>
+        <v>0.1293029111001953</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01796303960238955</v>
+        <v>0.08273296438360934</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00494763316668578</v>
+        <v>0.0004373894223167679</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02335045872824589</v>
+        <v>0.01104166069309247</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05319438073883399</v>
+        <v>0.06484588486865457</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.09207075409888757</v>
+        <v>0.04055339024293145</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.03620741862123542</v>
+        <v>0.01525725790463126</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2710482886645715</v>
+        <v>0.2699377218113527</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08756096642462766</v>
+        <v>0.05948411841867386</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02558303650440835</v>
+        <v>0.0207133018084774</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00464511074149962</v>
+        <v>0.0004225592830472307</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07000137153330759</v>
+        <v>0.002623417315339792</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002250777949921027</v>
+        <v>0.03669250766259526</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002956515628553725</v>
+        <v>0.02989077088327206</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02201195975982803</v>
+        <v>0.01988856101984087</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07446612102423421</v>
+        <v>0.04154946242436337</v>
       </c>
       <c r="N24" t="n">
-        <v>0.007173271275899639</v>
+        <v>0.006879084690588696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01262908850056588</v>
+        <v>0.005366465203534065</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0650052123408108</v>
+        <v>0.08561027798496024</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02307055914757188</v>
+        <v>0.02131964482537122</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09248802429486148</v>
+        <v>0.1044203364044767</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07222303168258555</v>
+        <v>0.02477276775038523</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05894804154443768</v>
+        <v>0.0001705113239767122</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05380973078581668</v>
+        <v>0.07001082140351517</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01815844950729117</v>
+        <v>0.02723671712175771</v>
       </c>
       <c r="W24" t="n">
-        <v>0.09462305638867298</v>
+        <v>0.07401042964114449</v>
       </c>
       <c r="X24" t="n">
-        <v>0.067290143913385</v>
+        <v>0.0968727771141919</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04383171144324195</v>
+        <v>0.09893578029178557</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.005905028485927537</v>
+        <v>0.05041032400160752</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06903335141912309</v>
+        <v>0.07199808570922178</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02899630376912668</v>
+        <v>0.05072127771787296</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.08777057322145604</v>
+        <v>0.08597868876261189</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3273482665983055</v>
+        <v>0.3406233839790131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02801302081583494</v>
+        <v>0.01917313141603902</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06438078414167822</v>
+        <v>0.006703191021699014</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1155140813462886</v>
+        <v>0.09382400675872138</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01438938895872159</v>
+        <v>0.04565795020203883</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008259449292195738</v>
+        <v>0.02636503160487493</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03441671891282996</v>
+        <v>0.01128222085480959</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01210659683682057</v>
+        <v>0.03803119570941459</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03997050235114018</v>
+        <v>0.06930293309733879</v>
       </c>
       <c r="N25" t="n">
-        <v>0.008319132208479138</v>
+        <v>0.006421989537835431</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01850173844128517</v>
+        <v>0.0114875008838105</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1060286683594512</v>
+        <v>0.02997039648028589</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02871672988008656</v>
+        <v>0.04297777443949714</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1134267947890376</v>
+        <v>0.01507444709138307</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1001713238691402</v>
+        <v>0.001094230152261897</v>
       </c>
       <c r="T25" t="n">
-        <v>0.043206168243483</v>
+        <v>0.01201176738842025</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01166210823472474</v>
+        <v>0.117402130332993</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1271081944867891</v>
+        <v>0.1119894867132697</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0008145073784579361</v>
+        <v>0.07833672978994832</v>
       </c>
       <c r="X25" t="n">
-        <v>0.007239361417250774</v>
+        <v>0.02609770572542972</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.003841054072330335</v>
+        <v>0.0149823634094549</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0235777523508846</v>
+        <v>0.0004833666405083267</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02218972589567129</v>
+        <v>0.1170934092164552</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.06814619771741853</v>
+        <v>0.1042370415335106</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1627668706529699</v>
+        <v>0.190992809582956</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1858228562619076</v>
+        <v>0.1831685136399843</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03717776296719462</v>
+        <v>0.04158482336338199</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0140909141578754</v>
+        <v>0.0008052497078039235</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007289178396009998</v>
+        <v>0.0645070307931625</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02119993809005099</v>
+        <v>0.05419818478980884</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02700731850529992</v>
+        <v>0.03249987477444171</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01248723529935194</v>
+        <v>0.01581557354482583</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01281117221150076</v>
+        <v>0.02550220248944823</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001682052470182732</v>
+        <v>0.04159696343880291</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03481875604394721</v>
+        <v>0.0542040090482102</v>
       </c>
       <c r="O26" t="n">
-        <v>0.08100843736143061</v>
+        <v>0.02973220825877421</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06375604272526333</v>
+        <v>0.09074168174442733</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03671935244643633</v>
+        <v>0.03052677812163663</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08582928495054004</v>
+        <v>0.09833508124660718</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09761383027347909</v>
+        <v>0.03684217309913703</v>
       </c>
       <c r="T26" t="n">
-        <v>0.06224901920075825</v>
+        <v>0.003819179742137148</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0715258142639449</v>
+        <v>0.05821735291639962</v>
       </c>
       <c r="V26" t="n">
-        <v>0.004064148532826097</v>
+        <v>0.01190045730162145</v>
       </c>
       <c r="W26" t="n">
-        <v>0.04789267172871648</v>
+        <v>0.06887455063457684</v>
       </c>
       <c r="X26" t="n">
-        <v>0.04837623438931747</v>
+        <v>0.03227244637246474</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06762778375936095</v>
+        <v>0.07655413946483951</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.09275578768953888</v>
+        <v>0.1016668131965272</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04724682956858735</v>
+        <v>0.0005616893930782429</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02477043496838666</v>
+        <v>0.02924153655788669</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07314343790096881</v>
+        <v>0.08153210251672185</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2220740355759594</v>
+        <v>0.2211026391823762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05063064113624114</v>
+        <v>0.03326016749612293</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0004738380400686143</v>
+        <v>0.03176796396264345</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09462666143209399</v>
+        <v>0.02992841074339423</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07683823505746615</v>
+        <v>0.02501207272371619</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07485156024088607</v>
+        <v>0.06117745184511307</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03725901451193091</v>
+        <v>0.01473782165376425</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04887298345338329</v>
+        <v>0.05019144950072944</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0001536003303461221</v>
+        <v>0.01310976218074011</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01604534407127369</v>
+        <v>0.00651284004689549</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01229912464540554</v>
+        <v>0.01167372875727529</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01984092004636233</v>
+        <v>0.05732581183433277</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02044804055197625</v>
+        <v>0.01784831974161409</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07657464078112634</v>
+        <v>0.09650993041789011</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08824869065178563</v>
+        <v>0.06618516539735203</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02150266615931528</v>
+        <v>0.01316356831343148</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01018223003080621</v>
+        <v>0.00613122562154095</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08460223623175991</v>
+        <v>0.09900496791487302</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1082430129633319</v>
+        <v>0.04387611023514654</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01709507708333144</v>
+        <v>0.05570041499718761</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02400025387289974</v>
+        <v>0.04206618162432754</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03514857392373359</v>
+        <v>0.09175033767072963</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04341800422574196</v>
+        <v>0.02950780251639944</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03864465055873398</v>
+        <v>0.1035584948047804</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.09029633928040119</v>
+        <v>0.08042933580459205</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1618604112038893</v>
+        <v>0.1634707595430517</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04055858556669387</v>
+        <v>0.009196811358936343</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07569769706592486</v>
+        <v>0.07069756530364493</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05759624258493398</v>
+        <v>0.03974107041948432</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02879741340127898</v>
+        <v>0.01713314773726577</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005602709983531635</v>
+        <v>0.07933194831504099</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0004546423924659621</v>
+        <v>0.0008708271102562122</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04415893932707299</v>
+        <v>0.05253030018815707</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03428035978098709</v>
+        <v>0.01901395046919811</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01060102119911769</v>
+        <v>0.01075283862723267</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05129573477335835</v>
+        <v>0.03309544862499881</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07549882321832073</v>
+        <v>0.0756639939172821</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0774681088515866</v>
+        <v>0.01273718137397094</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07941479442750912</v>
+        <v>0.07690502441831043</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0719305166791694</v>
+        <v>0.07223510123971885</v>
       </c>
       <c r="T28" t="n">
-        <v>0.005232160345744944</v>
+        <v>0.005556699359837182</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05990362540074853</v>
+        <v>0.06296106851192512</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0121964639563321</v>
+        <v>0.03530336358774531</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07442967212061627</v>
+        <v>0.08801552294788956</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07122476971972984</v>
+        <v>0.07718663622436028</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05605825442942217</v>
+        <v>0.06235562104546039</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03749285206671171</v>
+        <v>0.0676357809494338</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01297030129273627</v>
+        <v>0.01228917836763748</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01713631141600687</v>
+        <v>0.01879091990221328</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2418225063297041</v>
+        <v>-0.2221245310133198</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2024232032365073</v>
+        <v>0.1883793914727971</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06416597088468136</v>
+        <v>0.08449014559476388</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03426632511216592</v>
+        <v>0.02266836346571372</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0909032045201984</v>
+        <v>0.04707289434934452</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03642456319388886</v>
+        <v>0.02487271375321187</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08063644047105334</v>
+        <v>0.09568309633039421</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05695139997136817</v>
+        <v>0.002507097610446426</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03925255783476618</v>
+        <v>0.09898001270048219</v>
       </c>
       <c r="M29" t="n">
-        <v>0.009946727194716894</v>
+        <v>0.0142932242773545</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01850490136323944</v>
+        <v>0.01832145056500706</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04351118050711118</v>
+        <v>0.01728767786144186</v>
       </c>
       <c r="P29" t="n">
-        <v>0.006156341452119191</v>
+        <v>0.02106478886089777</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01102143044990071</v>
+        <v>0.00488894496401027</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05087396759171355</v>
+        <v>0.008162052395580972</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09303252046395408</v>
+        <v>0.08597275093928827</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0006739607688368509</v>
+        <v>0.002121904140926518</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02424002148185984</v>
+        <v>0.07302883858462095</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07620066717275255</v>
+        <v>0.0843384120009003</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04067677900635615</v>
+        <v>0.0746435554034197</v>
       </c>
       <c r="X29" t="n">
-        <v>0.03596564138147144</v>
+        <v>0.02159482809156704</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0149951828135602</v>
+        <v>0.07012869288044159</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0728137273112564</v>
+        <v>0.0712255975468547</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0509160029906265</v>
+        <v>0.007525861718568566</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04787048606240273</v>
+        <v>0.04912709596476345</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2096819259979749</v>
+        <v>-0.2131768830151092</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1884478384977227</v>
+        <v>0.1866857481914373</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08159034524565369</v>
+        <v>0.06051718744881562</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007257807611111743</v>
+        <v>0.02219190285475964</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05226887418931054</v>
+        <v>0.03114977290817509</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03448232080773908</v>
+        <v>0.01425496191185151</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0009022219896758669</v>
+        <v>0.03274692130960095</v>
       </c>
       <c r="K30" t="n">
-        <v>0.06340794158858158</v>
+        <v>0.04238042080150405</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05930252422182053</v>
+        <v>0.04398463489877241</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0813589276460845</v>
+        <v>0.02590416753474132</v>
       </c>
       <c r="N30" t="n">
-        <v>0.009245253039220507</v>
+        <v>0.04919809014335732</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02786818434909541</v>
+        <v>0.0243848107946849</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003653290486495304</v>
+        <v>0.01372358332324117</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0267328735059191</v>
+        <v>0.003241869904189326</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0584153756984533</v>
+        <v>0.09085391387952096</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07403816986028516</v>
+        <v>0.1010183554313031</v>
       </c>
       <c r="T30" t="n">
-        <v>0.005638636463759446</v>
+        <v>0.02147581953400233</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07458324185176486</v>
+        <v>0.03740115043551342</v>
       </c>
       <c r="V30" t="n">
-        <v>0.007335617429427032</v>
+        <v>0.0115965592168604</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06704937205213371</v>
+        <v>0.07943349621069712</v>
       </c>
       <c r="X30" t="n">
-        <v>0.09381615935095965</v>
+        <v>0.04694678982877924</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.05139193685139407</v>
+        <v>0.002731457875330454</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03598961260601677</v>
+        <v>0.113943075895474</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.002826124169729497</v>
+        <v>0.03326124516856207</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08084518898536867</v>
+        <v>0.09765981269026346</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.04901987756793426</v>
+        <v>0.04760835927444473</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2023560710486586</v>
+        <v>0.2067871634939424</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06157576514241733</v>
+        <v>0.1002726010149706</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06724517802165546</v>
+        <v>0.0001545283171558865</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008264555855629427</v>
+        <v>0.06445335929157625</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01160617437347066</v>
+        <v>0.06453767540346526</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02672196200709091</v>
+        <v>0.1142630565662342</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08610114134902928</v>
+        <v>0.00199929646110479</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005379575396020929</v>
+        <v>0.03294329670151912</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08043716718275061</v>
+        <v>0.03122679541296905</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01399967465984064</v>
+        <v>0.05093322342295819</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02697515796678245</v>
+        <v>0.0008692677241796671</v>
       </c>
       <c r="P31" t="n">
-        <v>0.008253810403562357</v>
+        <v>0.0137410770580352</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.009445920457113156</v>
+        <v>0.02520375794668234</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01391780872965844</v>
+        <v>0.06029840430526334</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1015780983228515</v>
+        <v>0.09829050446293718</v>
       </c>
       <c r="T31" t="n">
-        <v>0.00924411143077312</v>
+        <v>0.01071927299948493</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01874142845494699</v>
+        <v>0.03131526237468406</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09132452958291573</v>
+        <v>0.02096154692459709</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06189846156377653</v>
+        <v>0.02980767412659892</v>
       </c>
       <c r="X31" t="n">
-        <v>0.07852773816394709</v>
+        <v>0.009700797866475742</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.006653802713844925</v>
+        <v>0.0005959920395869201</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.05084676468592671</v>
+        <v>0.047720790887139</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06161846832225018</v>
+        <v>0.07411549635097736</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.09964270521374551</v>
+        <v>0.1158763223414049</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03159286549917024</v>
+        <v>0.03160195667561526</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1833812947501782</v>
+        <v>0.1862772705486525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001545447697508307</v>
+        <v>0.02964668722400939</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07167911923966058</v>
+        <v>0.008250377193673598</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0005089203159460462</v>
+        <v>0.05597069534195286</v>
       </c>
       <c r="I32" t="n">
-        <v>0.005691639979425405</v>
+        <v>0.03758025200750894</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0100712010694651</v>
+        <v>0.007459335127946615</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02478921030627611</v>
+        <v>0.006613546172569556</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002644646335315023</v>
+        <v>0.00109117839647041</v>
       </c>
       <c r="M32" t="n">
-        <v>0.107196367325271</v>
+        <v>0.09589095139017126</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01539377002451758</v>
+        <v>0.01574682583499372</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1069098169042176</v>
+        <v>0.02257182184956498</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06719132363544263</v>
+        <v>0.07538129137621923</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.003469995371246375</v>
+        <v>0.06929660852404534</v>
       </c>
       <c r="R32" t="n">
-        <v>0.06956127603987146</v>
+        <v>0.05501537474636977</v>
       </c>
       <c r="S32" t="n">
-        <v>0.09485535034707047</v>
+        <v>0.09931834084180508</v>
       </c>
       <c r="T32" t="n">
-        <v>0.004931540788681666</v>
+        <v>0.02196095033460602</v>
       </c>
       <c r="U32" t="n">
-        <v>0.105707645632056</v>
+        <v>0.09222081375196774</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01891789815671131</v>
+        <v>0.01909439231182905</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06112824390633768</v>
+        <v>0.08266349626725362</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0402917623083841</v>
+        <v>0.03134529948062461</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0302300191236598</v>
+        <v>0.06827384934466295</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.09931378597886924</v>
+        <v>0.07818566458015391</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04716827191423768</v>
+        <v>0.008683344223284128</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01080274759982908</v>
+        <v>0.0177389036783171</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1000229799695457</v>
+        <v>0.09093899487674141</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.215686656518224</v>
+        <v>0.2001923027876967</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08362789909038176</v>
+        <v>0.08900708122156865</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08200918022411494</v>
+        <v>0.007469785690581965</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04295411155813811</v>
+        <v>0.06264802292403872</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03881467478994607</v>
+        <v>0.0005010271610898139</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08099543102308351</v>
+        <v>0.02133527142138318</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06901969399519209</v>
+        <v>0.09162733799541105</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01760786459458253</v>
+        <v>0.008626280317313493</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04673295429651552</v>
+        <v>0.004035012556918489</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01855426570118751</v>
+        <v>0.01334069830854292</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03437960425023668</v>
+        <v>0.008718297024467164</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008678815686168672</v>
+        <v>0.04167611916284929</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01189113602638019</v>
+        <v>0.01373042846445195</v>
       </c>
       <c r="R33" t="n">
-        <v>0.08589136738898451</v>
+        <v>0.0646468262001426</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07533427343122211</v>
+        <v>0.0988382096098301</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02509836718509754</v>
+        <v>0.02616360742644608</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002054213244033394</v>
+        <v>0.08125367209156981</v>
       </c>
       <c r="V33" t="n">
-        <v>0.08090541229443636</v>
+        <v>0.0610107409548822</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08715340149461491</v>
+        <v>0.1119153325902053</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01028075156469941</v>
+        <v>0.03606030279908835</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0235649098488895</v>
+        <v>0.006435770532850686</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03725967869851524</v>
+        <v>0.06463889627824783</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01302056564968043</v>
+        <v>0.06304457431874486</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02417142796389896</v>
+        <v>0.02327670494937542</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1398811186130419</v>
+        <v>0.1285008660690005</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1912996223716607</v>
+        <v>0.1933630260275585</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04546529661570804</v>
+        <v>0.02717377432639262</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01462744106249699</v>
+        <v>0.04222752872205949</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01780852252698039</v>
+        <v>0.01280025708982718</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04681876552892558</v>
+        <v>0.04200605835507473</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03184669487970302</v>
+        <v>0.02291299986014909</v>
       </c>
       <c r="K34" t="n">
-        <v>0.006268064616043426</v>
+        <v>0.02197625857336758</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05807205840838176</v>
+        <v>0.004717386717916902</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001889716133328089</v>
+        <v>0.07137401633557773</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02453246985254733</v>
+        <v>0.02593081285636718</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01053921705048329</v>
+        <v>0.04446476798525407</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08552471853633839</v>
+        <v>0.1069651697030859</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03125140844678649</v>
+        <v>0.04393602746381869</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06684487337303625</v>
+        <v>0.07452671966605018</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1169071500299225</v>
+        <v>0.09452692454344359</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01561993338989155</v>
+        <v>0.008905130137548716</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1161631403744748</v>
+        <v>0.05767709717915748</v>
       </c>
       <c r="V34" t="n">
-        <v>0.002670846100657929</v>
+        <v>0.02598745803635686</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08545856926123463</v>
+        <v>0.06362928848118279</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02029741326735336</v>
+        <v>0.07779687480215397</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04657806945430475</v>
+        <v>0.0003836526801132268</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0907059438647949</v>
+        <v>0.0739577203566153</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.03720225169562073</v>
+        <v>0.02383579228277717</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02690743553098583</v>
+        <v>0.03228828384570957</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04629473990802215</v>
+        <v>0.03648537994083615</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2017975399843414</v>
+        <v>0.2249438705941161</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04992370553701819</v>
+        <v>0.09270816767572448</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0752175209419039</v>
+        <v>0.002160115884859101</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002001155236964272</v>
+        <v>0.0272246314991862</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0229993552500826</v>
+        <v>0.04095235535030102</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05697959224203391</v>
+        <v>0.032487884557083</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03059548696716718</v>
+        <v>0.09399580665375346</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006320670414428485</v>
+        <v>0.03560270257800467</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02012509064414711</v>
+        <v>0.006029854001952961</v>
       </c>
       <c r="N35" t="n">
-        <v>0.009400811602387562</v>
+        <v>0.009340901283767604</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08914624918840222</v>
+        <v>0.07293353710716995</v>
       </c>
       <c r="P35" t="n">
-        <v>0.08089568107748753</v>
+        <v>0.006334045674436519</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.004087487192112881</v>
+        <v>0.001930383364015587</v>
       </c>
       <c r="R35" t="n">
-        <v>0.08872880396004673</v>
+        <v>0.07679467228926859</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06819690875125033</v>
+        <v>0.04574029142633962</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01068279899155331</v>
+        <v>0.01791594270131899</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09023068473420552</v>
+        <v>0.07063210578483033</v>
       </c>
       <c r="V35" t="n">
-        <v>0.06980235980423993</v>
+        <v>0.07755616646715843</v>
       </c>
       <c r="W35" t="n">
-        <v>0.07516817242470838</v>
+        <v>0.07767512536635313</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02782537038804484</v>
+        <v>0.02032590935925153</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.00902884394940255</v>
+        <v>0.06637887517605748</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.05231514440262178</v>
+        <v>0.0681251169509481</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.05124755643653768</v>
+        <v>0.01935111349539963</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.009080549863253264</v>
+        <v>0.03780429535281954</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02024525192158527</v>
+        <v>0.01119523783701483</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1958000490500103</v>
+        <v>0.2007965677825195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03390811507264597</v>
+        <v>0.03683861163122192</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001015306034085809</v>
+        <v>0.01490242898089405</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01594980744043305</v>
+        <v>0.05818754766746033</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02629876587108932</v>
+        <v>0.05926928263509721</v>
       </c>
       <c r="J36" t="n">
-        <v>0.08376219210582292</v>
+        <v>0.01441270025454121</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01537626189750185</v>
+        <v>0.01278468042404327</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01084974224856813</v>
+        <v>0.04021376032069435</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0409668444051587</v>
+        <v>0.07579850224799371</v>
       </c>
       <c r="N36" t="n">
-        <v>0.007830415020678353</v>
+        <v>0.01342759640252335</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08466638735699478</v>
+        <v>0.06967889029759597</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07037672187429306</v>
+        <v>0.07201228243942033</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01976462936063723</v>
+        <v>0.01337776747190202</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08300762256361519</v>
+        <v>0.06142396300011635</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06861341848564462</v>
+        <v>0.07865014641752284</v>
       </c>
       <c r="T36" t="n">
-        <v>0.002350044949132082</v>
+        <v>0.01846590526728467</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0679598351118966</v>
+        <v>0.05415607673669653</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05931331746889677</v>
+        <v>0.01443584778862205</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06758316547393027</v>
+        <v>0.06983878460183092</v>
       </c>
       <c r="X36" t="n">
-        <v>0.04035802448502227</v>
+        <v>0.06270338855607828</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02442817259804439</v>
+        <v>0.07625393588175637</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.08098466019155966</v>
+        <v>0.07942126765476744</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07324576217876166</v>
+        <v>0.00228007661453563</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.02139078780558755</v>
+        <v>0.001466556707400896</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.06121738559377108</v>
+        <v>0.05069934834570633</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.224414007185443</v>
+        <v>0.2136666877678148</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008697983810211387</v>
+        <v>0.08020495077963308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06477354914720884</v>
+        <v>0.05022057762231705</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0685267915562294</v>
+        <v>0.03227255876200173</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07836364755366887</v>
+        <v>0.0342135090420165</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06335998506317497</v>
+        <v>0.09179762462704928</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07720166160852605</v>
+        <v>0.05122102592499761</v>
       </c>
       <c r="L37" t="n">
-        <v>0.03616602945025287</v>
+        <v>0.01268029760309621</v>
       </c>
       <c r="M37" t="n">
-        <v>0.008806612287323311</v>
+        <v>0.02777720311931568</v>
       </c>
       <c r="N37" t="n">
-        <v>0.008447474206057069</v>
+        <v>0.007742943868560974</v>
       </c>
       <c r="O37" t="n">
-        <v>0.05630153689313456</v>
+        <v>0.07387220159360533</v>
       </c>
       <c r="P37" t="n">
-        <v>0.006059583157318023</v>
+        <v>0.04203225421878365</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.003660971401687035</v>
+        <v>0.0008082093183860162</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06620112443619915</v>
+        <v>0.06428294458460336</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09590536551977694</v>
+        <v>0.0966927744281745</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04612516266495919</v>
+        <v>0.002833272311804016</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02487405882001227</v>
+        <v>0.03755505209742699</v>
       </c>
       <c r="V37" t="n">
-        <v>0.003312561336701841</v>
+        <v>0.0001364849382523209</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08616966336767362</v>
+        <v>0.07718672649242829</v>
       </c>
       <c r="X37" t="n">
-        <v>0.07549608041099441</v>
+        <v>0.03541740718379698</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.001045796122478926</v>
+        <v>0.01867547901981709</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1007263007244899</v>
+        <v>0.06482192541331329</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01196837994550809</v>
+        <v>0.02657970795966315</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.007809680516413264</v>
+        <v>0.07097486909095703</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.09505657619121473</v>
+        <v>0.08710397700073065</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1925783102888192</v>
+        <v>0.1922680370885672</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03508410387659514</v>
+        <v>0.01401650947861758</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002091441621103134</v>
+        <v>0.01262340255754288</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004773586863634841</v>
+        <v>0.01265167593982808</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03563393761722095</v>
+        <v>0.009511610606242206</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03902597457683386</v>
+        <v>0.01647186484319969</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02484283041260066</v>
+        <v>0.008728798824714916</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00371926276942007</v>
+        <v>0.04158168467083367</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04918611948789176</v>
+        <v>0.0408195081866022</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02114451431528236</v>
+        <v>0.01252947043082988</v>
       </c>
       <c r="O38" t="n">
-        <v>0.04243404713510703</v>
+        <v>0.03035231540120597</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08316666963181957</v>
+        <v>0.1040521678787534</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0595431176780041</v>
+        <v>0.005014051810459652</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08616295780467159</v>
+        <v>0.08902968771807043</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08705378472599627</v>
+        <v>0.09420319509035868</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01430204663653897</v>
+        <v>0.02593643083586851</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06791757390827115</v>
+        <v>0.005323655824198278</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02765666050966505</v>
+        <v>0.05939562117780661</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07647962381952238</v>
+        <v>0.1033703356895172</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07650573776540158</v>
+        <v>0.0371656795901814</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.06527561435859446</v>
+        <v>0.0913786461562614</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.05466362343748885</v>
+        <v>0.06503704202040798</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0273043177011054</v>
+        <v>0.1160699794383217</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01603245334723067</v>
+        <v>0.004736665830177704</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02786707858175142</v>
+        <v>0.009988417534054259</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2155847599560719</v>
+        <v>0.2126197321799577</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04310795483052494</v>
+        <v>0.004909212632827288</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02500644651983444</v>
+        <v>0.002456409638485758</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05031404433013325</v>
+        <v>0.03677643474259257</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08444387871523472</v>
+        <v>0.0817027848775382</v>
       </c>
       <c r="J39" t="n">
-        <v>0.007976677203599672</v>
+        <v>0.02666408956916254</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08454765829056163</v>
+        <v>0.06592466716252947</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08057823840724317</v>
+        <v>0.07080292812706666</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01241874085300534</v>
+        <v>0.02361381553656172</v>
       </c>
       <c r="N39" t="n">
-        <v>0.004828987361679829</v>
+        <v>0.01797758181407052</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0850843328618007</v>
+        <v>0.07188663922176278</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01140346574684489</v>
+        <v>0.01624366107253558</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.004212633875017691</v>
+        <v>0.01160878067895707</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04098476868884144</v>
+        <v>0.04683992837496298</v>
       </c>
       <c r="S39" t="n">
-        <v>0.05849048940462592</v>
+        <v>0.0654580994373866</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0149475764553208</v>
+        <v>0.004267971659065486</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0805781230627633</v>
+        <v>0.07658315790982981</v>
       </c>
       <c r="V39" t="n">
-        <v>0.05760637752141908</v>
+        <v>0.006645135855992843</v>
       </c>
       <c r="W39" t="n">
-        <v>0.05090098711686263</v>
+        <v>0.08489037051219686</v>
       </c>
       <c r="X39" t="n">
-        <v>0.08572087840398789</v>
+        <v>0.09034405714404416</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.009278746614585094</v>
+        <v>0.02867443466333167</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.08496572945060027</v>
+        <v>0.082742507971449</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.01711678544041132</v>
+        <v>0.005541548555958501</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.005486478845102039</v>
+        <v>0.07744578284169198</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0415705448348859</v>
+        <v>0.02641625155537421</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.197271341753142</v>
+        <v>0.198755527249437</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04988540838649711</v>
+        <v>0.00895976971192947</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01839435450663366</v>
+        <v>0.02985349128279011</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01578180863553735</v>
+        <v>0.009042746226546258</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03459127527981096</v>
+        <v>0.01567135279136307</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01158981050361449</v>
+        <v>0.006992153240963262</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01325184912606281</v>
+        <v>0.03652475539620381</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03796695113842775</v>
+        <v>0.01379504895787321</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05092360429649544</v>
+        <v>0.04292102359876313</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005446703381150352</v>
+        <v>0.02195012469061669</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01775643076435595</v>
+        <v>0.08874693196117718</v>
       </c>
       <c r="P40" t="n">
-        <v>0.07506031802326617</v>
+        <v>0.1121843646578666</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0263999767915633</v>
+        <v>0.006509952071228702</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07066173076949726</v>
+        <v>0.1075863988506097</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07663609995236952</v>
+        <v>0.1164223507811639</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03142838014568968</v>
+        <v>0.06691970374685607</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08368070298745213</v>
+        <v>0.01980556127772537</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04775493656533614</v>
+        <v>0.002401656931015253</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06219362758980455</v>
+        <v>0.09572059890778549</v>
       </c>
       <c r="X40" t="n">
-        <v>0.09092796194896012</v>
+        <v>0.04740188593118374</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02189887608241263</v>
+        <v>0.05007922742585313</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06205777251167944</v>
+        <v>0.0742474727589347</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06793804739504171</v>
+        <v>0.009368544199545794</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02777337321834164</v>
+        <v>0.01689488460200528</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.005199291201779043</v>
+        <v>0.004009011956253929</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.215701421450799</v>
+        <v>0.2302261406370692</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05309901644984764</v>
+        <v>0.06612571222017612</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003698432493085512</v>
+        <v>0.05674511385100444</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0517171276910466</v>
+        <v>0.05766971776253382</v>
       </c>
       <c r="I41" t="n">
-        <v>0.109468242177932</v>
+        <v>0.07913935061637929</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08996380297526417</v>
+        <v>0.001818830072910466</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01375358189645663</v>
+        <v>0.08090304978991907</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03093159656436564</v>
+        <v>0.09446098634627619</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02990214826436424</v>
+        <v>0.04925667360734907</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02604528495577144</v>
+        <v>0.009292186536691222</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1053507746154231</v>
+        <v>0.07497891436853446</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01681807621846505</v>
+        <v>0.05343016941136546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.009082050688862539</v>
+        <v>0.008735567254201432</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03162633993634471</v>
+        <v>0.01304922204826598</v>
       </c>
       <c r="S41" t="n">
-        <v>0.04116006931730352</v>
+        <v>0.04108165006337464</v>
       </c>
       <c r="T41" t="n">
-        <v>0.000457507796033149</v>
+        <v>0.01742110366584801</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09186798745292722</v>
+        <v>0.07781333095681753</v>
       </c>
       <c r="V41" t="n">
-        <v>0.001319733725320571</v>
+        <v>0.0002421827056934752</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07200984490795105</v>
+        <v>0.04155632986062278</v>
       </c>
       <c r="X41" t="n">
-        <v>0.005337451683447369</v>
+        <v>0.08195734950704132</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02601699584898378</v>
+        <v>0.001891148071556627</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04799384345731064</v>
+        <v>0.07445653730513709</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.06485295716390344</v>
+        <v>0.007833805171479528</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.07752713371958993</v>
+        <v>0.01014106880682212</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.03048685014122112</v>
+        <v>0.04438057546661396</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1812520568930427</v>
+        <v>0.1828970998315396</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07413671484468491</v>
+        <v>0.05486691578529578</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01702170340223839</v>
+        <v>0.01456792092577055</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06472014455692764</v>
+        <v>0.04783034258624049</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07193591781225223</v>
+        <v>0.0960451177242032</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03680486039268049</v>
+        <v>0.0205299343964768</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003872314033271531</v>
+        <v>0.0009301030666342242</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05793325801087399</v>
+        <v>0.02242186359277831</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01414701290904521</v>
+        <v>0.06003890080428009</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02342555637659238</v>
+        <v>0.001547853480875597</v>
       </c>
       <c r="O42" t="n">
-        <v>0.005898513427296668</v>
+        <v>0.01712591569989787</v>
       </c>
       <c r="P42" t="n">
-        <v>0.04607084266288259</v>
+        <v>0.05164058814900863</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01077333028838827</v>
+        <v>0.09465784148224693</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09503100405462543</v>
+        <v>0.0692190172224272</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1001124335141501</v>
+        <v>0.1010437919546552</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0009918572594363043</v>
+        <v>0.0152099192084169</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06944560945672919</v>
+        <v>0.03070027699082607</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01686941483476161</v>
+        <v>0.01124170086200107</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05359144903175754</v>
+        <v>0.03042158002812638</v>
       </c>
       <c r="X42" t="n">
-        <v>0.008183948984216564</v>
+        <v>0.04777119252867076</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04538991953858168</v>
+        <v>0.06598753400292964</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08605708788822843</v>
+        <v>0.08532031744007312</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.05771318594338117</v>
+        <v>0.04634788160835756</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.03987392077699754</v>
+        <v>0.01453349045980773</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1439807322537644</v>
+        <v>0.1455590530514656</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2073629402139168</v>
+        <v>0.2273145898378315</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07776829376597348</v>
+        <v>0.06395708940647402</v>
       </c>
       <c r="G43" t="n">
-        <v>0.007021718983938251</v>
+        <v>0.05862851546176315</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06046775808584266</v>
+        <v>0.05131454740439509</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03990171722169329</v>
+        <v>0.08354167672856445</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04409911969979981</v>
+        <v>0.01430364685727193</v>
       </c>
       <c r="K43" t="n">
-        <v>0.07711651192280197</v>
+        <v>0.09793863341527657</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05329680930051407</v>
+        <v>0.03805587379753322</v>
       </c>
       <c r="M43" t="n">
-        <v>0.006361877842562381</v>
+        <v>0.01983335784113425</v>
       </c>
       <c r="N43" t="n">
-        <v>0.004184987605172011</v>
+        <v>0.03029333347036037</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03119455182375888</v>
+        <v>0.06298351065789579</v>
       </c>
       <c r="P43" t="n">
-        <v>0.02195218918016728</v>
+        <v>0.009858008884674783</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004316963358953002</v>
+        <v>0.003071896728805419</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03899988360382044</v>
+        <v>0.004020589804668254</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06228036075957862</v>
+        <v>0.03781218075123433</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04485154899548317</v>
+        <v>0.06863419288280156</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09273935528025805</v>
+        <v>0.07312975261436636</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03949248827995316</v>
+        <v>0.0116468870934646</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0005806692209877852</v>
+        <v>0.01721313062444451</v>
       </c>
       <c r="X43" t="n">
-        <v>0.07873505108734448</v>
+        <v>0.07945956976037695</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.006513462599432729</v>
+        <v>0.003691445407898309</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.1006209300252529</v>
+        <v>0.06792238364114796</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.03991267912618957</v>
+        <v>0.01494182224558482</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.06759107223052185</v>
+        <v>0.08774795451986334</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1485117435490588</v>
+        <v>0.1504298857027398</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1459212909731795</v>
+        <v>0.1440747686779973</v>
       </c>
       <c r="F44" t="n">
-        <v>0.009922043379507585</v>
+        <v>0.04301383275424994</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0009034544364176567</v>
+        <v>0.03663103061471285</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03023472967479542</v>
+        <v>0.04468807871834284</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08995934471432762</v>
+        <v>0.00334940076170024</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01208557535820572</v>
+        <v>0.01238665484123638</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05725420523055957</v>
+        <v>0.00774939811035077</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02291870122525448</v>
+        <v>0.03217574702865184</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0664845486127037</v>
+        <v>0.09232325211469512</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01980438126861505</v>
+        <v>0.01037060572522685</v>
       </c>
       <c r="O44" t="n">
-        <v>0.06487601811584581</v>
+        <v>0.03261842192288549</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01695242320853293</v>
+        <v>0.007633593724701822</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.07043073600520253</v>
+        <v>0.06898703799108091</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1094793267350846</v>
+        <v>0.09168437868631379</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06538905646837072</v>
+        <v>0.09043050090010694</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02544373666259665</v>
+        <v>0.02631297986830759</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01928114738788491</v>
+        <v>0.07204800648755023</v>
       </c>
       <c r="V44" t="n">
-        <v>0.004189748289497588</v>
+        <v>0.008187088369362008</v>
       </c>
       <c r="W44" t="n">
-        <v>0.06750781768470751</v>
+        <v>0.06763362032901432</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04359942356025322</v>
+        <v>0.06822537096349646</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0255462171805479</v>
+        <v>0.04861742626630922</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.09540844666959436</v>
+        <v>0.06779839977948215</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0793098951075147</v>
+        <v>0.01780991663454817</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.003019023023979704</v>
+        <v>0.04932525740767375</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.004225429036736303</v>
+        <v>-0.01154866942518077</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1669621899107733</v>
+        <v>0.1721409140467836</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05201644258270859</v>
+        <v>0.01682805301859376</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01461209331196194</v>
+        <v>0.04498547102140219</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02346727224360545</v>
+        <v>0.002605305279447067</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07466745766405183</v>
+        <v>0.1001704517658381</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01568760479377814</v>
+        <v>0.02644940329395268</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05689637899891789</v>
+        <v>0.0895238370875529</v>
       </c>
       <c r="L45" t="n">
-        <v>0.07575135731021047</v>
+        <v>0.0548624427387942</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02392838152932593</v>
+        <v>0.02197254055233546</v>
       </c>
       <c r="N45" t="n">
-        <v>0.005294330742755449</v>
+        <v>0.02906100117067612</v>
       </c>
       <c r="O45" t="n">
-        <v>0.08044028011784186</v>
+        <v>0.09891150485350698</v>
       </c>
       <c r="P45" t="n">
-        <v>0.05673178207367654</v>
+        <v>0.07984539392263518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01013061342509967</v>
+        <v>0.03299823209869728</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01725016761165983</v>
+        <v>0.0199307663315253</v>
       </c>
       <c r="S45" t="n">
-        <v>0.06413713698867131</v>
+        <v>0.04593013081559334</v>
       </c>
       <c r="T45" t="n">
-        <v>0.005741334013488305</v>
+        <v>0.001774494050007347</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08144612390253575</v>
+        <v>0.09138212942224053</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07727564897372845</v>
+        <v>0.03658566909180725</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07836048414114197</v>
+        <v>0.05259868224027672</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01373603019026075</v>
+        <v>0.08498913722123547</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01335017585125869</v>
+        <v>0.007236000835182583</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.03172696551450846</v>
+        <v>0.008606958065003195</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.07493389867123733</v>
+        <v>0.04366975518899085</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.05241803934757526</v>
+        <v>0.009082639934705421</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.001142573481500866</v>
+        <v>0.009738881891338013</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1361300456080863</v>
+        <v>0.1351148742124851</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03144285829847446</v>
+        <v>0.03037031422519679</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0281998571299805</v>
+        <v>0.04772312337959385</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01487693769544662</v>
+        <v>0.0005429346594735994</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07490569808167298</v>
+        <v>0.005949696523118323</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005351406588617405</v>
+        <v>0.002504108106983511</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03676768350299059</v>
+        <v>0.005292852435866822</v>
       </c>
       <c r="L46" t="n">
-        <v>0.001310819468993562</v>
+        <v>0.02167552533163558</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06464758439841847</v>
+        <v>0.08244130738588994</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04049287614555816</v>
+        <v>0.02079720420125492</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02697091522000054</v>
+        <v>0.01506167371987768</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07832312550283632</v>
+        <v>0.007339238228906962</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03236082395678348</v>
+        <v>0.09066862807310846</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09782903040033139</v>
+        <v>0.07133876175783589</v>
       </c>
       <c r="S46" t="n">
-        <v>0.07359476569867936</v>
+        <v>0.09046920688347485</v>
       </c>
       <c r="T46" t="n">
-        <v>0.00162837611163967</v>
+        <v>0.008581882613217275</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09478699666888014</v>
+        <v>0.04037590046966959</v>
       </c>
       <c r="V46" t="n">
-        <v>0.02483433430840367</v>
+        <v>0.0166251042108606</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05040075132369749</v>
+        <v>0.07679420940257467</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03835987081218524</v>
+        <v>0.09509855360093585</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02813345676821213</v>
+        <v>0.08314888516377998</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.08898626294132847</v>
+        <v>0.08036904567323101</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.065632122278671</v>
+        <v>0.03327129711173787</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0001634466981984199</v>
+        <v>0.07356054684177582</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.007570830599660347</v>
+        <v>0.01332111482796823</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1697344390529968</v>
+        <v>0.1587557087522532</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01194530345421807</v>
+        <v>0.0747548917098944</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01495110458100591</v>
+        <v>0.05987308539071266</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0159254389844294</v>
+        <v>0.007553782252896243</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05718368999517716</v>
+        <v>0.03534261475230682</v>
       </c>
       <c r="J47" t="n">
-        <v>0.02726937351054613</v>
+        <v>0.01793703409262041</v>
       </c>
       <c r="K47" t="n">
-        <v>0.09562241735678058</v>
+        <v>0.09205011672508681</v>
       </c>
       <c r="L47" t="n">
-        <v>0.09207602787401246</v>
+        <v>0.06741121716907422</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01834412507714245</v>
+        <v>0.009366914508984846</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05482502007309736</v>
+        <v>0.05803369970390979</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07886165495510193</v>
+        <v>0.09339644072521229</v>
       </c>
       <c r="P47" t="n">
-        <v>0.06087271616907498</v>
+        <v>0.08800242231023943</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0002651854647148306</v>
+        <v>0.02730050318650844</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02080113917552304</v>
+        <v>0.001978291845675413</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04310726207531051</v>
+        <v>0.09315263816453732</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06885033933648288</v>
+        <v>0.08206913389148965</v>
       </c>
       <c r="U47" t="n">
-        <v>0.06819523485894602</v>
+        <v>0.06134712823446934</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0789284555050824</v>
+        <v>0.005031672790352273</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0818579815930968</v>
+        <v>0.04806741215487152</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02248835310164682</v>
+        <v>0.0005219295289736302</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.002356555481759349</v>
+        <v>0.01567963250595032</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03069223787255707</v>
+        <v>0.0376785371552063</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.005938826845853707</v>
+        <v>0.02302284074470721</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.04864155665844032</v>
+        <v>0.0004280604563211272</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02170929581755342</v>
+        <v>-0.03985422012966428</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1222033146558097</v>
+        <v>0.1217327394986083</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04214173440956953</v>
+        <v>0.05617182068577237</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07019591647755048</v>
+        <v>0.0124319433396512</v>
       </c>
       <c r="H48" t="n">
-        <v>0.06363596237016636</v>
+        <v>0.008602327751916345</v>
       </c>
       <c r="I48" t="n">
-        <v>0.005004406266509634</v>
+        <v>0.01855532670950786</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02978387082674072</v>
+        <v>0.01310120320326362</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01822678167945463</v>
+        <v>0.01357485787800389</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02324217496059636</v>
+        <v>0.04646258102404746</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05824389549553704</v>
+        <v>0.1026882550660689</v>
       </c>
       <c r="N48" t="n">
-        <v>0.006912223483018127</v>
+        <v>0.01582398689465711</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0129636415297394</v>
+        <v>0.0001085728874859274</v>
       </c>
       <c r="P48" t="n">
-        <v>0.07344884173163345</v>
+        <v>0.04333111565504831</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.06324276813110834</v>
+        <v>0.009622168450687824</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0667063576666638</v>
+        <v>0.1175467379770821</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05290611723904045</v>
+        <v>0.08494830162049702</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0005500444330247278</v>
+        <v>0.01684736290715554</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08301529733417204</v>
+        <v>0.113518737251999</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02729178508172853</v>
+        <v>0.06943627639817425</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0648487256115389</v>
+        <v>0.08094413791098777</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07016868241371223</v>
+        <v>0.04571158446977736</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07236862922421151</v>
+        <v>0.04777316650740442</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.07541003167693304</v>
+        <v>0.04137367709646953</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01172759869908601</v>
+        <v>0.02566421999116893</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.007964513258264708</v>
+        <v>0.01576163832317354</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.04951042073931265</v>
+        <v>0.0732223042245497</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.137941415964774</v>
+        <v>0.137654481763898</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05395913103619775</v>
+        <v>0.06634873768344612</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07371732900663582</v>
+        <v>0.05211572536955701</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02705204574752265</v>
+        <v>0.03472620678905201</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08959194331925632</v>
+        <v>0.08840545154388826</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01633226773540047</v>
+        <v>0.0006553364739388995</v>
       </c>
       <c r="K49" t="n">
-        <v>0.09627304145144897</v>
+        <v>0.08909450434414615</v>
       </c>
       <c r="L49" t="n">
-        <v>0.09213624269763918</v>
+        <v>0.04746120185617238</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01948677794529943</v>
+        <v>0.0673932691203481</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01439384199213257</v>
+        <v>0.01066022702157449</v>
       </c>
       <c r="O49" t="n">
-        <v>0.09700172008852656</v>
+        <v>0.09653829632255034</v>
       </c>
       <c r="P49" t="n">
-        <v>0.008671723332366198</v>
+        <v>0.09839759049242255</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01294690642869651</v>
+        <v>0.004637640666821364</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06330432971423845</v>
+        <v>0.02117641199562156</v>
       </c>
       <c r="S49" t="n">
-        <v>0.08402152434262868</v>
+        <v>0.09116281566175846</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03665886024041912</v>
+        <v>0.0003193356620623269</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01822521650413535</v>
+        <v>0.01116678422129524</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0139684569039001</v>
+        <v>0.09160148771760417</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03657235802069613</v>
+        <v>0.01862393478216506</v>
       </c>
       <c r="X49" t="n">
-        <v>0.05847528827439682</v>
+        <v>0.004373433053887796</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.02084912280252833</v>
+        <v>0.03666287100793513</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.01296178675687955</v>
+        <v>0.01780311312496029</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01341455535068426</v>
+        <v>0.0373295859816497</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03998553030837088</v>
+        <v>0.01334603910714247</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07308149737294023</v>
+        <v>0.06192338551369429</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1338350591595199</v>
+        <v>0.1341425663283888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08449095311919133</v>
+        <v>0.06884007011895844</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04140173664979514</v>
+        <v>0.01822540139580165</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08683289937392574</v>
+        <v>0.01255066869453188</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01047730904705764</v>
+        <v>0.02258349370581585</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03627256779653676</v>
+        <v>0.008454961331160188</v>
       </c>
       <c r="K50" t="n">
-        <v>0.00455289960100522</v>
+        <v>0.03306931801464755</v>
       </c>
       <c r="L50" t="n">
-        <v>0.002942944439753759</v>
+        <v>0.02541199286620232</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06624197791070192</v>
+        <v>0.03308103614535959</v>
       </c>
       <c r="N50" t="n">
-        <v>0.00119341680631852</v>
+        <v>0.01451577410627543</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02671121369190621</v>
+        <v>0.01994239125830331</v>
       </c>
       <c r="P50" t="n">
-        <v>0.08728647831245308</v>
+        <v>0.03590634620368035</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01128785492350663</v>
+        <v>0.07457192341123121</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06182292099509884</v>
+        <v>0.02706490233119996</v>
       </c>
       <c r="S50" t="n">
-        <v>0.04451627719920756</v>
+        <v>0.1004249568330114</v>
       </c>
       <c r="T50" t="n">
-        <v>0.008247736928338401</v>
+        <v>0.00520087691218843</v>
       </c>
       <c r="U50" t="n">
-        <v>0.06521857006107561</v>
+        <v>0.102749534894171</v>
       </c>
       <c r="V50" t="n">
-        <v>0.03760186272250707</v>
+        <v>0.02758008261828547</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06947179366246428</v>
+        <v>0.09345921308550884</v>
       </c>
       <c r="X50" t="n">
-        <v>0.05133611154258528</v>
+        <v>0.04028237206225522</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.06414774900261558</v>
+        <v>0.03510077356373332</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08312784102341617</v>
+        <v>0.08760213617982625</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.01186887051535744</v>
+        <v>0.08415489672988845</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.04294801467518206</v>
+        <v>0.02922687753796369</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1699639866851714</v>
+        <v>0.1523186800358433</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1424531584611403</v>
+        <v>0.1452268521151309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03012990836492575</v>
+        <v>0.02155517529528786</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01365032708370963</v>
+        <v>0.05648544202802273</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09144889770640403</v>
+        <v>0.001248009913835997</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01806769608236888</v>
+        <v>0.06989999852321854</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05976298150163283</v>
+        <v>0.006401013424695374</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01692962984354525</v>
+        <v>0.09162373146961235</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01727995488389188</v>
+        <v>0.06334378409885012</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01198678474084821</v>
+        <v>0.04185670586714839</v>
       </c>
       <c r="N51" t="n">
-        <v>0.02779332943721926</v>
+        <v>0.02155845013596684</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01674583983511529</v>
+        <v>0.01910657205320132</v>
       </c>
       <c r="P51" t="n">
-        <v>0.009173022890463005</v>
+        <v>0.0560113806604783</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.000513536519808836</v>
+        <v>0.05380834896971214</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1279452400930065</v>
+        <v>0.08654067263662767</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1274230107356856</v>
+        <v>0.09366477900317974</v>
       </c>
       <c r="T51" t="n">
-        <v>0.02249086569313025</v>
+        <v>0.08750129635685223</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1103456520566792</v>
+        <v>0.01735646100082358</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02798391803764482</v>
+        <v>0.04792202678012082</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01261403896526896</v>
+        <v>0.0559245240873456</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01210780399282406</v>
+        <v>0.02991184267727784</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1285205378425726</v>
+        <v>0.003921842818698401</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03847883819197503</v>
+        <v>0.01459709448962555</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05444609316358396</v>
+        <v>0.05886987219296525</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.02416209233769629</v>
+        <v>0.0008909755164533407</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1456389746321311</v>
+        <v>0.1662078747793498</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1467969405888555</v>
+        <v>0.1451706695917332</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04427802116996082</v>
+        <v>0.06868195692760477</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03242975440796718</v>
+        <v>0.09109805863595612</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03666239861111003</v>
+        <v>0.002565606926534024</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03255820393006339</v>
+        <v>0.002164015977361642</v>
       </c>
       <c r="J52" t="n">
-        <v>0.001339581708761745</v>
+        <v>0.003459002456180109</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0002634121452093127</v>
+        <v>0.004877664300286886</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04050324808904222</v>
+        <v>0.01979764432933822</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05785578421709631</v>
+        <v>0.08551525946427002</v>
       </c>
       <c r="N52" t="n">
-        <v>0.03178008728469693</v>
+        <v>0.08449238333411298</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05838656708163763</v>
+        <v>0.06020057983767816</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02014114207856989</v>
+        <v>0.01499573296658861</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05341305331970751</v>
+        <v>0.03534275030647771</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06478407928398722</v>
+        <v>0.09642575004886571</v>
       </c>
       <c r="S52" t="n">
-        <v>0.08475617787478615</v>
+        <v>0.06429247708993276</v>
       </c>
       <c r="T52" t="n">
-        <v>0.03149813297093231</v>
+        <v>0.06210889693430228</v>
       </c>
       <c r="U52" t="n">
-        <v>0.02188971820712966</v>
+        <v>0.03420080073798926</v>
       </c>
       <c r="V52" t="n">
-        <v>0.004250808506738118</v>
+        <v>0.02135279563840051</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06764794118776793</v>
+        <v>0.01485659132671209</v>
       </c>
       <c r="X52" t="n">
-        <v>0.05255983731555672</v>
+        <v>0.01495642739627436</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06527634480995514</v>
+        <v>0.09226010139695737</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.05033869705607567</v>
+        <v>0.02314811382658896</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07902894095114804</v>
+        <v>0.01497967129081411</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.06835806779209991</v>
+        <v>0.08822771885077348</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1664366200929072</v>
+        <v>-0.1695033119434113</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1546747106647919</v>
+        <v>0.1496473329184187</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0004129820583987533</v>
+        <v>0.01940912252389028</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1038005272917465</v>
+        <v>0.0540838474872735</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03298925544074902</v>
+        <v>0.002174988480864633</v>
       </c>
       <c r="I53" t="n">
-        <v>0.08829969956387246</v>
+        <v>0.002916203417434402</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02712594787747274</v>
+        <v>0.02388239158268708</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1060057116269459</v>
+        <v>0.03689682721366723</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0166830300775204</v>
+        <v>0.03624607886240371</v>
       </c>
       <c r="M53" t="n">
-        <v>0.09663214643670902</v>
+        <v>0.116925315860286</v>
       </c>
       <c r="N53" t="n">
-        <v>0.003254688708451053</v>
+        <v>0.007357916574910899</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0532776033234436</v>
+        <v>0.03520883627798345</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0154545640416514</v>
+        <v>0.02121173263463585</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.08150335809584852</v>
+        <v>0.08617905074042853</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07247094287779483</v>
+        <v>0.113952142559254</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0805057132567699</v>
+        <v>0.1201744600014142</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01817982579020083</v>
+        <v>0.03402167871633684</v>
       </c>
       <c r="U53" t="n">
-        <v>0.05855705604032495</v>
+        <v>0.00883999934421297</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01557819104422543</v>
+        <v>0.07777375300154207</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0233881314697309</v>
+        <v>0.01321333730630565</v>
       </c>
       <c r="X53" t="n">
-        <v>0.002002207845844985</v>
+        <v>0.01276948770411135</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.003330923741148602</v>
+        <v>0.08621518864471117</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.07858020226597576</v>
+        <v>0.02454547450408355</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01443004371815625</v>
+        <v>0.0114793203183738</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.007537247407018283</v>
+        <v>0.05452284624318874</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1287061054412911</v>
+        <v>-0.1590418214801917</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1615505615907837</v>
+        <v>0.1622663589420746</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09547514480794468</v>
+        <v>0.1051804290324545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08100014682190194</v>
+        <v>0.07377897982404073</v>
       </c>
       <c r="H54" t="n">
-        <v>0.008492290776386148</v>
+        <v>0.06063575359542046</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01380162676778415</v>
+        <v>0.04044853079423079</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0001085804475517812</v>
+        <v>0.008098338904874313</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03814222348096896</v>
+        <v>0.03003471351029505</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04279021112493918</v>
+        <v>0.004009250600535745</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02659339130563809</v>
+        <v>0.08444718427742309</v>
       </c>
       <c r="N54" t="n">
-        <v>0.09215635171625559</v>
+        <v>0.01722291953992343</v>
       </c>
       <c r="O54" t="n">
-        <v>0.00964208507731896</v>
+        <v>0.02398125625221099</v>
       </c>
       <c r="P54" t="n">
-        <v>0.05074391560008706</v>
+        <v>0.04699957741185649</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.006819558938142076</v>
+        <v>0.02281422757887346</v>
       </c>
       <c r="R54" t="n">
-        <v>0.02739621809373816</v>
+        <v>0.008010910320601481</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08226028297021555</v>
+        <v>0.04062691196917424</v>
       </c>
       <c r="T54" t="n">
-        <v>0.005558295449544254</v>
+        <v>0.01511818979500113</v>
       </c>
       <c r="U54" t="n">
-        <v>0.04146433352090709</v>
+        <v>0.07265170183427105</v>
       </c>
       <c r="V54" t="n">
-        <v>0.09334986584558574</v>
+        <v>0.03617697929063543</v>
       </c>
       <c r="W54" t="n">
-        <v>0.08871862283870981</v>
+        <v>0.05964169456506218</v>
       </c>
       <c r="X54" t="n">
-        <v>0.09501087805474219</v>
+        <v>0.08451760294749509</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.01565179935462017</v>
+        <v>0.001121392036346678</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.07761534428795154</v>
+        <v>0.09045400827234387</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.001104024287874723</v>
+        <v>0.04835074751131765</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.006104808431192</v>
+        <v>0.02567870013561229</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1324501758550223</v>
+        <v>0.1195044352546354</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1657839820626016</v>
+        <v>0.1647744044061214</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03144571249613885</v>
+        <v>0.02195625410714057</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08790406799076987</v>
+        <v>0.09174780618368794</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03906597477351417</v>
+        <v>0.006408268946991492</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08410904303833935</v>
+        <v>0.003193390979253751</v>
       </c>
       <c r="J55" t="n">
-        <v>0.08163880973211887</v>
+        <v>0.0005337037890372996</v>
       </c>
       <c r="K55" t="n">
-        <v>0.003943654288964025</v>
+        <v>0.01340139974793971</v>
       </c>
       <c r="L55" t="n">
-        <v>0.002242958882258714</v>
+        <v>0.05063102788086687</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07392459634081884</v>
+        <v>0.08576205513328257</v>
       </c>
       <c r="N55" t="n">
-        <v>0.004232832742131403</v>
+        <v>0.03703284019607211</v>
       </c>
       <c r="O55" t="n">
-        <v>0.007880493824414404</v>
+        <v>0.03642644582465528</v>
       </c>
       <c r="P55" t="n">
-        <v>0.05797221086228561</v>
+        <v>0.09174901683149882</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.008083568476203996</v>
+        <v>0.01223309813301245</v>
       </c>
       <c r="R55" t="n">
-        <v>0.006764228819634367</v>
+        <v>0.08731265060791572</v>
       </c>
       <c r="S55" t="n">
-        <v>0.08515970596437553</v>
+        <v>0.08808929892058333</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03755320486873976</v>
+        <v>0.09435861158365817</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08864865500593855</v>
+        <v>0.06280175028930696</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0812856460045563</v>
+        <v>0.01139593329835101</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07753392019372563</v>
+        <v>0.07591136918715356</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0631788578965876</v>
+        <v>0.05620631859616099</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.002615121038311057</v>
+        <v>0.0007717813269704336</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0483689861562366</v>
+        <v>0.05595876316319429</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01712151671976164</v>
+        <v>0.002037321473515145</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.009326233884174862</v>
+        <v>0.01408089379975175</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1250001293916364</v>
+        <v>0.1078362300526788</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1780379803140975</v>
+        <v>0.1776214732593781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03387876471064045</v>
+        <v>0.01357037395159062</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04232237445032589</v>
+        <v>0.06423903827245887</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03140146408255636</v>
+        <v>0.04790599576351552</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03061033699209843</v>
+        <v>0.02825436867694913</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06161878818909262</v>
+        <v>0.05498866945531712</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02150487829637543</v>
+        <v>0.02070254841668257</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001430662602123034</v>
+        <v>0.007470916476119289</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05786988843729189</v>
+        <v>0.02289067811070734</v>
       </c>
       <c r="N56" t="n">
-        <v>0.04306946923939953</v>
+        <v>0.02578426741995437</v>
       </c>
       <c r="O56" t="n">
-        <v>0.04633487798404672</v>
+        <v>0.07758823504290539</v>
       </c>
       <c r="P56" t="n">
-        <v>0.06652998110859441</v>
+        <v>0.02221263208732115</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.004990044706646611</v>
+        <v>0.02579647834983067</v>
       </c>
       <c r="R56" t="n">
-        <v>0.04778740411651002</v>
+        <v>0.04648276211924648</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02973224197796867</v>
+        <v>0.08792920308783052</v>
       </c>
       <c r="T56" t="n">
-        <v>0.09477316951609137</v>
+        <v>0.08285789573897256</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08226137061701182</v>
+        <v>0.07486787205055125</v>
       </c>
       <c r="V56" t="n">
-        <v>0.007828430696958349</v>
+        <v>0.01305426678922515</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05012744232692858</v>
+        <v>0.03812409661840176</v>
       </c>
       <c r="X56" t="n">
-        <v>0.09207246029640295</v>
+        <v>0.06870290535777697</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.02114318587097858</v>
+        <v>0.007948680416769664</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.09378718343639553</v>
+        <v>0.07315325914221542</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01991002942430791</v>
+        <v>0.07576219418500071</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01901555092125471</v>
+        <v>0.01971266247065747</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.02769906760815561</v>
+        <v>-0.01650360495763801</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1895722231938626</v>
+        <v>0.1891177652007042</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08334403448620227</v>
+        <v>0.08432235215228953</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09728810675845104</v>
+        <v>0.06673184461253673</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03225377910100514</v>
+        <v>0.03895829043393102</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09715846594017885</v>
+        <v>0.0170252239987514</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02486283542348626</v>
+        <v>0.05554737285644267</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05291952521095301</v>
+        <v>0.01048969353414365</v>
       </c>
       <c r="L57" t="n">
-        <v>0.001285124962985654</v>
+        <v>0.06883363859635863</v>
       </c>
       <c r="M57" t="n">
-        <v>0.002490094322493723</v>
+        <v>0.01112381309357443</v>
       </c>
       <c r="N57" t="n">
-        <v>0.06389290448361087</v>
+        <v>0.02290156366207712</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0181034022343303</v>
+        <v>0.04125080087025099</v>
       </c>
       <c r="P57" t="n">
-        <v>0.09353568528346204</v>
+        <v>0.08250528270133013</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02043632545178574</v>
+        <v>0.002205435837602742</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03695093959931484</v>
+        <v>0.05268590629346549</v>
       </c>
       <c r="S57" t="n">
-        <v>0.08341710804133226</v>
+        <v>0.0696831940849737</v>
       </c>
       <c r="T57" t="n">
-        <v>0.09449589823032596</v>
+        <v>0.07667047583090594</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01817070300330716</v>
+        <v>0.06280209477373147</v>
       </c>
       <c r="V57" t="n">
-        <v>0.04011850295741888</v>
+        <v>0.08201106693126771</v>
       </c>
       <c r="W57" t="n">
-        <v>0.06486986309599235</v>
+        <v>0.07872033050344794</v>
       </c>
       <c r="X57" t="n">
-        <v>0.01309554882592818</v>
+        <v>0.01285633690621527</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.002354312411892486</v>
+        <v>0.0009308468299524536</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.04056479069428053</v>
+        <v>0.03190209191509799</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.007744114818162164</v>
+        <v>0.01781095509844509</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01064793466310033</v>
+        <v>0.01203138848320799</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.02168662540772742</v>
+        <v>-0.01693888215723816</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.188395690479084</v>
+        <v>0.18684374764793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08070863469496074</v>
+        <v>0.07055448658298713</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01469135490530052</v>
+        <v>0.08391672941358266</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02737926269735321</v>
+        <v>0.06662755803134998</v>
       </c>
       <c r="I58" t="n">
-        <v>0.007066758587151842</v>
+        <v>0.004145473614939895</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07284447474845651</v>
+        <v>0.009027683766179012</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02197386590126234</v>
+        <v>0.0395546558863497</v>
       </c>
       <c r="L58" t="n">
-        <v>0.003827703446104625</v>
+        <v>0.04090095728812231</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08581466256018341</v>
+        <v>0.07349803086933275</v>
       </c>
       <c r="N58" t="n">
-        <v>0.009389987749799959</v>
+        <v>0.01524029791040129</v>
       </c>
       <c r="O58" t="n">
-        <v>0.005752271483124422</v>
+        <v>0.09026944120908377</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0341611652974921</v>
+        <v>0.01095806386254138</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.108798160538512e-05</v>
+        <v>0.002981186672025604</v>
       </c>
       <c r="R58" t="n">
-        <v>0.08262818083539505</v>
+        <v>0.06499227398552045</v>
       </c>
       <c r="S58" t="n">
-        <v>0.0724410251439353</v>
+        <v>0.06298412638211387</v>
       </c>
       <c r="T58" t="n">
-        <v>0.05591250467894145</v>
+        <v>0.05646080491009375</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08482759173367235</v>
+        <v>0.08718901073037516</v>
       </c>
       <c r="V58" t="n">
-        <v>0.03707634310165174</v>
+        <v>0.00925120052924625</v>
       </c>
       <c r="W58" t="n">
-        <v>0.04440589344432364</v>
+        <v>0.04331353319174926</v>
       </c>
       <c r="X58" t="n">
-        <v>0.07212214143477864</v>
+        <v>0.04386156191834883</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.03459460666678971</v>
+        <v>0.026923045392314</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.06212616199961401</v>
+        <v>0.05906631551399823</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.06875868564675079</v>
+        <v>0.03578836967016701</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.02147563526135234</v>
+        <v>0.002495192669177768</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.06698151312512451</v>
+        <v>0.05696028736865899</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1929506803571392</v>
+        <v>0.193322715059665</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0940689491945156</v>
+        <v>0.07725489506412324</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003013847499291336</v>
+        <v>0.0192049586045813</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03990967181083185</v>
+        <v>0.05050721333034778</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05142583796050028</v>
+        <v>0.03928986368829964</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0272106866032857</v>
+        <v>0.01452446551090411</v>
       </c>
       <c r="K59" t="n">
-        <v>0.006818691804327207</v>
+        <v>0.03940992683662462</v>
       </c>
       <c r="L59" t="n">
-        <v>0.06649112737352329</v>
+        <v>0.007399536938353994</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06973709182024936</v>
+        <v>0.08980417426589733</v>
       </c>
       <c r="N59" t="n">
-        <v>0.002266261398537262</v>
+        <v>0.001351272807807095</v>
       </c>
       <c r="O59" t="n">
-        <v>0.004033509328371331</v>
+        <v>0.08024260109990566</v>
       </c>
       <c r="P59" t="n">
-        <v>0.08499030543898888</v>
+        <v>0.0295295582239255</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02121016925874705</v>
+        <v>0.00476461951843404</v>
       </c>
       <c r="R59" t="n">
-        <v>0.05069195208085475</v>
+        <v>0.03084450850461234</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09175425800673707</v>
+        <v>0.09305103181561111</v>
       </c>
       <c r="T59" t="n">
-        <v>0.003508939885477265</v>
+        <v>0.0809094458632573</v>
       </c>
       <c r="U59" t="n">
-        <v>0.04490968462520826</v>
+        <v>0.0381249948595437</v>
       </c>
       <c r="V59" t="n">
-        <v>0.06167849323684461</v>
+        <v>0.09210903522544162</v>
       </c>
       <c r="W59" t="n">
-        <v>0.05904113906194575</v>
+        <v>0.06057254580987762</v>
       </c>
       <c r="X59" t="n">
-        <v>0.05423976819560709</v>
+        <v>0.0261598209511736</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.004739532506695126</v>
+        <v>0.001758261287346968</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.07395754021488117</v>
+        <v>0.08403634265202758</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.08001309468518941</v>
+        <v>0.01960234569185594</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.004289448009390361</v>
+        <v>0.01954858145004798</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.06585844772891644</v>
+        <v>0.07296475805731102</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2013906832386133</v>
+        <v>0.2022894094537458</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07780249246690361</v>
+        <v>0.0531589659081478</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0700047149439046</v>
+        <v>0.01758695240405551</v>
       </c>
       <c r="H60" t="n">
-        <v>0.006801364201604892</v>
+        <v>0.04562122889047293</v>
       </c>
       <c r="I60" t="n">
-        <v>0.058556441113787</v>
+        <v>0.04575465267897191</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005334711368164804</v>
+        <v>0.002264537031024519</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01269964395604257</v>
+        <v>0.1074709568245629</v>
       </c>
       <c r="L60" t="n">
-        <v>0.03581089056149519</v>
+        <v>0.02248857142853403</v>
       </c>
       <c r="M60" t="n">
-        <v>0.05449699365017489</v>
+        <v>0.06144069355551628</v>
       </c>
       <c r="N60" t="n">
-        <v>0.001935325539214876</v>
+        <v>0.01361265367515747</v>
       </c>
       <c r="O60" t="n">
-        <v>0.02921486599642689</v>
+        <v>0.02905902445982101</v>
       </c>
       <c r="P60" t="n">
-        <v>0.08965655352249451</v>
+        <v>0.03311093777961217</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.001844177288013488</v>
+        <v>0.06535523331454725</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03448923552524222</v>
+        <v>0.05483266261246954</v>
       </c>
       <c r="S60" t="n">
-        <v>0.09060013034571598</v>
+        <v>0.004620976928283766</v>
       </c>
       <c r="T60" t="n">
-        <v>0.01661462057147188</v>
+        <v>0.06583641439333331</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08979837044210168</v>
+        <v>0.08392566050948935</v>
       </c>
       <c r="V60" t="n">
-        <v>0.005180828446550208</v>
+        <v>0.007283641525664853</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05878768290840899</v>
+        <v>0.05065532982970183</v>
       </c>
       <c r="X60" t="n">
-        <v>0.05824924142922931</v>
+        <v>0.0947015023083701</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.05752532897724479</v>
+        <v>0.005987848476422687</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.07859210140076282</v>
+        <v>0.1090660542517356</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.06055484170290239</v>
+        <v>0.01781369499060753</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.005449443642142663</v>
+        <v>0.008351806223497543</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.05890242968896087</v>
+        <v>0.04719781368694941</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2147943595873489</v>
+        <v>0.2134762191077925</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1003590471969742</v>
+        <v>0.07950944906193609</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01729204178486628</v>
+        <v>0.001059490363004125</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03898487998914733</v>
+        <v>0.05081092320542022</v>
       </c>
       <c r="I61" t="n">
-        <v>0.006297349777058602</v>
+        <v>0.00569275551960127</v>
       </c>
       <c r="J61" t="n">
-        <v>0.000339007346793211</v>
+        <v>0.02446187491049677</v>
       </c>
       <c r="K61" t="n">
-        <v>0.05179530764833063</v>
+        <v>0.08217148801244999</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01639380742971345</v>
+        <v>0.06902824872552192</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01928728573431146</v>
+        <v>0.04995737678939702</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0333120091399295</v>
+        <v>0.03596396892825764</v>
       </c>
       <c r="O61" t="n">
-        <v>0.06179924580383272</v>
+        <v>0.01507006235398691</v>
       </c>
       <c r="P61" t="n">
-        <v>0.03380868425994606</v>
+        <v>0.02932613890160072</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.05129751704144066</v>
+        <v>0.01160274706093832</v>
       </c>
       <c r="R61" t="n">
-        <v>0.01410182474949735</v>
+        <v>0.04386081074944968</v>
       </c>
       <c r="S61" t="n">
-        <v>0.08933789075219416</v>
+        <v>0.08084125910787461</v>
       </c>
       <c r="T61" t="n">
-        <v>0.03222288456081157</v>
+        <v>0.09019236896811457</v>
       </c>
       <c r="U61" t="n">
-        <v>0.01400179373104919</v>
+        <v>0.09621095657468268</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1063738426610115</v>
+        <v>0.08618277404811266</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1133810840270462</v>
+        <v>0.02975610172862557</v>
       </c>
       <c r="X61" t="n">
-        <v>0.03739520567695752</v>
+        <v>0.0002103506614088461</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.00791151245999047</v>
+        <v>0.002007621317395171</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.0912944922169034</v>
+        <v>0.07583391313880521</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.05188004775514291</v>
+        <v>0.03629491128873912</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.01113323825705151</v>
+        <v>0.003954408584180946</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.07271139302061902</v>
+        <v>0.07077194594613298</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1959367089254349</v>
+        <v>0.1940053728311143</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07955066971359857</v>
+        <v>0.1168078937447311</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0234879565122339</v>
+        <v>0.02109627543246803</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02517538101748158</v>
+        <v>0.02746371628655737</v>
       </c>
       <c r="I62" t="n">
-        <v>0.07522608523918282</v>
+        <v>0.01636168736125141</v>
       </c>
       <c r="J62" t="n">
-        <v>0.02705312668506986</v>
+        <v>0.000783415557164236</v>
       </c>
       <c r="K62" t="n">
-        <v>0.08330354928087728</v>
+        <v>0.04347716746013499</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01358760056255458</v>
+        <v>0.07102560288364657</v>
       </c>
       <c r="M62" t="n">
-        <v>0.02596345664577302</v>
+        <v>0.05627963339733746</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0006808669122367907</v>
+        <v>0.005216782737594075</v>
       </c>
       <c r="O62" t="n">
-        <v>0.09442823599328207</v>
+        <v>0.07009040801778642</v>
       </c>
       <c r="P62" t="n">
-        <v>0.001136687241198349</v>
+        <v>0.001269685366265726</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.004322317560694957</v>
+        <v>0.02115104451951171</v>
       </c>
       <c r="R62" t="n">
-        <v>0.08001295822362674</v>
+        <v>0.03081137388138318</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01025515433808685</v>
+        <v>0.007876922708975597</v>
       </c>
       <c r="T62" t="n">
-        <v>0.04254012847941015</v>
+        <v>0.03546960266092774</v>
       </c>
       <c r="U62" t="n">
-        <v>0.1062002114608667</v>
+        <v>0.1166419350169515</v>
       </c>
       <c r="V62" t="n">
-        <v>0.05425856296448311</v>
+        <v>0.0410754308125696</v>
       </c>
       <c r="W62" t="n">
-        <v>0.03518762687278045</v>
+        <v>0.02623444356219851</v>
       </c>
       <c r="X62" t="n">
-        <v>0.05308002325734755</v>
+        <v>0.1116639540302039</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.01486638516176092</v>
+        <v>0.0374809738999843</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.075592975825896</v>
+        <v>0.03719697186618057</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.06976228361852997</v>
+        <v>0.06993297325963142</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.004327756433027742</v>
+        <v>0.0345921055365445</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.07626640707222895</v>
+        <v>0.07611680605606318</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2030473993038755</v>
+        <v>0.2012818409788651</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1137616272730713</v>
+        <v>0.09354197401016841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01082579261855169</v>
+        <v>0.00141687272404603</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0003819406671467359</v>
+        <v>0.07367545253924239</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04981703634188205</v>
+        <v>0.01917912040254545</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01309786626837122</v>
+        <v>0.007601841285328342</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005664447712078572</v>
+        <v>0.01907742957530357</v>
       </c>
       <c r="L63" t="n">
-        <v>0.06059471077532939</v>
+        <v>0.05185074843202228</v>
       </c>
       <c r="M63" t="n">
-        <v>0.02836967361437398</v>
+        <v>0.07631838239983466</v>
       </c>
       <c r="N63" t="n">
-        <v>0.004513727418625147</v>
+        <v>0.04117125871344476</v>
       </c>
       <c r="O63" t="n">
-        <v>0.06679739104354379</v>
+        <v>0.06243142116587917</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01975172676185252</v>
+        <v>0.008062418919029764</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.04762951474111648</v>
+        <v>0.005402922423586393</v>
       </c>
       <c r="R63" t="n">
-        <v>0.003820187687469961</v>
+        <v>0.06562996305535529</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1138908486559282</v>
+        <v>0.08675520014391626</v>
       </c>
       <c r="T63" t="n">
-        <v>0.09400069974827903</v>
+        <v>0.007720899378380096</v>
       </c>
       <c r="U63" t="n">
-        <v>0.03697510046193366</v>
+        <v>0.02853207272721699</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0499422902190074</v>
+        <v>0.05434993896317086</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01235756251195039</v>
+        <v>0.07048982835378917</v>
       </c>
       <c r="X63" t="n">
-        <v>0.009168858141761884</v>
+        <v>0.0060699334575916</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0007033516610267431</v>
+        <v>0.02133664317243017</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.1108633461710709</v>
+        <v>0.09256023700834316</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.121234031521473</v>
+        <v>0.08924430582808414</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.02583826798415611</v>
+        <v>0.01758113532129122</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.06804087353861099</v>
+        <v>0.0756659439096507</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1895157808660719</v>
+        <v>0.1904710117252668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.03349634269611124</v>
+        <v>0.01519596470864966</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05013366435313134</v>
+        <v>0.008360110293421793</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07065716875759202</v>
+        <v>0.01149309834449516</v>
       </c>
       <c r="I64" t="n">
-        <v>0.03231361409511702</v>
+        <v>0.0020246849287925</v>
       </c>
       <c r="J64" t="n">
-        <v>0.003375376804444211</v>
+        <v>0.03470299566028922</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002895526375718988</v>
+        <v>0.01588309528647436</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04725317343459642</v>
+        <v>0.09018370865883008</v>
       </c>
       <c r="M64" t="n">
-        <v>0.08087041714703813</v>
+        <v>0.05090470972927586</v>
       </c>
       <c r="N64" t="n">
-        <v>0.001431097297038188</v>
+        <v>0.0178888888975618</v>
       </c>
       <c r="O64" t="n">
-        <v>0.06819519370483194</v>
+        <v>0.07073269558585926</v>
       </c>
       <c r="P64" t="n">
-        <v>0.08618118915989846</v>
+        <v>0.08502244175029372</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.001490268225613379</v>
+        <v>0.01720995241998059</v>
       </c>
       <c r="R64" t="n">
-        <v>0.03918700285184917</v>
+        <v>0.07501049035322076</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01925822974025777</v>
+        <v>0.02548645297471267</v>
       </c>
       <c r="T64" t="n">
-        <v>0.06071493193285785</v>
+        <v>0.09476896575622652</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08775583643061824</v>
+        <v>0.09343646733443815</v>
       </c>
       <c r="V64" t="n">
-        <v>0.0142459929878609</v>
+        <v>0.0004467703692919409</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01346547452141962</v>
+        <v>0.07988436055222457</v>
       </c>
       <c r="X64" t="n">
-        <v>0.07912603368206755</v>
+        <v>0.09388165411839441</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.04462597981699944</v>
+        <v>0.03888526935174574</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.08314983219164429</v>
+        <v>0.06064130323734405</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.05840808782286272</v>
+        <v>0.01517279593128124</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.02176956597043105</v>
+        <v>0.002783123757195916</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.0317303215415714</v>
+        <v>-0.04186531977830304</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2051465474198772</v>
+        <v>0.2113042809633195</v>
       </c>
       <c r="F65" t="n">
-        <v>0.104157290640675</v>
+        <v>0.1034401501867023</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04569736193983789</v>
+        <v>0.09529718321749908</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05104170948009185</v>
+        <v>0.06863506324970657</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02005948742740032</v>
+        <v>0.05179455029804987</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02210344621565057</v>
+        <v>0.01338775433533204</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01811898885146542</v>
+        <v>0.01393033002677912</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03545642853552873</v>
+        <v>0.0001918779465038286</v>
       </c>
       <c r="M65" t="n">
-        <v>0.009230079335736168</v>
+        <v>0.06384137642776148</v>
       </c>
       <c r="N65" t="n">
-        <v>0.006822372950296139</v>
+        <v>0.00501495183897509</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1226760911174769</v>
+        <v>0.1022350796509737</v>
       </c>
       <c r="P65" t="n">
-        <v>0.002787281354384026</v>
+        <v>0.02803045680102203</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.004881800525818799</v>
+        <v>0.05572481310639264</v>
       </c>
       <c r="R65" t="n">
-        <v>0.02832292288900983</v>
+        <v>0.009596696938377291</v>
       </c>
       <c r="S65" t="n">
-        <v>0.01943661844067194</v>
+        <v>0.0176913753152923</v>
       </c>
       <c r="T65" t="n">
-        <v>0.05238233669973424</v>
+        <v>0.04205379069189912</v>
       </c>
       <c r="U65" t="n">
-        <v>0.03287250812858044</v>
+        <v>0.01691348596653841</v>
       </c>
       <c r="V65" t="n">
-        <v>0.02312408111264798</v>
+        <v>0.06086669126578538</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0754177303569999</v>
+        <v>0.005616116535065176</v>
       </c>
       <c r="X65" t="n">
-        <v>0.1178034810356895</v>
+        <v>0.03953945491454213</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1223746463689412</v>
+        <v>0.08647219258395777</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.02355990718640331</v>
+        <v>0.04068710583899803</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.02408511090997658</v>
+        <v>0.03490349889440304</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.0375883184969833</v>
+        <v>0.04413600396944352</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.009559373620914576</v>
+        <v>0.0272336423276875</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1645818178209283</v>
+        <v>0.1649057839995549</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04308895929371794</v>
+        <v>0.07737743768495565</v>
       </c>
       <c r="G66" t="n">
-        <v>0.002150762588847581</v>
+        <v>0.05540158477058083</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03248235997933512</v>
+        <v>0.04746010995923462</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01965524025267725</v>
+        <v>0.03015161311955694</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03228445320241937</v>
+        <v>0.03589500082592212</v>
       </c>
       <c r="K66" t="n">
-        <v>0.05122278440822602</v>
+        <v>0.01839478809497345</v>
       </c>
       <c r="L66" t="n">
-        <v>0.005845784397415876</v>
+        <v>0.02831417415697336</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04683879368783993</v>
+        <v>0.07830027173721439</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02164391685008255</v>
+        <v>0.00556096423575719</v>
       </c>
       <c r="O66" t="n">
-        <v>0.06482273503057712</v>
+        <v>0.0495380385021954</v>
       </c>
       <c r="P66" t="n">
-        <v>0.104835954995536</v>
+        <v>0.07973544855306615</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.0001594647011300303</v>
+        <v>0.01460244777127815</v>
       </c>
       <c r="R66" t="n">
-        <v>0.02050180079467829</v>
+        <v>0.03656829745767541</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1070739937468844</v>
+        <v>0.06662726993569769</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02832552355674001</v>
+        <v>0.04954225197052387</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09485578307146113</v>
+        <v>0.06169557132433942</v>
       </c>
       <c r="V66" t="n">
-        <v>0.005155974557650641</v>
+        <v>0.001888685676811279</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08390617795315808</v>
+        <v>0.06274076862032196</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1136004349131678</v>
+        <v>0.07613966680967046</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.01905606489379864</v>
+        <v>0.01214192474177713</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.03635534813494066</v>
+        <v>0.08042068463519139</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.02912782635071668</v>
+        <v>0.003765953639837355</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.03700986263899876</v>
+        <v>0.02773704577644576</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.02716256529430541</v>
+        <v>0.02878263240873565</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1813771815300074</v>
+        <v>0.1842394058286041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.111980060985087</v>
+        <v>0.1084108713607814</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05939820226101793</v>
+        <v>0.05684172616102055</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0934881922799958</v>
+        <v>0.009595823995450255</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06282488871064555</v>
+        <v>0.02021220787154991</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01642583197717229</v>
+        <v>0.05745404890073871</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01341896700894339</v>
+        <v>0.004692214232266611</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01107881619363481</v>
+        <v>0.01785581574731068</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04515042275975777</v>
+        <v>0.04074024994101547</v>
       </c>
       <c r="N67" t="n">
-        <v>0.004526750084519648</v>
+        <v>0.0170372476114192</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1126240383434834</v>
+        <v>0.06694851884840282</v>
       </c>
       <c r="P67" t="n">
-        <v>0.03139666847023406</v>
+        <v>0.0002773563771424675</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.002774092560048681</v>
+        <v>0.02600635848244156</v>
       </c>
       <c r="R67" t="n">
-        <v>0.005083902281864304</v>
+        <v>0.02009935707634773</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0156575571074716</v>
+        <v>0.0297451949320211</v>
       </c>
       <c r="T67" t="n">
-        <v>0.08649345711324444</v>
+        <v>0.01212360467670986</v>
       </c>
       <c r="U67" t="n">
-        <v>0.02892185647380771</v>
+        <v>0.02963311958776554</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0887787830432363</v>
+        <v>0.07020013603457273</v>
       </c>
       <c r="W67" t="n">
-        <v>0.02702222396212269</v>
+        <v>0.009183995576245286</v>
       </c>
       <c r="X67" t="n">
-        <v>0.02840070770726223</v>
+        <v>0.1129722936910861</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1031082901592568</v>
+        <v>0.09338918573411072</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01637899136334754</v>
+        <v>0.03422112406069858</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.03270212649543577</v>
+        <v>0.08611460583638067</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.00236517265841035</v>
+        <v>0.07624494326452226</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.01961745882999849</v>
+        <v>0.03113408603254171</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1436044807879527</v>
+        <v>0.1441070324374182</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08691354903221604</v>
+        <v>0.08253776300338385</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02349352987905883</v>
+        <v>0.02781351731472211</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01879044034773019</v>
+        <v>0.02132905554728701</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01228433301565747</v>
+        <v>0.09471790866736854</v>
       </c>
       <c r="J68" t="n">
-        <v>0.06091781136793481</v>
+        <v>0.03538490411864777</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0655112073393766</v>
+        <v>0.02118000969659769</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0400883224671913</v>
+        <v>0.0532637549158281</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04052289162552542</v>
+        <v>0.06091487184287579</v>
       </c>
       <c r="N68" t="n">
-        <v>0.002716322503223431</v>
+        <v>0.02463290619377934</v>
       </c>
       <c r="O68" t="n">
-        <v>0.00425931479870108</v>
+        <v>0.02542372831161377</v>
       </c>
       <c r="P68" t="n">
-        <v>0.05887241174427609</v>
+        <v>0.06119771843520014</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.017639035938914</v>
+        <v>0.03847994549636042</v>
       </c>
       <c r="R68" t="n">
-        <v>0.09700500232280246</v>
+        <v>0.05442098408678181</v>
       </c>
       <c r="S68" t="n">
-        <v>0.05849238142010015</v>
+        <v>0.08045482644762376</v>
       </c>
       <c r="T68" t="n">
-        <v>0.02367454017470806</v>
+        <v>0.02715260712706262</v>
       </c>
       <c r="U68" t="n">
-        <v>0.05937858332371934</v>
+        <v>0.08653562741520648</v>
       </c>
       <c r="V68" t="n">
-        <v>0.02666229184313322</v>
+        <v>0.01958308398318296</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07722570264645034</v>
+        <v>0.08149156311791998</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0898873356778935</v>
+        <v>0.001275348521758881</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.00686137594584939</v>
+        <v>0.005395315534145722</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.06120359288619905</v>
+        <v>0.04886799455031475</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.0431850342544412</v>
+        <v>0.04755494975014817</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.02441498944489799</v>
+        <v>0.0003916159221902255</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.003938328107505674</v>
+        <v>-0.01431713002426085</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1679521511705635</v>
+        <v>0.159814468443017</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05453231621081207</v>
+        <v>0.06173878576796418</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07526036661409545</v>
+        <v>0.03226898207088541</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004399882545165871</v>
+        <v>0.06583417227096167</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02312405856981183</v>
+        <v>0.01831786579548161</v>
       </c>
       <c r="J69" t="n">
-        <v>0.00561687017520383</v>
+        <v>0.004489827387892662</v>
       </c>
       <c r="K69" t="n">
-        <v>0.04692031835498198</v>
+        <v>0.05598575910809546</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02217779738750568</v>
+        <v>0.02827146879001664</v>
       </c>
       <c r="M69" t="n">
-        <v>0.09584971523313264</v>
+        <v>0.09969808637309192</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01263909356142249</v>
+        <v>0.004393276485917464</v>
       </c>
       <c r="O69" t="n">
-        <v>0.05106131763412989</v>
+        <v>0.04199729043232073</v>
       </c>
       <c r="P69" t="n">
-        <v>0.04519007671908801</v>
+        <v>0.04807927558612748</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.03670127136109507</v>
+        <v>0.1082127937386154</v>
       </c>
       <c r="R69" t="n">
-        <v>0.03147972855320738</v>
+        <v>0.009726459653572595</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01020583472932087</v>
+        <v>0.05752198535149917</v>
       </c>
       <c r="T69" t="n">
-        <v>0.02376666425021886</v>
+        <v>0.0008316660873723826</v>
       </c>
       <c r="U69" t="n">
-        <v>0.042770897854223</v>
+        <v>0.0142757842224281</v>
       </c>
       <c r="V69" t="n">
-        <v>0.102573330150406</v>
+        <v>0.08739112718757429</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02744091919160999</v>
+        <v>0.06252642615193296</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0092477605061992</v>
+        <v>0.05394135280426959</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.1064031664289571</v>
+        <v>0.09437021948378228</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.03107293192937229</v>
+        <v>0.04563975569306063</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.05116652508321316</v>
+        <v>0.002003471787467181</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.09039915695682736</v>
+        <v>0.002484167769670122</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.01171122498132751</v>
+        <v>0.01496830221565967</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.129174715388247</v>
+        <v>0.1256128772293123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07546803917170587</v>
+        <v>0.05275661542468733</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05154300322823066</v>
+        <v>0.06147591579280792</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008341706869301597</v>
+        <v>0.01572254013803063</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06999035319941811</v>
+        <v>0.006119331329101869</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01550882064213771</v>
+        <v>0.04711038738782371</v>
       </c>
       <c r="K70" t="n">
-        <v>0.03367805021261075</v>
+        <v>0.01667166363189847</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01809511955064705</v>
+        <v>0.07345170174237962</v>
       </c>
       <c r="M70" t="n">
-        <v>0.06140080370806323</v>
+        <v>0.02300652040157098</v>
       </c>
       <c r="N70" t="n">
-        <v>0.01506842224441578</v>
+        <v>0.008763226398668372</v>
       </c>
       <c r="O70" t="n">
-        <v>0.02531524338781974</v>
+        <v>0.1067761552552027</v>
       </c>
       <c r="P70" t="n">
-        <v>0.08409524293335233</v>
+        <v>0.09337484713472703</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02356215166594415</v>
+        <v>0.03347586350016473</v>
       </c>
       <c r="R70" t="n">
-        <v>0.02313946527822604</v>
+        <v>0.03113856178623126</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02315091872177003</v>
+        <v>0.03332463703718577</v>
       </c>
       <c r="T70" t="n">
-        <v>0.08641922269727068</v>
+        <v>0.02048518512937164</v>
       </c>
       <c r="U70" t="n">
-        <v>0.07961756555625761</v>
+        <v>0.09423827503036235</v>
       </c>
       <c r="V70" t="n">
-        <v>0.04458561407678781</v>
+        <v>0.006481669248814412</v>
       </c>
       <c r="W70" t="n">
-        <v>0.0907563097475397</v>
+        <v>0.1012970883432761</v>
       </c>
       <c r="X70" t="n">
-        <v>0.04073067707137969</v>
+        <v>0.07505012716656391</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0221484442073595</v>
+        <v>0.006667446706669055</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08645797760677584</v>
+        <v>0.07533823624173851</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.002880910447887979</v>
+        <v>0.01427798891528124</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.01804593777509807</v>
+        <v>0.002996016257442364</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.03948035243566413</v>
+        <v>-0.03355111833996965</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1414643182475844</v>
+        <v>0.1451171458858218</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09794023898279108</v>
+        <v>0.007901237863876814</v>
       </c>
       <c r="G71" t="n">
-        <v>0.09186560700030094</v>
+        <v>0.09369958354131173</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02814299395174359</v>
+        <v>0.00266471212390241</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0183027811745584</v>
+        <v>0.06530781466224279</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01461144433511224</v>
+        <v>0.01387082727725644</v>
       </c>
       <c r="K71" t="n">
-        <v>0.05614533363878289</v>
+        <v>0.02867267322474611</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001951449471439592</v>
+        <v>0.01505181368855235</v>
       </c>
       <c r="M71" t="n">
-        <v>0.09748406455462917</v>
+        <v>0.1086362006889623</v>
       </c>
       <c r="N71" t="n">
-        <v>0.001704650475967413</v>
+        <v>0.03164181323618662</v>
       </c>
       <c r="O71" t="n">
-        <v>0.02672872088635224</v>
+        <v>0.01688379583727919</v>
       </c>
       <c r="P71" t="n">
-        <v>0.03012326022777028</v>
+        <v>0.04364302229162568</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.07816096458534573</v>
+        <v>0.09926768985085759</v>
       </c>
       <c r="R71" t="n">
-        <v>0.03922684851678997</v>
+        <v>0.006338424412717493</v>
       </c>
       <c r="S71" t="n">
-        <v>0.05489714265073779</v>
+        <v>0.02903709491929083</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0172067782383103</v>
+        <v>0.0200957413600306</v>
       </c>
       <c r="U71" t="n">
-        <v>0.009386876565508278</v>
+        <v>0.05968993786334478</v>
       </c>
       <c r="V71" t="n">
-        <v>0.01688031793169466</v>
+        <v>0.0501480066783811</v>
       </c>
       <c r="W71" t="n">
-        <v>0.01093214163055035</v>
+        <v>0.0286082919084793</v>
       </c>
       <c r="X71" t="n">
-        <v>0.06455207211461872</v>
+        <v>0.0612129230899693</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.08140572509118615</v>
+        <v>0.1075153989655746</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.08551955057091354</v>
+        <v>0.002777252900639785</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.03255982621934379</v>
+        <v>0.07311448685414387</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.04427121118555278</v>
+        <v>0.0342212567606285</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.03306707538665055</v>
+        <v>-0.03885132597881324</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1143786453122912</v>
+        <v>0.1174607109784316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07977181225939318</v>
+        <v>0.06170572438087186</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03249699139721868</v>
+        <v>0.05520287496568032</v>
       </c>
       <c r="H72" t="n">
-        <v>0.01514072840217911</v>
+        <v>0.01886386659347965</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01507408152311595</v>
+        <v>0.03504438796772499</v>
       </c>
       <c r="J72" t="n">
-        <v>0.09974072557129721</v>
+        <v>0.07038879902780944</v>
       </c>
       <c r="K72" t="n">
-        <v>0.008606083958115695</v>
+        <v>0.02729619155595573</v>
       </c>
       <c r="L72" t="n">
-        <v>0.01466777136994772</v>
+        <v>0.03220821070886518</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04835842683106921</v>
+        <v>0.06723683149888791</v>
       </c>
       <c r="N72" t="n">
-        <v>0.02540944488410191</v>
+        <v>0.01705172174233088</v>
       </c>
       <c r="O72" t="n">
-        <v>0.05654189353503426</v>
+        <v>0.03843794225346909</v>
       </c>
       <c r="P72" t="n">
-        <v>0.09856239760275805</v>
+        <v>0.05476452139270757</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.05393608342283728</v>
+        <v>0.07054878336872838</v>
       </c>
       <c r="R72" t="n">
-        <v>0.02260963029796758</v>
+        <v>0.01429462737618949</v>
       </c>
       <c r="S72" t="n">
-        <v>0.0338017520004097</v>
+        <v>0.005661615043621795</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0145388745146463</v>
+        <v>0.0471982382105147</v>
       </c>
       <c r="U72" t="n">
-        <v>0.09909664806756624</v>
+        <v>0.05572052889067745</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02015720295445166</v>
+        <v>0.0244243817574071</v>
       </c>
       <c r="W72" t="n">
-        <v>0.08383918943761449</v>
+        <v>0.06519850441281241</v>
       </c>
       <c r="X72" t="n">
-        <v>0.08753486915013983</v>
+        <v>0.07073909890082333</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.03636837580142201</v>
+        <v>0.008140045126809617</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.02161871281804479</v>
+        <v>0.03064255197654881</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.01548650131747995</v>
+        <v>0.06585030064710198</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.01664180288318921</v>
+        <v>0.06338025220098238</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1293312793781893</v>
+        <v>-0.1265992073410618</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1267931747981713</v>
+        <v>0.1263945907531927</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06291957417274703</v>
+        <v>0.03824503196111709</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0746399815891621</v>
+        <v>7.861208037705171e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03506659515102069</v>
+        <v>0.006864226246719419</v>
       </c>
       <c r="I73" t="n">
-        <v>0.008633114798144487</v>
+        <v>0.024868308229254</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01658149417227435</v>
+        <v>0.0009349128560597114</v>
       </c>
       <c r="K73" t="n">
-        <v>0.07356884429112691</v>
+        <v>0.03229433843901777</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0075248773322116</v>
+        <v>0.00258252320431569</v>
       </c>
       <c r="M73" t="n">
-        <v>0.08262490972623268</v>
+        <v>0.0869151986671132</v>
       </c>
       <c r="N73" t="n">
-        <v>0.003360210493238572</v>
+        <v>0.01967986185067658</v>
       </c>
       <c r="O73" t="n">
-        <v>0.04737712545367389</v>
+        <v>0.0609892865935807</v>
       </c>
       <c r="P73" t="n">
-        <v>0.005077343816591781</v>
+        <v>0.06786733554799025</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0780514232228708</v>
+        <v>0.07890736353392323</v>
       </c>
       <c r="R73" t="n">
-        <v>0.02089962478734511</v>
+        <v>0.02590212176142033</v>
       </c>
       <c r="S73" t="n">
-        <v>0.03509914024709036</v>
+        <v>0.01047034462004015</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01016158838525059</v>
+        <v>0.05340959225479834</v>
       </c>
       <c r="U73" t="n">
-        <v>0.02433366313385458</v>
+        <v>0.07672873182571542</v>
       </c>
       <c r="V73" t="n">
-        <v>0.08117016486519148</v>
+        <v>0.09453203661379256</v>
       </c>
       <c r="W73" t="n">
-        <v>0.08037496967296642</v>
+        <v>0.05709411172395656</v>
       </c>
       <c r="X73" t="n">
-        <v>0.07135034909974219</v>
+        <v>0.007382565861971715</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.07638424831953876</v>
+        <v>0.09583474478686191</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.04061688883945121</v>
+        <v>0.08546982947988985</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.008336675005825923</v>
+        <v>0.04568176583302806</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.05584719342444867</v>
+        <v>0.02726715602838066</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1461414291459345</v>
+        <v>-0.1569735785354142</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1243497692191865</v>
+        <v>0.1231574715241495</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04513850180476273</v>
+        <v>0.08146337346666654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.09043377999461889</v>
+        <v>0.02212136656241493</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06564470056992511</v>
+        <v>0.02013735240293254</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01251622542033575</v>
+        <v>0.01397990373809235</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05238572804093718</v>
+        <v>0.05605032346814041</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01999312512504318</v>
+        <v>0.01721447973302061</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02916817982841059</v>
+        <v>0.009131987569655818</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07972178657738087</v>
+        <v>0.09637648512114812</v>
       </c>
       <c r="N74" t="n">
-        <v>0.008619719304017545</v>
+        <v>0.01891579927778022</v>
       </c>
       <c r="O74" t="n">
-        <v>0.03403969318830236</v>
+        <v>0.04523340978944943</v>
       </c>
       <c r="P74" t="n">
-        <v>0.05226455855339082</v>
+        <v>0.08095780076148766</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.08831366874883537</v>
+        <v>0.06383107222899276</v>
       </c>
       <c r="R74" t="n">
-        <v>0.04946071403908297</v>
+        <v>0.006402889228437837</v>
       </c>
       <c r="S74" t="n">
-        <v>0.01130515241553406</v>
+        <v>0.002035696111211095</v>
       </c>
       <c r="T74" t="n">
-        <v>0.02092870960203973</v>
+        <v>0.005850792776262449</v>
       </c>
       <c r="U74" t="n">
-        <v>0.05101064452351966</v>
+        <v>0.08159581724470902</v>
       </c>
       <c r="V74" t="n">
-        <v>0.01689523634468803</v>
+        <v>0.003492545020589306</v>
       </c>
       <c r="W74" t="n">
-        <v>0.05122012649573926</v>
+        <v>0.02828454906221209</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07731024468964476</v>
+        <v>0.09619106539281486</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.0302595385943247</v>
+        <v>0.009415703348121092</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.07448214738399707</v>
+        <v>0.08038234043108823</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.03885642990559456</v>
+        <v>0.09078952365066265</v>
       </c>
       <c r="AB74" t="n">
-        <v>3.138884987498943e-05</v>
+        <v>0.07014572361410991</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.146236662701106</v>
+        <v>0.1218881767594388</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.146760490134737</v>
+        <v>0.1476317778582625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06373198024029651</v>
+        <v>0.1216649358725341</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03273857066662266</v>
+        <v>0.09546152605773685</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006304843990375569</v>
+        <v>0.006434455528943619</v>
       </c>
       <c r="I75" t="n">
-        <v>0.006022011508220318</v>
+        <v>0.0008641898941261417</v>
       </c>
       <c r="J75" t="n">
-        <v>0.004300360332175095</v>
+        <v>0.01843776837603435</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01802123636551261</v>
+        <v>0.008611201076470835</v>
       </c>
       <c r="L75" t="n">
-        <v>0.04583818882890897</v>
+        <v>0.000913082942467062</v>
       </c>
       <c r="M75" t="n">
-        <v>0.05251022311439755</v>
+        <v>0.0004127051301499055</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1051254627853047</v>
+        <v>0.0428265389699551</v>
       </c>
       <c r="O75" t="n">
-        <v>0.006250893657921912</v>
+        <v>0.01154293227935555</v>
       </c>
       <c r="P75" t="n">
-        <v>0.01109405813443082</v>
+        <v>0.01819387172736083</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02539976332335409</v>
+        <v>0.1100216014780484</v>
       </c>
       <c r="R75" t="n">
-        <v>0.02402084253032009</v>
+        <v>0.06797669128361603</v>
       </c>
       <c r="S75" t="n">
-        <v>0.03643794186460692</v>
+        <v>0.00281287335111499</v>
       </c>
       <c r="T75" t="n">
-        <v>0.03486302449251174</v>
+        <v>0.1016849533879798</v>
       </c>
       <c r="U75" t="n">
-        <v>0.02437441581354882</v>
+        <v>0.03269381319235157</v>
       </c>
       <c r="V75" t="n">
-        <v>0.02355482082791672</v>
+        <v>0.05366423843942418</v>
       </c>
       <c r="W75" t="n">
-        <v>0.03325298228636743</v>
+        <v>0.05519126088181274</v>
       </c>
       <c r="X75" t="n">
-        <v>0.1364264614720283</v>
+        <v>0.009511333825001951</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.1028808488262498</v>
+        <v>0.1194433725694163</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.05498577485210594</v>
+        <v>0.02486634308130308</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.121809435205262</v>
+        <v>0.07713823679581402</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.03005585888156151</v>
+        <v>0.01963207385898248</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.146585111236492</v>
+        <v>0.160546477925136</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1214101284520045</v>
+        <v>0.1220762633263923</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02008059442383133</v>
+        <v>0.04016547506118837</v>
       </c>
       <c r="G76" t="n">
-        <v>0.002702824530100796</v>
+        <v>0.02594030946871116</v>
       </c>
       <c r="H76" t="n">
-        <v>0.002153882664306149</v>
+        <v>0.06497049334354217</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04365789581430351</v>
+        <v>0.006665089267705965</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0218415508661073</v>
+        <v>0.0370815146108261</v>
       </c>
       <c r="K76" t="n">
-        <v>0.002262241670997847</v>
+        <v>0.01754264611213062</v>
       </c>
       <c r="L76" t="n">
-        <v>0.07503500559258905</v>
+        <v>0.07062491951078766</v>
       </c>
       <c r="M76" t="n">
-        <v>0.09829680016043867</v>
+        <v>0.08517502574171174</v>
       </c>
       <c r="N76" t="n">
-        <v>0.03092205084917787</v>
+        <v>0.03594338255363658</v>
       </c>
       <c r="O76" t="n">
-        <v>0.05508257101381395</v>
+        <v>0.02204739557768981</v>
       </c>
       <c r="P76" t="n">
-        <v>0.07082380188383376</v>
+        <v>0.09722001917798803</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.08097960327619848</v>
+        <v>0.07257448682076893</v>
       </c>
       <c r="R76" t="n">
-        <v>0.07517603717221136</v>
+        <v>0.05644241996724702</v>
       </c>
       <c r="S76" t="n">
-        <v>0.01795791278577095</v>
+        <v>0.008280353488439663</v>
       </c>
       <c r="T76" t="n">
-        <v>0.02404005058334727</v>
+        <v>0.03513795001526511</v>
       </c>
       <c r="U76" t="n">
-        <v>0.0909830079493518</v>
+        <v>0.1147177634937809</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01011970768177451</v>
+        <v>0.009681584517283334</v>
       </c>
       <c r="W76" t="n">
-        <v>0.0890591114117729</v>
+        <v>0.04067487617543794</v>
       </c>
       <c r="X76" t="n">
-        <v>0.06030856738497362</v>
+        <v>0.06682071319573633</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.02922062691947262</v>
+        <v>0.01501199842710097</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.06871310857766395</v>
+        <v>0.0304600313778807</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.02632357156216285</v>
+        <v>0.01063078794876558</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.004259475225799298</v>
+        <v>0.03619076414637531</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.04758209433378748</v>
+        <v>-0.06542549730318846</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1326642446417602</v>
+        <v>0.1331786854418258</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06563438966395105</v>
+        <v>0.08457404687161381</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1066341873122607</v>
+        <v>0.04092070452714917</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0469686012838481</v>
+        <v>0.03425498198485008</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01556834562230466</v>
+        <v>0.0220523417372909</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01444979089668017</v>
+        <v>0.008540839386787766</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01475455647506875</v>
+        <v>0.009601856165769371</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01172718548785901</v>
+        <v>0.04582217774746201</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04956081855494707</v>
+        <v>0.09360840847330976</v>
       </c>
       <c r="N77" t="n">
-        <v>0.005838458260054303</v>
+        <v>0.007968626310713477</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02970975240291622</v>
+        <v>0.03714769835832868</v>
       </c>
       <c r="P77" t="n">
-        <v>0.04957437954238487</v>
+        <v>0.07788352196061207</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.05634211278799774</v>
+        <v>0.06657520067034765</v>
       </c>
       <c r="R77" t="n">
-        <v>0.00967442650991452</v>
+        <v>0.01236267912870417</v>
       </c>
       <c r="S77" t="n">
-        <v>0.04585578219858193</v>
+        <v>0.01616388583048835</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1069223001408517</v>
+        <v>0.08176096767902551</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03059936566715574</v>
+        <v>0.008229084163658749</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01094169510621807</v>
+        <v>0.03706912998084065</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04728834572142105</v>
+        <v>0.08052616312658815</v>
       </c>
       <c r="X77" t="n">
-        <v>0.08756588071846666</v>
+        <v>0.04434152227198472</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.1107456769436194</v>
+        <v>0.09677702365544455</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.003846708860345563</v>
+        <v>0.009860670145932629</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.07783002305384168</v>
+        <v>0.06914773926675827</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.001967216789310812</v>
+        <v>0.01481073055633962</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.03536116151610885</v>
+        <v>-0.03175318904640758</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1252940362432506</v>
+        <v>0.1248331230468284</v>
       </c>
       <c r="F78" t="n">
-        <v>0.008148785326593749</v>
+        <v>0.03585904107976388</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07824306078309602</v>
+        <v>0.06632047106332309</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03303628118539276</v>
+        <v>0.02960212948774565</v>
       </c>
       <c r="I78" t="n">
-        <v>0.006791129556123891</v>
+        <v>0.0004056206706211974</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08252026034230416</v>
+        <v>0.08066411644890081</v>
       </c>
       <c r="K78" t="n">
-        <v>0.05354789649579956</v>
+        <v>0.02742952564586664</v>
       </c>
       <c r="L78" t="n">
-        <v>0.005565092211769184</v>
+        <v>0.0259749143176685</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03159792701498144</v>
+        <v>0.09021702909864253</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05663186208346502</v>
+        <v>0.002703280411743062</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01524069200217706</v>
+        <v>0.09397441155003868</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1362780155995241</v>
+        <v>0.09087477773213171</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.04744596545239934</v>
+        <v>0.03542451391303843</v>
       </c>
       <c r="R78" t="n">
-        <v>0.006484512256640327</v>
+        <v>0.02018130734688595</v>
       </c>
       <c r="S78" t="n">
-        <v>0.007255756512883443</v>
+        <v>0.05299499088495249</v>
       </c>
       <c r="T78" t="n">
-        <v>0.07113642172732428</v>
+        <v>0.02499314569703394</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08063516925706853</v>
+        <v>0.05894994539637429</v>
       </c>
       <c r="V78" t="n">
-        <v>0.006493349291351231</v>
+        <v>0.0176933931847699</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1398444517337915</v>
+        <v>0.09934722593058162</v>
       </c>
       <c r="X78" t="n">
-        <v>0.05055646503351947</v>
+        <v>0.03092242512987501</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.004154218848784645</v>
+        <v>0.002688461010579749</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.005998089351972278</v>
+        <v>0.05126696854639497</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.06769258278031</v>
+        <v>0.04602531019212411</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.004702015152727793</v>
+        <v>0.01548699526094356</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.07833183570200634</v>
+        <v>0.09199803682596355</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1349393700873386</v>
+        <v>0.1344173254629013</v>
       </c>
       <c r="F79" t="n">
-        <v>0.079847854421639</v>
+        <v>0.06782540605351556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06287764007534924</v>
+        <v>0.06013149565879585</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0332861888285254</v>
+        <v>0.02740521999522888</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01449733990133873</v>
+        <v>0.04133795073666154</v>
       </c>
       <c r="J79" t="n">
-        <v>0.002478200543764932</v>
+        <v>0.02049825214920444</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0393441619240003</v>
+        <v>0.01383240089676693</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07391648820507406</v>
+        <v>0.03784040076864109</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08093943237106785</v>
+        <v>0.1039099871009244</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0007762152169806751</v>
+        <v>0.006245601616934545</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009698626310834357</v>
+        <v>0.02802447881850999</v>
       </c>
       <c r="P79" t="n">
-        <v>0.03079667380046101</v>
+        <v>0.002907686946103893</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06889509716195945</v>
+        <v>0.08147297018063755</v>
       </c>
       <c r="R79" t="n">
-        <v>0.009001575708637143</v>
+        <v>0.03281072754047291</v>
       </c>
       <c r="S79" t="n">
-        <v>0.02223488917732719</v>
+        <v>0.07822431279517825</v>
       </c>
       <c r="T79" t="n">
-        <v>0.03522896957071964</v>
+        <v>0.00210227661934114</v>
       </c>
       <c r="U79" t="n">
-        <v>0.005182319613940636</v>
+        <v>0.05630748494129894</v>
       </c>
       <c r="V79" t="n">
-        <v>0.02393427699833458</v>
+        <v>0.03564805943034037</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05531756449502562</v>
+        <v>0.03798057652091497</v>
       </c>
       <c r="X79" t="n">
-        <v>0.08573165900335251</v>
+        <v>0.1118585352886834</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.07108118127869222</v>
+        <v>0.09212456249181417</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.08001196375537141</v>
+        <v>0.05671371928838385</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.06093057819756387</v>
+        <v>0.001442814960138491</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.05399110344004002</v>
+        <v>0.003355079201508934</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.1038733755289636</v>
+        <v>0.09498114591721894</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1287698501874876</v>
+        <v>0.1286304236960318</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09382212482244456</v>
+        <v>0.01894764919257797</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01121661887357578</v>
+        <v>0.07799095973973784</v>
       </c>
       <c r="H80" t="n">
-        <v>0.04373805213836882</v>
+        <v>0.02342385482462441</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0301866823805524</v>
+        <v>0.03222170704415871</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04027714122464028</v>
+        <v>0.001513867226146586</v>
       </c>
       <c r="K80" t="n">
-        <v>0.07606389308964072</v>
+        <v>0.03958008422482678</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01008925901056608</v>
+        <v>0.04231311447153429</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03578588405873324</v>
+        <v>0.06177690139061262</v>
       </c>
       <c r="N80" t="n">
-        <v>0.004928845455224862</v>
+        <v>0.04024303048670114</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01624070385716242</v>
+        <v>0.03338345770818798</v>
       </c>
       <c r="P80" t="n">
-        <v>0.114441831946946</v>
+        <v>0.09462815334032383</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.09688493186264488</v>
+        <v>0.07944929953462336</v>
       </c>
       <c r="R80" t="n">
-        <v>0.009042857141735916</v>
+        <v>0.004843716576338161</v>
       </c>
       <c r="S80" t="n">
-        <v>0.03372492755175062</v>
+        <v>0.02813946535538025</v>
       </c>
       <c r="T80" t="n">
-        <v>0.02415257022214733</v>
+        <v>0.08435301818751004</v>
       </c>
       <c r="U80" t="n">
-        <v>0.09064864731517457</v>
+        <v>0.1095960279587412</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02689566041118883</v>
+        <v>0.01351268955166001</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08121950997403485</v>
+        <v>0.0619523533554209</v>
       </c>
       <c r="X80" t="n">
-        <v>0.05119498670919727</v>
+        <v>0.04849883506583696</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.03200959469119238</v>
+        <v>0.03012267352004673</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.02991588437588702</v>
+        <v>0.04174647188482615</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.01079569802793306</v>
+        <v>0.007824756056503445</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.03672369485925814</v>
+        <v>0.02393791330368085</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1925323710809149</v>
+        <v>-0.1886796654908553</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1347637798842633</v>
+        <v>0.1423148080911472</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07079672973342906</v>
+        <v>0.08957603452007921</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05897488594846637</v>
+        <v>0.08892603799958353</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04055564475443793</v>
+        <v>0.03608814287806065</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04822954030925423</v>
+        <v>0.005934637991184153</v>
       </c>
       <c r="J81" t="n">
-        <v>0.009854589446388107</v>
+        <v>0.0415621641005604</v>
       </c>
       <c r="K81" t="n">
-        <v>0.00756535262650448</v>
+        <v>0.009995433516031863</v>
       </c>
       <c r="L81" t="n">
-        <v>0.004174082936807317</v>
+        <v>0.006774229671409365</v>
       </c>
       <c r="M81" t="n">
-        <v>0.06715619685912508</v>
+        <v>0.06969986386797541</v>
       </c>
       <c r="N81" t="n">
-        <v>3.018971418767694e-05</v>
+        <v>0.00992153874137325</v>
       </c>
       <c r="O81" t="n">
-        <v>0.04884082826480467</v>
+        <v>0.1002833097084947</v>
       </c>
       <c r="P81" t="n">
-        <v>0.04076054072822696</v>
+        <v>0.02029640665906664</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.08656423671970896</v>
+        <v>0.02084649651290337</v>
       </c>
       <c r="R81" t="n">
-        <v>0.001483237460238212</v>
+        <v>0.04783286767142951</v>
       </c>
       <c r="S81" t="n">
-        <v>0.05627864442511642</v>
+        <v>0.01413724504260927</v>
       </c>
       <c r="T81" t="n">
-        <v>0.07286520916537717</v>
+        <v>0.03878987274558503</v>
       </c>
       <c r="U81" t="n">
-        <v>0.04298475513067538</v>
+        <v>0.05901324765716007</v>
       </c>
       <c r="V81" t="n">
-        <v>0.01017058512609988</v>
+        <v>0.02553503800761137</v>
       </c>
       <c r="W81" t="n">
-        <v>0.07543929992711663</v>
+        <v>0.03268010584889589</v>
       </c>
       <c r="X81" t="n">
-        <v>0.08417197675476586</v>
+        <v>0.08007899256364218</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.07326147989470901</v>
+        <v>0.07896736833086547</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.07107135048303913</v>
+        <v>0.09034425716736876</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.01375386724331247</v>
+        <v>0.004243633528421199</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.01501677634820906</v>
+        <v>0.02847307526968862</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1851666689320838</v>
+        <v>-0.1891600139371402</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1948210418545689</v>
+        <v>0.191842559513649</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02824329616592023</v>
+        <v>0.03207915469172676</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01605140194028014</v>
+        <v>0.004952798721951884</v>
       </c>
       <c r="H82" t="n">
-        <v>0.067301974446309</v>
+        <v>0.01272352288341855</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0548816046233186</v>
+        <v>0.04317752350779568</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01186682271505426</v>
+        <v>0.1115234704380464</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01460283393885405</v>
+        <v>0.0008836273401342796</v>
       </c>
       <c r="L82" t="n">
-        <v>0.001753490753592799</v>
+        <v>0.005976067734599065</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05117859691816604</v>
+        <v>0.06037969721863044</v>
       </c>
       <c r="N82" t="n">
-        <v>0.002543623280816202</v>
+        <v>0.02911658993629863</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02952130568362679</v>
+        <v>0.0714721111911039</v>
       </c>
       <c r="P82" t="n">
-        <v>0.009132222479121177</v>
+        <v>0.04945088989707445</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.0751122513223839</v>
+        <v>0.1133802739296478</v>
       </c>
       <c r="R82" t="n">
-        <v>0.08092605357943031</v>
+        <v>0.09263598930744937</v>
       </c>
       <c r="S82" t="n">
-        <v>0.03503734814806948</v>
+        <v>0.02680274948890172</v>
       </c>
       <c r="T82" t="n">
-        <v>0.007775866169468123</v>
+        <v>0.02974092463515274</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0826057608110841</v>
+        <v>0.08549538299814305</v>
       </c>
       <c r="V82" t="n">
-        <v>0.00109784632382942</v>
+        <v>0.0002586385814220509</v>
       </c>
       <c r="W82" t="n">
-        <v>0.06156380752809269</v>
+        <v>0.01327028248486822</v>
       </c>
       <c r="X82" t="n">
-        <v>0.09228191509161553</v>
+        <v>0.02693686791873813</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.08617411093577716</v>
+        <v>0.09484544790437391</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.09545876768078893</v>
+        <v>0.06569635003471401</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.06993139473913328</v>
+        <v>0.02028748687843949</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.02495770472526791</v>
+        <v>0.008914152277369646</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1630484570105964</v>
+        <v>0.1623815879743861</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2021388440877987</v>
+        <v>0.2130924335767398</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09491956842633936</v>
+        <v>0.07154063595267644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03697187693306236</v>
+        <v>0.03931984455101022</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01039684351894635</v>
+        <v>0.02016980095436921</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02512200392947423</v>
+        <v>0.03733673408444882</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02480519095525994</v>
+        <v>0.009814961419496577</v>
       </c>
       <c r="K83" t="n">
-        <v>0.005411304155457008</v>
+        <v>0.001404549964171426</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01339564446848543</v>
+        <v>0.01332313660516845</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08293702621367957</v>
+        <v>0.04925427508550202</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01479490261821692</v>
+        <v>0.02689586546425104</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0312518947878899</v>
+        <v>0.06242178594094645</v>
       </c>
       <c r="P83" t="n">
-        <v>0.05336464359543228</v>
+        <v>0.01041506405344945</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.07014898630463333</v>
+        <v>0.03232412434247581</v>
       </c>
       <c r="R83" t="n">
-        <v>0.020324879478993</v>
+        <v>0.03973720753551312</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0175074005950576</v>
+        <v>0.004540858445594194</v>
       </c>
       <c r="T83" t="n">
-        <v>0.01706056611220657</v>
+        <v>0.07391926476470383</v>
       </c>
       <c r="U83" t="n">
-        <v>0.08045817447301126</v>
+        <v>0.02732879311307723</v>
       </c>
       <c r="V83" t="n">
-        <v>0.07938311680113827</v>
+        <v>0.001134697230480691</v>
       </c>
       <c r="W83" t="n">
-        <v>0.05385922803486608</v>
+        <v>0.09701601568776816</v>
       </c>
       <c r="X83" t="n">
-        <v>0.08226767838030002</v>
+        <v>0.07331890345989803</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.09308181875164716</v>
+        <v>0.103036643474681</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.08043356180320252</v>
+        <v>0.06367081550051608</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.001728751576577445</v>
+        <v>0.07658358717693774</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.01037493808612343</v>
+        <v>0.06549243519286399</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1947080810003642</v>
+        <v>0.203840514984346</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.218552131256721</v>
+        <v>0.2172266209418703</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001646281861108192</v>
+        <v>0.0665123694949445</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06322899474947315</v>
+        <v>0.04123456458531787</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02606272679365128</v>
+        <v>0.05160862663512969</v>
       </c>
       <c r="I84" t="n">
-        <v>0.08811913033343821</v>
+        <v>0.03612198935092139</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03432590880596622</v>
+        <v>0.04067859403186332</v>
       </c>
       <c r="K84" t="n">
-        <v>0.003982078628456264</v>
+        <v>0.03542453118701908</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002704312475535906</v>
+        <v>0.006702557011235309</v>
       </c>
       <c r="M84" t="n">
-        <v>0.07982407571395186</v>
+        <v>0.03723326579671857</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01186551128904832</v>
+        <v>0.01950544890929779</v>
       </c>
       <c r="O84" t="n">
-        <v>0.09250266629681973</v>
+        <v>0.007893845604278114</v>
       </c>
       <c r="P84" t="n">
-        <v>0.08624487136895527</v>
+        <v>0.1014226801956904</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.09004247042830338</v>
+        <v>0.07992213218024199</v>
       </c>
       <c r="R84" t="n">
-        <v>0.09312149761017685</v>
+        <v>0.03908055314358653</v>
       </c>
       <c r="S84" t="n">
-        <v>0.01663683284742397</v>
+        <v>0.0598128038318437</v>
       </c>
       <c r="T84" t="n">
-        <v>0.007127216986566368</v>
+        <v>0.01043297736495602</v>
       </c>
       <c r="U84" t="n">
-        <v>0.04701845924814189</v>
+        <v>0.1004343086481758</v>
       </c>
       <c r="V84" t="n">
-        <v>0.01161105234146831</v>
+        <v>0.0106175746074411</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0001805705941148067</v>
+        <v>0.09718747489606998</v>
       </c>
       <c r="X84" t="n">
-        <v>0.05138420493220982</v>
+        <v>0.03834222417431805</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.09695340257772833</v>
+        <v>0.04582449356973312</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.005842670830058212</v>
+        <v>0.004201617062494614</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0760910729640078</v>
+        <v>0.04733178930059195</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.0134839903233959</v>
+        <v>0.02247357841813097</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.007823077013249097</v>
+        <v>0.06732362981211748</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2348678465684394</v>
+        <v>0.2254189049697311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07374124523407632</v>
+        <v>0.03987291848249555</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02715363720460556</v>
+        <v>0.07208122465124582</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02256446092416195</v>
+        <v>0.04050102214177025</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0410311992515714</v>
+        <v>0.08097462418034404</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04123472116681998</v>
+        <v>3.358209052716579e-05</v>
       </c>
       <c r="K85" t="n">
-        <v>0.008067047842685813</v>
+        <v>0.00402187164609397</v>
       </c>
       <c r="L85" t="n">
-        <v>0.007436566347308706</v>
+        <v>0.02736171485043552</v>
       </c>
       <c r="M85" t="n">
-        <v>0.08109440150839788</v>
+        <v>0.08383147693355684</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01543387405942896</v>
+        <v>0.01658272793328161</v>
       </c>
       <c r="O85" t="n">
-        <v>0.05066237850173667</v>
+        <v>0.00780151508421651</v>
       </c>
       <c r="P85" t="n">
-        <v>0.00421764733300288</v>
+        <v>0.0818454435660572</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.08329588530658592</v>
+        <v>0.09021484745744986</v>
       </c>
       <c r="R85" t="n">
-        <v>0.06676375122120135</v>
+        <v>0.08777845636185416</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02718948822720781</v>
+        <v>0.03334036994561386</v>
       </c>
       <c r="T85" t="n">
-        <v>0.007775057412727243</v>
+        <v>0.008842601851263406</v>
       </c>
       <c r="U85" t="n">
-        <v>0.02062499870301313</v>
+        <v>0.02684783810629539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.05478764842486739</v>
+        <v>0.04412046984513503</v>
       </c>
       <c r="W85" t="n">
-        <v>0.08018839584529334</v>
+        <v>0.001168505423275564</v>
       </c>
       <c r="X85" t="n">
-        <v>0.07157871066297565</v>
+        <v>0.04120236237467435</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.08197290675694277</v>
+        <v>0.08917372717841723</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.07744999406477039</v>
+        <v>0.08328308160648427</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.01182454640911736</v>
+        <v>0.03411564394323204</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.04391143759150151</v>
+        <v>0.005003974346280413</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.03253500298388964</v>
+        <v>0.002897458319204544</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>